--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.887482608062101</v>
+        <v>1.88748260806193</v>
       </c>
       <c r="C2">
         <v>0.3087331334606347</v>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0314434197023914</v>
+        <v>0.03144341970242337</v>
       </c>
       <c r="F2">
         <v>1.891037225634562</v>
       </c>
       <c r="G2">
-        <v>1.858347866347515</v>
+        <v>1.858347866347501</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0.4735414945441434</v>
       </c>
       <c r="K2">
-        <v>0.09201692023079389</v>
+        <v>0.09201692023077968</v>
       </c>
       <c r="L2">
-        <v>0.4666608440419822</v>
+        <v>0.4666608440419893</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.627660424418337</v>
+        <v>1.627660424418309</v>
       </c>
       <c r="C3">
-        <v>0.2680898259994535</v>
+        <v>0.2680898259992119</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0275183404668855</v>
+        <v>0.02751834046688018</v>
       </c>
       <c r="F3">
-        <v>1.657388259337267</v>
+        <v>1.657388259337282</v>
       </c>
       <c r="G3">
-        <v>1.679543699589729</v>
+        <v>1.679543699589715</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1799821717995602</v>
+        <v>0.1799821717995709</v>
       </c>
       <c r="J3">
-        <v>0.4080212498639213</v>
+        <v>0.4080212498638787</v>
       </c>
       <c r="K3">
-        <v>0.07943950612798645</v>
+        <v>0.07943950612797934</v>
       </c>
       <c r="L3">
-        <v>0.4025626631477834</v>
+        <v>0.4025626631477905</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.470475813803944</v>
+        <v>1.470475813804114</v>
       </c>
       <c r="C4">
-        <v>0.2434354344825636</v>
+        <v>0.2434354344823788</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02513897767152962</v>
+        <v>0.02513897767156514</v>
       </c>
       <c r="F4">
         <v>1.516953237142502</v>
       </c>
       <c r="G4">
-        <v>1.573202093580761</v>
+        <v>1.573202093580747</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1792417958348516</v>
+        <v>0.1792417958348729</v>
       </c>
       <c r="J4">
         <v>0.3683560913613988</v>
       </c>
       <c r="K4">
-        <v>0.07180459119620863</v>
+        <v>0.07180459119621929</v>
       </c>
       <c r="L4">
-        <v>0.3637379713246105</v>
+        <v>0.3637379713245892</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.406926225766256</v>
+        <v>1.406926225766313</v>
       </c>
       <c r="C5">
-        <v>0.2334494942169556</v>
+        <v>0.2334494942166003</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02417630543604332</v>
+        <v>0.02417630543604865</v>
       </c>
       <c r="F5">
         <v>1.460397883097244</v>
       </c>
       <c r="G5">
-        <v>1.530641290691619</v>
+        <v>1.530641290691605</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1789867051769001</v>
+        <v>0.1789867051769019</v>
       </c>
       <c r="J5">
-        <v>0.3523121617511862</v>
+        <v>0.3523121617511649</v>
       </c>
       <c r="K5">
-        <v>0.06871207673430391</v>
+        <v>0.06871207673428614</v>
       </c>
       <c r="L5">
-        <v>0.3480307881037419</v>
+        <v>0.3480307881037348</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.39640195847403</v>
+        <v>1.3964019584742</v>
       </c>
       <c r="C6">
-        <v>0.2317946111246414</v>
+        <v>0.2317946111242861</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02401685191710534</v>
+        <v>0.02401685191707337</v>
       </c>
       <c r="F6">
-        <v>1.451045114397175</v>
+        <v>1.451045114397189</v>
       </c>
       <c r="G6">
-        <v>1.523618313974552</v>
+        <v>1.523618313974538</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1789470449066819</v>
+        <v>0.1789470449066979</v>
       </c>
       <c r="J6">
-        <v>0.3496547158300771</v>
+        <v>0.3496547158300416</v>
       </c>
       <c r="K6">
-        <v>0.06819961025291477</v>
+        <v>0.06819961025292542</v>
       </c>
       <c r="L6">
         <v>0.3454289782759972</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.469616827647599</v>
+        <v>1.469616827647627</v>
       </c>
       <c r="C7">
-        <v>0.2433005323990898</v>
+        <v>0.2433005323988198</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02512596762800534</v>
+        <v>0.0251259676280462</v>
       </c>
       <c r="F7">
-        <v>1.516187898115163</v>
+        <v>1.516187898115192</v>
       </c>
       <c r="G7">
         <v>1.572625085013328</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1792381722325054</v>
+        <v>0.1792381722325178</v>
       </c>
       <c r="J7">
-        <v>0.3681392593944395</v>
+        <v>0.3681392593944182</v>
       </c>
       <c r="K7">
-        <v>0.07176281258183437</v>
+        <v>0.07176281258182016</v>
       </c>
       <c r="L7">
-        <v>0.3635257010599915</v>
+        <v>0.3635257010599844</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.797354687894199</v>
+        <v>1.797354687894369</v>
       </c>
       <c r="C8">
-        <v>0.2946476102116833</v>
+        <v>0.2946476102115128</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03008320944773679</v>
+        <v>0.03008320944777587</v>
       </c>
       <c r="F8">
-        <v>1.809791808412427</v>
+        <v>1.809791808412413</v>
       </c>
       <c r="G8">
         <v>1.79592344877338</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.180943545919618</v>
+        <v>0.1809435459196358</v>
       </c>
       <c r="J8">
-        <v>0.4508190710646929</v>
+        <v>0.4508190710646716</v>
       </c>
       <c r="K8">
         <v>0.08765998000058062</v>
       </c>
       <c r="L8">
-        <v>0.4444371091529504</v>
+        <v>0.4444371091529717</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.462985853946861</v>
+        <v>2.462985853946748</v>
       </c>
       <c r="C9">
-        <v>0.398469331546039</v>
+        <v>0.3984693315462948</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04008555674082714</v>
+        <v>0.04008555674086622</v>
       </c>
       <c r="F9">
         <v>2.413927673143135</v>
       </c>
       <c r="G9">
-        <v>2.26572947230612</v>
+        <v>2.265729472306106</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1861108623327539</v>
+        <v>0.186110862332761</v>
       </c>
       <c r="J9">
-        <v>0.6185412457208344</v>
+        <v>0.6185412457208486</v>
       </c>
       <c r="K9">
-        <v>0.1196929105132227</v>
+        <v>0.1196929105132298</v>
       </c>
       <c r="L9">
-        <v>0.6083038916239545</v>
+        <v>0.6083038916239474</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.972783658426124</v>
+        <v>2.972783658426067</v>
       </c>
       <c r="C10">
         <v>0.4778329341308734</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04766387269977912</v>
+        <v>0.04766387269982886</v>
       </c>
       <c r="F10">
         <v>2.881853260501487</v>
       </c>
       <c r="G10">
-        <v>2.637502009642176</v>
+        <v>2.637502009642148</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.191361587534896</v>
+        <v>0.1913615875348746</v>
       </c>
       <c r="J10">
-        <v>0.7469159572889339</v>
+        <v>0.7469159572889552</v>
       </c>
       <c r="K10">
-        <v>0.144004176548286</v>
+        <v>0.1440041765482789</v>
       </c>
       <c r="L10">
         <v>0.7333999030999792</v>
@@ -757,34 +757,34 @@
         <v>3.210963813489172</v>
       </c>
       <c r="C11">
-        <v>0.5149157783443741</v>
+        <v>0.514915778344573</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05117567860717642</v>
+        <v>0.05117567860717998</v>
       </c>
       <c r="F11">
         <v>3.101671863408313</v>
       </c>
       <c r="G11">
-        <v>2.814246148706928</v>
+        <v>2.814246148706914</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1941565474291913</v>
+        <v>0.1941565474291949</v>
       </c>
       <c r="J11">
-        <v>0.8068870737305858</v>
+        <v>0.8068870737305787</v>
       </c>
       <c r="K11">
-        <v>0.15529695270288</v>
+        <v>0.1552969527028587</v>
       </c>
       <c r="L11">
-        <v>0.7917247795109503</v>
+        <v>0.7917247795109361</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.3022269228602</v>
+        <v>3.302226922860257</v>
       </c>
       <c r="C12">
-        <v>0.5291290299717843</v>
+        <v>0.529129029971898</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05251608643013128</v>
+        <v>0.0525160864301597</v>
       </c>
       <c r="F12">
-        <v>3.186075449999123</v>
+        <v>3.186075449999095</v>
       </c>
       <c r="G12">
         <v>2.882447478016459</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1952822959665319</v>
+        <v>0.1952822959665212</v>
       </c>
       <c r="J12">
-        <v>0.82986638908136</v>
+        <v>0.8298663890813529</v>
       </c>
       <c r="K12">
-        <v>0.1596128794499521</v>
+        <v>0.1596128794499556</v>
       </c>
       <c r="L12">
-        <v>0.8140525488215147</v>
+        <v>0.8140525488215005</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.282521298465895</v>
+        <v>3.282521298465781</v>
       </c>
       <c r="C13">
-        <v>0.5260598341461105</v>
+        <v>0.5260598341458831</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05222691367420751</v>
+        <v>0.05222691367424659</v>
       </c>
       <c r="F13">
         <v>3.16784309212602</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1950366934470651</v>
+        <v>0.1950366934470829</v>
       </c>
       <c r="J13">
-        <v>0.8249046386009624</v>
+        <v>0.8249046386009695</v>
       </c>
       <c r="K13">
-        <v>0.1586815024768526</v>
+        <v>0.1586815024768384</v>
       </c>
       <c r="L13">
-        <v>0.8092324777980551</v>
+        <v>0.809232477798048</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.218449608800256</v>
+        <v>3.21844960880037</v>
       </c>
       <c r="C14">
-        <v>0.5160815018634537</v>
+        <v>0.5160815018631979</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05128573513547607</v>
+        <v>0.05128573513550805</v>
       </c>
       <c r="F14">
-        <v>3.108591483980888</v>
+        <v>3.108591483980859</v>
       </c>
       <c r="G14">
-        <v>2.819830525561756</v>
+        <v>2.819830525561784</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1942477575492951</v>
+        <v>0.1942477575493164</v>
       </c>
       <c r="J14">
         <v>0.8087719237140831</v>
       </c>
       <c r="K14">
-        <v>0.1556511958781996</v>
+        <v>0.1556511958782032</v>
       </c>
       <c r="L14">
         <v>0.7935566281567858</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.179348488907635</v>
+        <v>3.179348488907578</v>
       </c>
       <c r="C15">
-        <v>0.5099926860220876</v>
+        <v>0.509992686022116</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05071065262982088</v>
+        <v>0.05071065262982799</v>
       </c>
       <c r="F15">
-        <v>3.072454798563371</v>
+        <v>3.072454798563342</v>
       </c>
       <c r="G15">
-        <v>2.79068070991093</v>
+        <v>2.790680709910916</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1937735712889648</v>
+        <v>0.1937735712889506</v>
       </c>
       <c r="J15">
-        <v>0.7989266631649912</v>
+        <v>0.7989266631650054</v>
       </c>
       <c r="K15">
-        <v>0.1538003936096182</v>
+        <v>0.1538003936096004</v>
       </c>
       <c r="L15">
-        <v>0.7839873516923959</v>
+        <v>0.783987351692403</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.957358041172768</v>
+        <v>2.957358041172881</v>
       </c>
       <c r="C16">
-        <v>0.4754316598884145</v>
+        <v>0.4754316598886703</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04743577221038109</v>
+        <v>0.0474357722104024</v>
       </c>
       <c r="F16">
         <v>2.867641044250206</v>
       </c>
       <c r="G16">
-        <v>2.626119284132997</v>
+        <v>2.626119284133011</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1911878404237157</v>
+        <v>0.191187840423737</v>
       </c>
       <c r="J16">
-        <v>0.7430319295011856</v>
+        <v>0.7430319295011714</v>
       </c>
       <c r="K16">
-        <v>0.1432713638218566</v>
+        <v>0.1432713638218104</v>
       </c>
       <c r="L16">
-        <v>0.7296198661771243</v>
+        <v>0.7296198661771314</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>2.822892645100126</v>
       </c>
       <c r="C17">
-        <v>0.4545005333538086</v>
+        <v>0.4545005333537802</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04544411961634864</v>
+        <v>0.04544411961634509</v>
       </c>
       <c r="F17">
         <v>2.743885899009371</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1897116036990703</v>
+        <v>0.1897116036990845</v>
       </c>
       <c r="J17">
-        <v>0.7091742309122822</v>
+        <v>0.709174230912275</v>
       </c>
       <c r="K17">
-        <v>0.1368760069102493</v>
+        <v>0.1368760069102315</v>
       </c>
       <c r="L17">
-        <v>0.6966555696122683</v>
+        <v>0.6966555696122541</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.746130655085153</v>
+        <v>2.746130655085096</v>
       </c>
       <c r="C18">
-        <v>0.4425517210191288</v>
+        <v>0.4425517210191003</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04430454935765127</v>
+        <v>0.04430454935765837</v>
       </c>
       <c r="F18">
         <v>2.673349197666454</v>
       </c>
       <c r="G18">
-        <v>2.471067901989315</v>
+        <v>2.471067901989301</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1889001557715559</v>
+        <v>0.1889001557715204</v>
       </c>
       <c r="J18">
-        <v>0.6898453010426948</v>
+        <v>0.6898453010426877</v>
       </c>
       <c r="K18">
-        <v>0.1332191405595218</v>
+        <v>0.133219140559536</v>
       </c>
       <c r="L18">
         <v>0.6778263444348198</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.720235043990385</v>
+        <v>2.720235043990272</v>
       </c>
       <c r="C19">
-        <v>0.4385207107603435</v>
+        <v>0.4385207107605424</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04391969909340077</v>
+        <v>0.04391969909339366</v>
       </c>
       <c r="F19">
-        <v>2.649572648729759</v>
+        <v>2.64957264872973</v>
       </c>
       <c r="G19">
         <v>2.452166294391901</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1886316281692935</v>
+        <v>0.188631628169297</v>
       </c>
       <c r="J19">
-        <v>0.6833245538710599</v>
+        <v>0.6833245538710671</v>
       </c>
       <c r="K19">
-        <v>0.1319845216006961</v>
+        <v>0.1319845216007351</v>
       </c>
       <c r="L19">
-        <v>0.6714725206231122</v>
+        <v>0.6714725206231051</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.837145652388131</v>
+        <v>2.837145652388017</v>
       </c>
       <c r="C20">
-        <v>0.456719147271599</v>
+        <v>0.4567191472722527</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0456555069396245</v>
+        <v>0.04565550693966003</v>
       </c>
       <c r="F20">
         <v>2.75699208004491</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1898647951296333</v>
+        <v>0.1898647951296226</v>
       </c>
       <c r="J20">
-        <v>0.7127631252796434</v>
+        <v>0.7127631252796576</v>
       </c>
       <c r="K20">
-        <v>0.1375545293781428</v>
+        <v>0.1375545293781677</v>
       </c>
       <c r="L20">
-        <v>0.7001508644252823</v>
+        <v>0.7001508644253107</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.23723854221555</v>
+        <v>3.237238542215493</v>
       </c>
       <c r="C21">
-        <v>0.5190074853951785</v>
+        <v>0.5190074853948943</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05156188437289799</v>
+        <v>0.05156188437288733</v>
       </c>
       <c r="F21">
-        <v>3.125962155530033</v>
+        <v>3.125962155530061</v>
       </c>
       <c r="G21">
         <v>2.833854749030777</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1944775812291546</v>
+        <v>0.1944775812292043</v>
       </c>
       <c r="J21">
-        <v>0.8135028019886335</v>
+        <v>0.8135028019886192</v>
       </c>
       <c r="K21">
-        <v>0.1565401440581198</v>
+        <v>0.1565401440581091</v>
       </c>
       <c r="L21">
-        <v>0.7981541303145363</v>
+        <v>0.7981541303145505</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.505050999502544</v>
+        <v>3.505050999502657</v>
       </c>
       <c r="C22">
-        <v>0.5607290962776688</v>
+        <v>0.5607290962776972</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05548431463911641</v>
+        <v>0.05548431463915549</v>
       </c>
       <c r="F22">
-        <v>3.373975315620498</v>
+        <v>3.373975315620527</v>
       </c>
       <c r="G22">
         <v>3.03493079910595</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.197890085144973</v>
+        <v>0.1978900851449659</v>
       </c>
       <c r="J22">
         <v>0.8809378202865332</v>
       </c>
       <c r="K22">
-        <v>0.1691824893231022</v>
+        <v>0.1691824893230951</v>
       </c>
       <c r="L22">
         <v>0.8636331180588712</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.361473808212395</v>
+        <v>3.361473808212168</v>
       </c>
       <c r="C23">
-        <v>0.5383578005655636</v>
+        <v>0.538357800565592</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05338467666648228</v>
+        <v>0.05338467666649294</v>
       </c>
       <c r="F23">
-        <v>3.240918228730095</v>
+        <v>3.240918228730152</v>
       </c>
       <c r="G23">
-        <v>2.926860689532219</v>
+        <v>2.926860689532248</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1960290558392686</v>
+        <v>0.1960290558392472</v>
       </c>
       <c r="J23">
         <v>0.8447845170066586</v>
       </c>
       <c r="K23">
-        <v>0.1624114197853359</v>
+        <v>0.1624114197853217</v>
       </c>
       <c r="L23">
-        <v>0.8285413596464224</v>
+        <v>0.8285413596464437</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.830700185868295</v>
+        <v>2.830700185868125</v>
       </c>
       <c r="C24">
-        <v>0.455715850076615</v>
+        <v>0.4557158500763023</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04555992182916668</v>
+        <v>0.04555992182925195</v>
       </c>
       <c r="F24">
         <v>2.751064882074303</v>
       </c>
       <c r="G24">
-        <v>2.532961313273361</v>
+        <v>2.532961313273375</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1897954218834776</v>
+        <v>0.1897954218835203</v>
       </c>
       <c r="J24">
         <v>0.7111401647551077</v>
       </c>
       <c r="K24">
-        <v>0.1372477078026755</v>
+        <v>0.1372477078026506</v>
       </c>
       <c r="L24">
-        <v>0.6985702631980573</v>
+        <v>0.6985702631980288</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.279807065816726</v>
+        <v>2.27980706581684</v>
       </c>
       <c r="C25">
-        <v>0.3699348757584744</v>
+        <v>0.3699348757589291</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1301,22 +1301,22 @@
         <v>2.246798926789069</v>
       </c>
       <c r="G25">
-        <v>2.134527572750443</v>
+        <v>2.134527572750457</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1844850437752967</v>
+        <v>0.1844850437753145</v>
       </c>
       <c r="J25">
-        <v>0.5724021597690125</v>
+        <v>0.572402159769041</v>
       </c>
       <c r="K25">
-        <v>0.1109106763054228</v>
+        <v>0.1109106763054122</v>
       </c>
       <c r="L25">
-        <v>0.5632689678799423</v>
+        <v>0.5632689678799494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.88748260806193</v>
+        <v>1.887482608062101</v>
       </c>
       <c r="C2">
         <v>0.3087331334606347</v>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03144341970242337</v>
+        <v>0.0314434197023914</v>
       </c>
       <c r="F2">
         <v>1.891037225634562</v>
       </c>
       <c r="G2">
-        <v>1.858347866347501</v>
+        <v>1.858347866347515</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0.4735414945441434</v>
       </c>
       <c r="K2">
-        <v>0.09201692023077968</v>
+        <v>0.09201692023079389</v>
       </c>
       <c r="L2">
-        <v>0.4666608440419893</v>
+        <v>0.4666608440419822</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.627660424418309</v>
+        <v>1.627660424418337</v>
       </c>
       <c r="C3">
-        <v>0.2680898259992119</v>
+        <v>0.2680898259994535</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02751834046688018</v>
+        <v>0.0275183404668855</v>
       </c>
       <c r="F3">
-        <v>1.657388259337282</v>
+        <v>1.657388259337267</v>
       </c>
       <c r="G3">
-        <v>1.679543699589715</v>
+        <v>1.679543699589729</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1799821717995709</v>
+        <v>0.1799821717995602</v>
       </c>
       <c r="J3">
-        <v>0.4080212498638787</v>
+        <v>0.4080212498639213</v>
       </c>
       <c r="K3">
-        <v>0.07943950612797934</v>
+        <v>0.07943950612798645</v>
       </c>
       <c r="L3">
-        <v>0.4025626631477905</v>
+        <v>0.4025626631477834</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.470475813804114</v>
+        <v>1.470475813803944</v>
       </c>
       <c r="C4">
-        <v>0.2434354344823788</v>
+        <v>0.2434354344825636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02513897767156514</v>
+        <v>0.02513897767152962</v>
       </c>
       <c r="F4">
         <v>1.516953237142502</v>
       </c>
       <c r="G4">
-        <v>1.573202093580747</v>
+        <v>1.573202093580761</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1792417958348729</v>
+        <v>0.1792417958348516</v>
       </c>
       <c r="J4">
         <v>0.3683560913613988</v>
       </c>
       <c r="K4">
-        <v>0.07180459119621929</v>
+        <v>0.07180459119620863</v>
       </c>
       <c r="L4">
-        <v>0.3637379713245892</v>
+        <v>0.3637379713246105</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.406926225766313</v>
+        <v>1.406926225766256</v>
       </c>
       <c r="C5">
-        <v>0.2334494942166003</v>
+        <v>0.2334494942169556</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02417630543604865</v>
+        <v>0.02417630543604332</v>
       </c>
       <c r="F5">
         <v>1.460397883097244</v>
       </c>
       <c r="G5">
-        <v>1.530641290691605</v>
+        <v>1.530641290691619</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1789867051769019</v>
+        <v>0.1789867051769001</v>
       </c>
       <c r="J5">
-        <v>0.3523121617511649</v>
+        <v>0.3523121617511862</v>
       </c>
       <c r="K5">
-        <v>0.06871207673428614</v>
+        <v>0.06871207673430391</v>
       </c>
       <c r="L5">
-        <v>0.3480307881037348</v>
+        <v>0.3480307881037419</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.3964019584742</v>
+        <v>1.39640195847403</v>
       </c>
       <c r="C6">
-        <v>0.2317946111242861</v>
+        <v>0.2317946111246414</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02401685191707337</v>
+        <v>0.02401685191710534</v>
       </c>
       <c r="F6">
-        <v>1.451045114397189</v>
+        <v>1.451045114397175</v>
       </c>
       <c r="G6">
-        <v>1.523618313974538</v>
+        <v>1.523618313974552</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1789470449066979</v>
+        <v>0.1789470449066819</v>
       </c>
       <c r="J6">
-        <v>0.3496547158300416</v>
+        <v>0.3496547158300771</v>
       </c>
       <c r="K6">
-        <v>0.06819961025292542</v>
+        <v>0.06819961025291477</v>
       </c>
       <c r="L6">
         <v>0.3454289782759972</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.469616827647627</v>
+        <v>1.469616827647599</v>
       </c>
       <c r="C7">
-        <v>0.2433005323988198</v>
+        <v>0.2433005323990898</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0251259676280462</v>
+        <v>0.02512596762800534</v>
       </c>
       <c r="F7">
-        <v>1.516187898115192</v>
+        <v>1.516187898115163</v>
       </c>
       <c r="G7">
         <v>1.572625085013328</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1792381722325178</v>
+        <v>0.1792381722325054</v>
       </c>
       <c r="J7">
-        <v>0.3681392593944182</v>
+        <v>0.3681392593944395</v>
       </c>
       <c r="K7">
-        <v>0.07176281258182016</v>
+        <v>0.07176281258183437</v>
       </c>
       <c r="L7">
-        <v>0.3635257010599844</v>
+        <v>0.3635257010599915</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.797354687894369</v>
+        <v>1.797354687894199</v>
       </c>
       <c r="C8">
-        <v>0.2946476102115128</v>
+        <v>0.2946476102116833</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03008320944777587</v>
+        <v>0.03008320944773679</v>
       </c>
       <c r="F8">
-        <v>1.809791808412413</v>
+        <v>1.809791808412427</v>
       </c>
       <c r="G8">
         <v>1.79592344877338</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1809435459196358</v>
+        <v>0.180943545919618</v>
       </c>
       <c r="J8">
-        <v>0.4508190710646716</v>
+        <v>0.4508190710646929</v>
       </c>
       <c r="K8">
         <v>0.08765998000058062</v>
       </c>
       <c r="L8">
-        <v>0.4444371091529717</v>
+        <v>0.4444371091529504</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.462985853946748</v>
+        <v>2.462985853946861</v>
       </c>
       <c r="C9">
-        <v>0.3984693315462948</v>
+        <v>0.398469331546039</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04008555674086622</v>
+        <v>0.04008555674082714</v>
       </c>
       <c r="F9">
         <v>2.413927673143135</v>
       </c>
       <c r="G9">
-        <v>2.265729472306106</v>
+        <v>2.26572947230612</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.186110862332761</v>
+        <v>0.1861108623327539</v>
       </c>
       <c r="J9">
-        <v>0.6185412457208486</v>
+        <v>0.6185412457208344</v>
       </c>
       <c r="K9">
-        <v>0.1196929105132298</v>
+        <v>0.1196929105132227</v>
       </c>
       <c r="L9">
-        <v>0.6083038916239474</v>
+        <v>0.6083038916239545</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.972783658426067</v>
+        <v>2.972783658426124</v>
       </c>
       <c r="C10">
         <v>0.4778329341308734</v>
@@ -725,25 +725,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04766387269982886</v>
+        <v>0.04766387269977912</v>
       </c>
       <c r="F10">
         <v>2.881853260501487</v>
       </c>
       <c r="G10">
-        <v>2.637502009642148</v>
+        <v>2.637502009642176</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1913615875348746</v>
+        <v>0.191361587534896</v>
       </c>
       <c r="J10">
-        <v>0.7469159572889552</v>
+        <v>0.7469159572889339</v>
       </c>
       <c r="K10">
-        <v>0.1440041765482789</v>
+        <v>0.144004176548286</v>
       </c>
       <c r="L10">
         <v>0.7333999030999792</v>
@@ -757,34 +757,34 @@
         <v>3.210963813489172</v>
       </c>
       <c r="C11">
-        <v>0.514915778344573</v>
+        <v>0.5149157783443741</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05117567860717998</v>
+        <v>0.05117567860717642</v>
       </c>
       <c r="F11">
         <v>3.101671863408313</v>
       </c>
       <c r="G11">
-        <v>2.814246148706914</v>
+        <v>2.814246148706928</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1941565474291949</v>
+        <v>0.1941565474291913</v>
       </c>
       <c r="J11">
-        <v>0.8068870737305787</v>
+        <v>0.8068870737305858</v>
       </c>
       <c r="K11">
-        <v>0.1552969527028587</v>
+        <v>0.15529695270288</v>
       </c>
       <c r="L11">
-        <v>0.7917247795109361</v>
+        <v>0.7917247795109503</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.302226922860257</v>
+        <v>3.3022269228602</v>
       </c>
       <c r="C12">
-        <v>0.529129029971898</v>
+        <v>0.5291290299717843</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0525160864301597</v>
+        <v>0.05251608643013128</v>
       </c>
       <c r="F12">
-        <v>3.186075449999095</v>
+        <v>3.186075449999123</v>
       </c>
       <c r="G12">
         <v>2.882447478016459</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1952822959665212</v>
+        <v>0.1952822959665319</v>
       </c>
       <c r="J12">
-        <v>0.8298663890813529</v>
+        <v>0.82986638908136</v>
       </c>
       <c r="K12">
-        <v>0.1596128794499556</v>
+        <v>0.1596128794499521</v>
       </c>
       <c r="L12">
-        <v>0.8140525488215005</v>
+        <v>0.8140525488215147</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.282521298465781</v>
+        <v>3.282521298465895</v>
       </c>
       <c r="C13">
-        <v>0.5260598341458831</v>
+        <v>0.5260598341461105</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05222691367424659</v>
+        <v>0.05222691367420751</v>
       </c>
       <c r="F13">
         <v>3.16784309212602</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1950366934470829</v>
+        <v>0.1950366934470651</v>
       </c>
       <c r="J13">
-        <v>0.8249046386009695</v>
+        <v>0.8249046386009624</v>
       </c>
       <c r="K13">
-        <v>0.1586815024768384</v>
+        <v>0.1586815024768526</v>
       </c>
       <c r="L13">
-        <v>0.809232477798048</v>
+        <v>0.8092324777980551</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.21844960880037</v>
+        <v>3.218449608800256</v>
       </c>
       <c r="C14">
-        <v>0.5160815018631979</v>
+        <v>0.5160815018634537</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05128573513550805</v>
+        <v>0.05128573513547607</v>
       </c>
       <c r="F14">
-        <v>3.108591483980859</v>
+        <v>3.108591483980888</v>
       </c>
       <c r="G14">
-        <v>2.819830525561784</v>
+        <v>2.819830525561756</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1942477575493164</v>
+        <v>0.1942477575492951</v>
       </c>
       <c r="J14">
         <v>0.8087719237140831</v>
       </c>
       <c r="K14">
-        <v>0.1556511958782032</v>
+        <v>0.1556511958781996</v>
       </c>
       <c r="L14">
         <v>0.7935566281567858</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.179348488907578</v>
+        <v>3.179348488907635</v>
       </c>
       <c r="C15">
-        <v>0.509992686022116</v>
+        <v>0.5099926860220876</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05071065262982799</v>
+        <v>0.05071065262982088</v>
       </c>
       <c r="F15">
-        <v>3.072454798563342</v>
+        <v>3.072454798563371</v>
       </c>
       <c r="G15">
-        <v>2.790680709910916</v>
+        <v>2.79068070991093</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1937735712889506</v>
+        <v>0.1937735712889648</v>
       </c>
       <c r="J15">
-        <v>0.7989266631650054</v>
+        <v>0.7989266631649912</v>
       </c>
       <c r="K15">
-        <v>0.1538003936096004</v>
+        <v>0.1538003936096182</v>
       </c>
       <c r="L15">
-        <v>0.783987351692403</v>
+        <v>0.7839873516923959</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.957358041172881</v>
+        <v>2.957358041172768</v>
       </c>
       <c r="C16">
-        <v>0.4754316598886703</v>
+        <v>0.4754316598884145</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0474357722104024</v>
+        <v>0.04743577221038109</v>
       </c>
       <c r="F16">
         <v>2.867641044250206</v>
       </c>
       <c r="G16">
-        <v>2.626119284133011</v>
+        <v>2.626119284132997</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.191187840423737</v>
+        <v>0.1911878404237157</v>
       </c>
       <c r="J16">
-        <v>0.7430319295011714</v>
+        <v>0.7430319295011856</v>
       </c>
       <c r="K16">
-        <v>0.1432713638218104</v>
+        <v>0.1432713638218566</v>
       </c>
       <c r="L16">
-        <v>0.7296198661771314</v>
+        <v>0.7296198661771243</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>2.822892645100126</v>
       </c>
       <c r="C17">
-        <v>0.4545005333537802</v>
+        <v>0.4545005333538086</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04544411961634509</v>
+        <v>0.04544411961634864</v>
       </c>
       <c r="F17">
         <v>2.743885899009371</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1897116036990845</v>
+        <v>0.1897116036990703</v>
       </c>
       <c r="J17">
-        <v>0.709174230912275</v>
+        <v>0.7091742309122822</v>
       </c>
       <c r="K17">
-        <v>0.1368760069102315</v>
+        <v>0.1368760069102493</v>
       </c>
       <c r="L17">
-        <v>0.6966555696122541</v>
+        <v>0.6966555696122683</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.746130655085096</v>
+        <v>2.746130655085153</v>
       </c>
       <c r="C18">
-        <v>0.4425517210191003</v>
+        <v>0.4425517210191288</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04430454935765837</v>
+        <v>0.04430454935765127</v>
       </c>
       <c r="F18">
         <v>2.673349197666454</v>
       </c>
       <c r="G18">
-        <v>2.471067901989301</v>
+        <v>2.471067901989315</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1889001557715204</v>
+        <v>0.1889001557715559</v>
       </c>
       <c r="J18">
-        <v>0.6898453010426877</v>
+        <v>0.6898453010426948</v>
       </c>
       <c r="K18">
-        <v>0.133219140559536</v>
+        <v>0.1332191405595218</v>
       </c>
       <c r="L18">
         <v>0.6778263444348198</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.720235043990272</v>
+        <v>2.720235043990385</v>
       </c>
       <c r="C19">
-        <v>0.4385207107605424</v>
+        <v>0.4385207107603435</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04391969909339366</v>
+        <v>0.04391969909340077</v>
       </c>
       <c r="F19">
-        <v>2.64957264872973</v>
+        <v>2.649572648729759</v>
       </c>
       <c r="G19">
         <v>2.452166294391901</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.188631628169297</v>
+        <v>0.1886316281692935</v>
       </c>
       <c r="J19">
-        <v>0.6833245538710671</v>
+        <v>0.6833245538710599</v>
       </c>
       <c r="K19">
-        <v>0.1319845216007351</v>
+        <v>0.1319845216006961</v>
       </c>
       <c r="L19">
-        <v>0.6714725206231051</v>
+        <v>0.6714725206231122</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.837145652388017</v>
+        <v>2.837145652388131</v>
       </c>
       <c r="C20">
-        <v>0.4567191472722527</v>
+        <v>0.456719147271599</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04565550693966003</v>
+        <v>0.0456555069396245</v>
       </c>
       <c r="F20">
         <v>2.75699208004491</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1898647951296226</v>
+        <v>0.1898647951296333</v>
       </c>
       <c r="J20">
-        <v>0.7127631252796576</v>
+        <v>0.7127631252796434</v>
       </c>
       <c r="K20">
-        <v>0.1375545293781677</v>
+        <v>0.1375545293781428</v>
       </c>
       <c r="L20">
-        <v>0.7001508644253107</v>
+        <v>0.7001508644252823</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.237238542215493</v>
+        <v>3.23723854221555</v>
       </c>
       <c r="C21">
-        <v>0.5190074853948943</v>
+        <v>0.5190074853951785</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05156188437288733</v>
+        <v>0.05156188437289799</v>
       </c>
       <c r="F21">
-        <v>3.125962155530061</v>
+        <v>3.125962155530033</v>
       </c>
       <c r="G21">
         <v>2.833854749030777</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1944775812292043</v>
+        <v>0.1944775812291546</v>
       </c>
       <c r="J21">
-        <v>0.8135028019886192</v>
+        <v>0.8135028019886335</v>
       </c>
       <c r="K21">
-        <v>0.1565401440581091</v>
+        <v>0.1565401440581198</v>
       </c>
       <c r="L21">
-        <v>0.7981541303145505</v>
+        <v>0.7981541303145363</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.505050999502657</v>
+        <v>3.505050999502544</v>
       </c>
       <c r="C22">
-        <v>0.5607290962776972</v>
+        <v>0.5607290962776688</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05548431463915549</v>
+        <v>0.05548431463911641</v>
       </c>
       <c r="F22">
-        <v>3.373975315620527</v>
+        <v>3.373975315620498</v>
       </c>
       <c r="G22">
         <v>3.03493079910595</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1978900851449659</v>
+        <v>0.197890085144973</v>
       </c>
       <c r="J22">
         <v>0.8809378202865332</v>
       </c>
       <c r="K22">
-        <v>0.1691824893230951</v>
+        <v>0.1691824893231022</v>
       </c>
       <c r="L22">
         <v>0.8636331180588712</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.361473808212168</v>
+        <v>3.361473808212395</v>
       </c>
       <c r="C23">
-        <v>0.538357800565592</v>
+        <v>0.5383578005655636</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05338467666649294</v>
+        <v>0.05338467666648228</v>
       </c>
       <c r="F23">
-        <v>3.240918228730152</v>
+        <v>3.240918228730095</v>
       </c>
       <c r="G23">
-        <v>2.926860689532248</v>
+        <v>2.926860689532219</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1960290558392472</v>
+        <v>0.1960290558392686</v>
       </c>
       <c r="J23">
         <v>0.8447845170066586</v>
       </c>
       <c r="K23">
-        <v>0.1624114197853217</v>
+        <v>0.1624114197853359</v>
       </c>
       <c r="L23">
-        <v>0.8285413596464437</v>
+        <v>0.8285413596464224</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.830700185868125</v>
+        <v>2.830700185868295</v>
       </c>
       <c r="C24">
-        <v>0.4557158500763023</v>
+        <v>0.455715850076615</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04555992182925195</v>
+        <v>0.04555992182916668</v>
       </c>
       <c r="F24">
         <v>2.751064882074303</v>
       </c>
       <c r="G24">
-        <v>2.532961313273375</v>
+        <v>2.532961313273361</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1897954218835203</v>
+        <v>0.1897954218834776</v>
       </c>
       <c r="J24">
         <v>0.7111401647551077</v>
       </c>
       <c r="K24">
-        <v>0.1372477078026506</v>
+        <v>0.1372477078026755</v>
       </c>
       <c r="L24">
-        <v>0.6985702631980288</v>
+        <v>0.6985702631980573</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.27980706581684</v>
+        <v>2.279807065816726</v>
       </c>
       <c r="C25">
-        <v>0.3699348757589291</v>
+        <v>0.3699348757584744</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1301,22 +1301,22 @@
         <v>2.246798926789069</v>
       </c>
       <c r="G25">
-        <v>2.134527572750457</v>
+        <v>2.134527572750443</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1844850437753145</v>
+        <v>0.1844850437752967</v>
       </c>
       <c r="J25">
-        <v>0.572402159769041</v>
+        <v>0.5724021597690125</v>
       </c>
       <c r="K25">
-        <v>0.1109106763054122</v>
+        <v>0.1109106763054228</v>
       </c>
       <c r="L25">
-        <v>0.5632689678799494</v>
+        <v>0.5632689678799423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.887482608062101</v>
+        <v>1.887282446025779</v>
       </c>
       <c r="C2">
-        <v>0.3087331334606347</v>
+        <v>0.3085769900605442</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0314434197023914</v>
+        <v>0.03159763900769086</v>
       </c>
       <c r="F2">
-        <v>1.891037225634562</v>
+        <v>1.888367951202241</v>
       </c>
       <c r="G2">
-        <v>1.858347866347515</v>
+        <v>0.5881833702683821</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.267276231546958</v>
       </c>
       <c r="I2">
-        <v>0.181517745420777</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4735414945441434</v>
+        <v>0.1808756406166836</v>
       </c>
       <c r="K2">
-        <v>0.09201692023079389</v>
+        <v>0.473444319935723</v>
       </c>
       <c r="L2">
-        <v>0.4666608440419822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.09221628234998747</v>
+      </c>
+      <c r="M2">
+        <v>0.4669870952571173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.627660424418337</v>
+        <v>1.627511730351841</v>
       </c>
       <c r="C3">
-        <v>0.2680898259994535</v>
+        <v>0.2679679126266024</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0275183404668855</v>
+        <v>0.02765469310310209</v>
       </c>
       <c r="F3">
-        <v>1.657388259337267</v>
+        <v>1.655045202553254</v>
       </c>
       <c r="G3">
-        <v>1.679543699589729</v>
+        <v>0.5261609957370865</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.151373227775125</v>
       </c>
       <c r="I3">
-        <v>0.1799821717995602</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4080212498639213</v>
+        <v>0.1794006728998347</v>
       </c>
       <c r="K3">
-        <v>0.07943950612798645</v>
+        <v>0.4079454483493521</v>
       </c>
       <c r="L3">
-        <v>0.4025626631477834</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.07961440301381018</v>
+      </c>
+      <c r="M3">
+        <v>0.4028534574517622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.470475813803944</v>
+        <v>1.470353708996669</v>
       </c>
       <c r="C4">
-        <v>0.2434354344825636</v>
+        <v>0.2433334614170803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02513897767152962</v>
+        <v>0.02526446472851696</v>
       </c>
       <c r="F4">
-        <v>1.516953237142502</v>
+        <v>1.514807512953325</v>
       </c>
       <c r="G4">
-        <v>1.573202093580761</v>
+        <v>0.4891950573493347</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.082529027678632</v>
       </c>
       <c r="I4">
-        <v>0.1792417958348516</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3683560913613988</v>
+        <v>0.1786969427263791</v>
       </c>
       <c r="K4">
-        <v>0.07180459119620863</v>
+        <v>0.368292031371027</v>
       </c>
       <c r="L4">
-        <v>0.3637379713246105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.07196447179247656</v>
+      </c>
+      <c r="M4">
+        <v>0.3640062367099546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.406926225766256</v>
+        <v>1.406813849490106</v>
       </c>
       <c r="C5">
-        <v>0.2334494942169556</v>
+        <v>0.2333554165128646</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02417630543604332</v>
+        <v>0.02429738707635742</v>
       </c>
       <c r="F5">
-        <v>1.460397883097244</v>
+        <v>1.458331977445795</v>
       </c>
       <c r="G5">
-        <v>1.530641290691619</v>
+        <v>0.4743806350418538</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.054997546987195</v>
       </c>
       <c r="I5">
-        <v>0.1789867051769001</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3523121617511862</v>
+        <v>0.178456669680692</v>
       </c>
       <c r="K5">
-        <v>0.06871207673430391</v>
+        <v>0.3522525831110812</v>
       </c>
       <c r="L5">
-        <v>0.3480307881037419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.06886583668787694</v>
+      </c>
+      <c r="M5">
+        <v>0.3482897005227343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.39640195847403</v>
+        <v>1.396291134940128</v>
       </c>
       <c r="C6">
-        <v>0.2317946111246414</v>
+        <v>0.2317018316196169</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02401685191710534</v>
+        <v>0.02413720328440228</v>
       </c>
       <c r="F6">
-        <v>1.451045114397175</v>
+        <v>1.448992430642974</v>
       </c>
       <c r="G6">
-        <v>1.523618313974552</v>
+        <v>0.4719349166121418</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.050455881328446</v>
       </c>
       <c r="I6">
-        <v>0.1789470449066819</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3496547158300771</v>
+        <v>0.1784194635997434</v>
       </c>
       <c r="K6">
-        <v>0.06819961025291477</v>
+        <v>0.3495958641869805</v>
       </c>
       <c r="L6">
-        <v>0.3454289782759972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.06835235371648096</v>
+      </c>
+      <c r="M6">
+        <v>0.3456863277333042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.469616827647599</v>
+        <v>1.469494858333064</v>
       </c>
       <c r="C7">
-        <v>0.2433005323990898</v>
+        <v>0.2431986666963439</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02512596762800534</v>
+        <v>0.02525139518626496</v>
       </c>
       <c r="F7">
-        <v>1.516187898115163</v>
+        <v>1.514043252613291</v>
       </c>
       <c r="G7">
-        <v>1.572625085013328</v>
+        <v>0.4889942940328638</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.082155686979306</v>
       </c>
       <c r="I7">
-        <v>0.1792381722325054</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3681392593944395</v>
+        <v>0.1786935193951447</v>
       </c>
       <c r="K7">
-        <v>0.07176281258183437</v>
+        <v>0.3680752610149298</v>
       </c>
       <c r="L7">
-        <v>0.3635257010599915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.07192261064213312</v>
+      </c>
+      <c r="M7">
+        <v>0.3637938409827299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.797354687894199</v>
+        <v>1.797173410235814</v>
       </c>
       <c r="C8">
-        <v>0.2946476102116833</v>
+        <v>0.2945035185529008</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03008320944773679</v>
+        <v>0.03023124416821332</v>
       </c>
       <c r="F8">
-        <v>1.809791808412427</v>
+        <v>1.807235724723242</v>
       </c>
       <c r="G8">
-        <v>1.79592344877338</v>
+        <v>0.5665468638259625</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.226793239325417</v>
       </c>
       <c r="I8">
-        <v>0.180943545919618</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4508190710646929</v>
+        <v>0.1803224724033896</v>
       </c>
       <c r="K8">
-        <v>0.08765998000058062</v>
+        <v>0.4507295806996012</v>
       </c>
       <c r="L8">
-        <v>0.4444371091529504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.08785090367550552</v>
+      </c>
+      <c r="M8">
+        <v>0.4447513040391016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.462985853946861</v>
+        <v>2.462640553662084</v>
       </c>
       <c r="C9">
-        <v>0.398469331546039</v>
+        <v>0.3982318098323958</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04008555674082714</v>
+        <v>0.04027894653316721</v>
       </c>
       <c r="F9">
-        <v>2.413927673143135</v>
+        <v>2.410533520615857</v>
       </c>
       <c r="G9">
-        <v>2.26572947230612</v>
+        <v>0.7290349762097321</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.531855167467498</v>
       </c>
       <c r="I9">
-        <v>0.1861108623327539</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6185412457208344</v>
+        <v>0.1853340871292311</v>
       </c>
       <c r="K9">
-        <v>0.1196929105132227</v>
+        <v>0.6183885290097919</v>
       </c>
       <c r="L9">
-        <v>0.6083038916239545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1199450462545322</v>
+      </c>
+      <c r="M9">
+        <v>0.6087014117762379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.972783658426124</v>
+        <v>2.972275762301479</v>
       </c>
       <c r="C10">
-        <v>0.4778329341308734</v>
+        <v>0.4775169132756218</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04766387269977912</v>
+        <v>0.04789150160211264</v>
       </c>
       <c r="F10">
-        <v>2.881853260501487</v>
+        <v>2.877811872700818</v>
       </c>
       <c r="G10">
-        <v>2.637502009642176</v>
+        <v>0.8571797229576248</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.773745870305333</v>
       </c>
       <c r="I10">
-        <v>0.191361587534896</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7469159572889339</v>
+        <v>0.1904647174515013</v>
       </c>
       <c r="K10">
-        <v>0.144004176548286</v>
+        <v>0.7467050086729259</v>
       </c>
       <c r="L10">
-        <v>0.7333999030999792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1443015826254985</v>
+      </c>
+      <c r="M10">
+        <v>0.7338527517578015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.210963813489172</v>
+        <v>3.210369224041756</v>
       </c>
       <c r="C11">
-        <v>0.5149157783443741</v>
+        <v>0.5145609824127462</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05117567860717642</v>
+        <v>0.05141915532252384</v>
       </c>
       <c r="F11">
-        <v>3.101671863408313</v>
+        <v>3.097325819245981</v>
       </c>
       <c r="G11">
-        <v>2.814246148706928</v>
+        <v>0.9180014299376182</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.888853056353156</v>
       </c>
       <c r="I11">
-        <v>0.1941565474291913</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8068870737305858</v>
+        <v>0.1932032389717619</v>
       </c>
       <c r="K11">
-        <v>0.15529695270288</v>
+        <v>0.8066460559199413</v>
       </c>
       <c r="L11">
-        <v>0.7917247795109503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1556150609902538</v>
+      </c>
+      <c r="M11">
+        <v>0.7922010527683057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.3022269228602</v>
+        <v>3.301597306757458</v>
       </c>
       <c r="C12">
-        <v>0.5291290299717843</v>
+        <v>0.5287590161058233</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05251608643013128</v>
+        <v>0.05276561011718428</v>
       </c>
       <c r="F12">
-        <v>3.186075449999123</v>
+        <v>3.181612231008359</v>
       </c>
       <c r="G12">
-        <v>2.882447478016459</v>
+        <v>0.9414563765332815</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.933286366609735</v>
       </c>
       <c r="I12">
-        <v>0.1952822959665319</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.82986638908136</v>
+        <v>0.1943073000539925</v>
       </c>
       <c r="K12">
-        <v>0.1596128794499521</v>
+        <v>0.8296133657562521</v>
       </c>
       <c r="L12">
-        <v>0.8140525488215147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.1599388461992746</v>
+      </c>
+      <c r="M12">
+        <v>0.8145373919836558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.282521298465895</v>
+        <v>3.2818993303149</v>
       </c>
       <c r="C13">
-        <v>0.5260598341461105</v>
+        <v>0.5256931231892565</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05222691367420751</v>
+        <v>0.05247513289099359</v>
       </c>
       <c r="F13">
-        <v>3.16784309212602</v>
+        <v>3.16340519524536</v>
       </c>
       <c r="G13">
-        <v>2.867699467313798</v>
+        <v>0.9363850835649714</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.923677281693372</v>
       </c>
       <c r="I13">
-        <v>0.1950366934470651</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8249046386009624</v>
+        <v>0.1940663833275664</v>
       </c>
       <c r="K13">
-        <v>0.1586815024768526</v>
+        <v>0.824654230273616</v>
       </c>
       <c r="L13">
-        <v>0.8092324777980551</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1590057758681205</v>
+      </c>
+      <c r="M13">
+        <v>0.8097154895437058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.218449608800256</v>
+        <v>3.217852184083824</v>
       </c>
       <c r="C14">
-        <v>0.5160815018634537</v>
+        <v>0.5157254652560539</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05128573513547607</v>
+        <v>0.05152970838192061</v>
       </c>
       <c r="F14">
-        <v>3.108591483980888</v>
+        <v>3.104235838151624</v>
       </c>
       <c r="G14">
-        <v>2.819830525561756</v>
+        <v>0.9199222338288138</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.892490964718192</v>
       </c>
       <c r="I14">
-        <v>0.1942477575492951</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8087719237140831</v>
+        <v>0.1932926715245067</v>
       </c>
       <c r="K14">
-        <v>0.1556511958781996</v>
+        <v>0.8085299312730214</v>
       </c>
       <c r="L14">
-        <v>0.7935566281567858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1559699502861953</v>
+      </c>
+      <c r="M14">
+        <v>0.7940336128086116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.179348488907635</v>
+        <v>3.178765799475457</v>
       </c>
       <c r="C15">
-        <v>0.5099926860220876</v>
+        <v>0.5096431150631133</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05071065262982088</v>
+        <v>0.05095203126157344</v>
       </c>
       <c r="F15">
-        <v>3.072454798563371</v>
+        <v>3.068149287412638</v>
       </c>
       <c r="G15">
-        <v>2.79068070991093</v>
+        <v>0.9098952634142137</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.873502146262624</v>
       </c>
       <c r="I15">
-        <v>0.1937735712889648</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7989266631649912</v>
+        <v>0.1928277675775441</v>
       </c>
       <c r="K15">
-        <v>0.1538003936096182</v>
+        <v>0.7986897416712395</v>
       </c>
       <c r="L15">
-        <v>0.7839873516923959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1541157700531066</v>
+      </c>
+      <c r="M15">
+        <v>0.7844606037958783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.957358041172768</v>
+        <v>2.956855524622256</v>
       </c>
       <c r="C16">
-        <v>0.4754316598884145</v>
+        <v>0.4751181037393053</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04743577221038109</v>
+        <v>0.04766237144890084</v>
       </c>
       <c r="F16">
-        <v>2.867641044250206</v>
+        <v>2.863619333100104</v>
       </c>
       <c r="G16">
-        <v>2.626119284132997</v>
+        <v>0.8532606678850669</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.766334912254308</v>
       </c>
       <c r="I16">
-        <v>0.1911878404237157</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7430319295011856</v>
+        <v>0.1902946178001947</v>
       </c>
       <c r="K16">
-        <v>0.1432713638218566</v>
+        <v>0.7428228654603188</v>
       </c>
       <c r="L16">
-        <v>0.7296198661771243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.143567419433996</v>
+      </c>
+      <c r="M16">
+        <v>0.7300711448618813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.822892645100126</v>
+        <v>2.82243581083344</v>
       </c>
       <c r="C17">
-        <v>0.4545005333538086</v>
+        <v>0.4542082242167567</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04544411961634864</v>
+        <v>0.04566172640353017</v>
       </c>
       <c r="F17">
-        <v>2.743885899009371</v>
+        <v>2.740035447873055</v>
       </c>
       <c r="G17">
-        <v>2.527236784136889</v>
+        <v>0.8192046631596099</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.701967489189357</v>
       </c>
       <c r="I17">
-        <v>0.1897116036990703</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7091742309122822</v>
+        <v>0.1888501381456749</v>
       </c>
       <c r="K17">
-        <v>0.1368760069102493</v>
+        <v>0.7089812712696855</v>
       </c>
       <c r="L17">
-        <v>0.6966555696122683</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1371602400205774</v>
+      </c>
+      <c r="M17">
+        <v>0.6970928892377657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.746130655085153</v>
+        <v>2.745698923602617</v>
       </c>
       <c r="C18">
-        <v>0.4425517210191288</v>
+        <v>0.4422713505622085</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04430454935765127</v>
+        <v>0.04451700912051848</v>
       </c>
       <c r="F18">
-        <v>2.673349197666454</v>
+        <v>2.66959631149345</v>
       </c>
       <c r="G18">
-        <v>2.471067901989315</v>
+        <v>0.7998505087951884</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.665414502534077</v>
       </c>
       <c r="I18">
-        <v>0.1889001557715559</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6898453010426948</v>
+        <v>0.1880567897908421</v>
       </c>
       <c r="K18">
-        <v>0.1332191405595218</v>
+        <v>0.6896612745650543</v>
       </c>
       <c r="L18">
-        <v>0.6778263444348198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1334965836893822</v>
+      </c>
+      <c r="M18">
+        <v>0.6782554744674911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.720235043990385</v>
+        <v>2.719811620656628</v>
       </c>
       <c r="C19">
-        <v>0.4385207107603435</v>
+        <v>0.4382443366940834</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04391969909340077</v>
+        <v>0.04413042029921854</v>
       </c>
       <c r="F19">
-        <v>2.649572648729759</v>
+        <v>2.645852644448354</v>
       </c>
       <c r="G19">
-        <v>2.452166294391901</v>
+        <v>0.793336016201124</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.653115633905387</v>
       </c>
       <c r="I19">
-        <v>0.1886316281692935</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6833245538710599</v>
+        <v>0.1877943633992913</v>
       </c>
       <c r="K19">
-        <v>0.1319845216006961</v>
+        <v>0.6831434982725142</v>
       </c>
       <c r="L19">
-        <v>0.6714725206231122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1322596673757666</v>
+      </c>
+      <c r="M19">
+        <v>0.6718988515505657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.837145652388131</v>
+        <v>2.836684078962321</v>
       </c>
       <c r="C20">
-        <v>0.456719147271599</v>
+        <v>0.4564246061720212</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0456555069396245</v>
+        <v>0.04587406833519481</v>
       </c>
       <c r="F20">
-        <v>2.75699208004491</v>
+        <v>2.753123497466163</v>
       </c>
       <c r="G20">
-        <v>2.537688753722236</v>
+        <v>0.8228053622189009</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.708770134377701</v>
       </c>
       <c r="I20">
-        <v>0.1898647951296333</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7127631252796434</v>
+        <v>0.1889999665649178</v>
       </c>
       <c r="K20">
-        <v>0.1375545293781428</v>
+        <v>0.7125684861114792</v>
       </c>
       <c r="L20">
-        <v>0.7001508644252823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1378400199534831</v>
+      </c>
+      <c r="M20">
+        <v>0.7005896869771178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.23723854221555</v>
+        <v>3.236633971412743</v>
       </c>
       <c r="C21">
-        <v>0.5190074853951785</v>
+        <v>0.5186483288140096</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05156188437289799</v>
+        <v>0.05180710346622419</v>
       </c>
       <c r="F21">
-        <v>3.125962155530033</v>
+        <v>3.121582402622295</v>
       </c>
       <c r="G21">
-        <v>2.833854749030777</v>
+        <v>0.9247457753640447</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.901627218239838</v>
       </c>
       <c r="I21">
-        <v>0.1944775812291546</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8135028019886335</v>
+        <v>0.1935180325677557</v>
       </c>
       <c r="K21">
-        <v>0.1565401440581198</v>
+        <v>0.8132583553224322</v>
       </c>
       <c r="L21">
-        <v>0.7981541303145363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.156860518983315</v>
+      </c>
+      <c r="M21">
+        <v>0.7986328938717975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.505050999502544</v>
+        <v>3.504339938582348</v>
       </c>
       <c r="C22">
-        <v>0.5607290962776688</v>
+        <v>0.5603245369335355</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05548431463911641</v>
+        <v>0.05574722629051365</v>
       </c>
       <c r="F22">
-        <v>3.373975315620498</v>
+        <v>3.369250743713735</v>
       </c>
       <c r="G22">
-        <v>3.03493079910595</v>
+        <v>0.993869410724102</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.032659407178897</v>
       </c>
       <c r="I22">
-        <v>0.197890085144973</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8809378202865332</v>
+        <v>0.196866760132405</v>
       </c>
       <c r="K22">
-        <v>0.1691824893231022</v>
+        <v>0.8806571507226977</v>
       </c>
       <c r="L22">
-        <v>0.8636331180588712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1695257753627217</v>
+      </c>
+      <c r="M22">
+        <v>0.8641362029484227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.361473808212395</v>
+        <v>3.360820915608201</v>
       </c>
       <c r="C23">
-        <v>0.5383578005655636</v>
+        <v>0.5379777994388064</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05338467666648228</v>
+        <v>0.05363811838627086</v>
       </c>
       <c r="F23">
-        <v>3.240918228730095</v>
+        <v>3.236378803158914</v>
       </c>
       <c r="G23">
-        <v>2.926860689532219</v>
+        <v>0.9567262892236386</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.962226206344013</v>
       </c>
       <c r="I23">
-        <v>0.1960290558392686</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8447845170066586</v>
+        <v>0.1950399614626122</v>
       </c>
       <c r="K23">
-        <v>0.1624114197853359</v>
+        <v>0.8445235558280615</v>
       </c>
       <c r="L23">
-        <v>0.8285413596464224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1627424663660797</v>
+      </c>
+      <c r="M23">
+        <v>0.8290316460945775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.830700185868295</v>
+        <v>2.830240758604077</v>
       </c>
       <c r="C24">
-        <v>0.455715850076615</v>
+        <v>0.4554223189008155</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04555992182916668</v>
+        <v>0.04577805157561698</v>
       </c>
       <c r="F24">
-        <v>2.751064882074303</v>
+        <v>2.747204499482621</v>
       </c>
       <c r="G24">
-        <v>2.532961313273361</v>
+        <v>0.821176789447648</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.705693256966981</v>
       </c>
       <c r="I24">
-        <v>0.1897954218834776</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7111401647551077</v>
+        <v>0.1889321142241833</v>
       </c>
       <c r="K24">
-        <v>0.1372477078026755</v>
+        <v>0.7109462859065729</v>
       </c>
       <c r="L24">
-        <v>0.6985702631980573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1375326298567394</v>
+      </c>
+      <c r="M24">
+        <v>0.6990084067851967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.279807065816726</v>
+        <v>2.279512466058918</v>
       </c>
       <c r="C25">
-        <v>0.3699348757584744</v>
+        <v>0.3697240850390813</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03734385293430265</v>
+        <v>0.03752483475611612</v>
       </c>
       <c r="F25">
-        <v>2.246798926789069</v>
+        <v>2.243636017177067</v>
       </c>
       <c r="G25">
-        <v>2.134527572750443</v>
+        <v>0.6837298593778627</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.446580331574054</v>
       </c>
       <c r="I25">
-        <v>0.1844850437752967</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5724021597690125</v>
+        <v>0.1837512196323807</v>
       </c>
       <c r="K25">
-        <v>0.1109106763054228</v>
+        <v>0.5722683130698982</v>
       </c>
       <c r="L25">
-        <v>0.5632689678799423</v>
+        <v>0.1111462144662809</v>
+      </c>
+      <c r="M25">
+        <v>0.5636448449686284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.887282446025779</v>
+        <v>3.209573980272978</v>
       </c>
       <c r="C2">
-        <v>0.3085769900605442</v>
+        <v>0.533873734667111</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03159763900769086</v>
+        <v>0.03771613394917139</v>
       </c>
       <c r="F2">
-        <v>1.888367951202241</v>
+        <v>1.82529830784793</v>
       </c>
       <c r="G2">
-        <v>0.5881833702683821</v>
+        <v>0.000814483371986942</v>
       </c>
       <c r="H2">
-        <v>1.267276231546958</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1808756406166836</v>
+        <v>0.05375771352904257</v>
       </c>
       <c r="K2">
-        <v>0.473444319935723</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09221628234998747</v>
+        <v>0.1622026496904638</v>
       </c>
       <c r="M2">
-        <v>0.4669870952571173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5170160029556214</v>
+      </c>
+      <c r="N2">
+        <v>1.095824871643593</v>
+      </c>
+      <c r="O2">
+        <v>1.36500792319886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.627511730351841</v>
+        <v>2.803223665041969</v>
       </c>
       <c r="C3">
-        <v>0.2679679126266024</v>
+        <v>0.4624641439644677</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02765469310310209</v>
+        <v>0.03659600784385297</v>
       </c>
       <c r="F3">
-        <v>1.655045202553254</v>
+        <v>1.71316305742647</v>
       </c>
       <c r="G3">
-        <v>0.5261609957370865</v>
+        <v>0.0008221809083505575</v>
       </c>
       <c r="H3">
-        <v>1.151373227775125</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1794006728998347</v>
+        <v>0.05695627836333506</v>
       </c>
       <c r="K3">
-        <v>0.4079454483493521</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07961440301381018</v>
+        <v>0.1486958534793317</v>
       </c>
       <c r="M3">
-        <v>0.4028534574517622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4552665633758224</v>
+      </c>
+      <c r="N3">
+        <v>1.153994225551799</v>
+      </c>
+      <c r="O3">
+        <v>1.274581011368042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.470353708996669</v>
+        <v>2.557493462027423</v>
       </c>
       <c r="C4">
-        <v>0.2433334614170803</v>
+        <v>0.4191002511099384</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02526446472851696</v>
+        <v>0.03592566676871112</v>
       </c>
       <c r="F4">
-        <v>1.514807512953325</v>
+        <v>1.647663901797713</v>
       </c>
       <c r="G4">
-        <v>0.4891950573493347</v>
+        <v>0.0008270424634190261</v>
       </c>
       <c r="H4">
-        <v>1.082529027678632</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1786969427263791</v>
+        <v>0.05898359599182834</v>
       </c>
       <c r="K4">
-        <v>0.368292031371027</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07196447179247656</v>
+        <v>0.1405426304393558</v>
       </c>
       <c r="M4">
-        <v>0.3640062367099546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.417931356928932</v>
+      </c>
+      <c r="N4">
+        <v>1.191390978285881</v>
+      </c>
+      <c r="O4">
+        <v>1.222044288823099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.406813849490106</v>
+        <v>2.458192614118957</v>
       </c>
       <c r="C5">
-        <v>0.2333554165128646</v>
+        <v>0.4015282651305938</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02429738707635742</v>
+        <v>0.03565603975074927</v>
       </c>
       <c r="F5">
-        <v>1.458331977445795</v>
+        <v>1.621754980978366</v>
       </c>
       <c r="G5">
-        <v>0.4743806350418538</v>
+        <v>0.0008290588446232027</v>
       </c>
       <c r="H5">
-        <v>1.054997546987195</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.178456669680692</v>
+        <v>0.05982521017633591</v>
       </c>
       <c r="K5">
-        <v>0.3522525831110812</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06886583668787694</v>
+        <v>0.1372529739830384</v>
       </c>
       <c r="M5">
-        <v>0.3482897005227343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4028469627388276</v>
+      </c>
+      <c r="N5">
+        <v>1.207037992575575</v>
+      </c>
+      <c r="O5">
+        <v>1.201326314857184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.396291134940128</v>
+        <v>2.441751175748152</v>
       </c>
       <c r="C6">
-        <v>0.2317018316196169</v>
+        <v>0.3986158281925611</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02413720328440228</v>
+        <v>0.03561145940719257</v>
       </c>
       <c r="F6">
-        <v>1.448992430642974</v>
+        <v>1.617498400772135</v>
       </c>
       <c r="G6">
-        <v>0.4719349166121418</v>
+        <v>0.0008293958277602093</v>
       </c>
       <c r="H6">
-        <v>1.050455881328446</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1784194635997434</v>
+        <v>0.05996588087035226</v>
       </c>
       <c r="K6">
-        <v>0.3495958641869805</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06835235371648096</v>
+        <v>0.1367086472554035</v>
       </c>
       <c r="M6">
-        <v>0.3456863277333042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4003496272581586</v>
+      </c>
+      <c r="N6">
+        <v>1.209660363119045</v>
+      </c>
+      <c r="O6">
+        <v>1.197926196863989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.469494858333064</v>
+        <v>2.556151012128112</v>
       </c>
       <c r="C7">
-        <v>0.2431986666963439</v>
+        <v>0.4188628955310207</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02525139518626496</v>
+        <v>0.03592201718884169</v>
       </c>
       <c r="F7">
-        <v>1.514043252613291</v>
+        <v>1.647311393402717</v>
       </c>
       <c r="G7">
-        <v>0.4889942940328638</v>
+        <v>0.0008270695126583102</v>
       </c>
       <c r="H7">
-        <v>1.082155686979306</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1786935193951447</v>
+        <v>0.05899488425946187</v>
       </c>
       <c r="K7">
-        <v>0.3680752610149298</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07192261064213312</v>
+        <v>0.1404981349743508</v>
       </c>
       <c r="M7">
-        <v>0.3637938409827299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.417727416957014</v>
+      </c>
+      <c r="N7">
+        <v>1.191600368346485</v>
+      </c>
+      <c r="O7">
+        <v>1.22176215603335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.797173410235814</v>
+        <v>3.068611642833275</v>
       </c>
       <c r="C8">
-        <v>0.2945035185529008</v>
+        <v>0.5091378555751476</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03023124416821332</v>
+        <v>0.0373257669960072</v>
       </c>
       <c r="F8">
-        <v>1.807235724723242</v>
+        <v>1.785900488056342</v>
       </c>
       <c r="G8">
-        <v>0.5665468638259625</v>
+        <v>0.0008171101959586037</v>
       </c>
       <c r="H8">
-        <v>1.226793239325417</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1803224724033896</v>
+        <v>0.05484712096451316</v>
       </c>
       <c r="K8">
-        <v>0.4507295806996012</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08785090367550552</v>
+        <v>0.1575149722527982</v>
       </c>
       <c r="M8">
-        <v>0.4447513040391016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4955947838486239</v>
+      </c>
+      <c r="N8">
+        <v>1.115523454385148</v>
+      </c>
+      <c r="O8">
+        <v>1.333171680132168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.462640553662084</v>
+        <v>4.109027644274533</v>
       </c>
       <c r="C9">
-        <v>0.3982318098323958</v>
+        <v>0.6910904922242764</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04027894653316721</v>
+        <v>0.04025953946108629</v>
       </c>
       <c r="F9">
-        <v>2.410533520615857</v>
+        <v>2.087254524530763</v>
       </c>
       <c r="G9">
-        <v>0.7290349762097321</v>
+        <v>0.000798591425176601</v>
       </c>
       <c r="H9">
-        <v>1.531855167467498</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1853340871292311</v>
+        <v>0.04724064911437997</v>
       </c>
       <c r="K9">
-        <v>0.6183885290097919</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1199450462545322</v>
+        <v>0.1921130048960364</v>
       </c>
       <c r="M9">
-        <v>0.6087014117762379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6536649075968199</v>
+      </c>
+      <c r="N9">
+        <v>0.9804097748526459</v>
+      </c>
+      <c r="O9">
+        <v>1.57828733257206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.972275762301479</v>
+        <v>4.903670304901766</v>
       </c>
       <c r="C10">
-        <v>0.4775169132756218</v>
+        <v>0.8294877877676754</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04789150160211264</v>
+        <v>0.04259386065473025</v>
       </c>
       <c r="F10">
-        <v>2.877811872700818</v>
+        <v>2.33127563145753</v>
       </c>
       <c r="G10">
-        <v>0.8571797229576248</v>
+        <v>0.0007855077426757572</v>
       </c>
       <c r="H10">
-        <v>1.773745870305333</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1904647174515013</v>
+        <v>0.0420130632558755</v>
       </c>
       <c r="K10">
-        <v>0.7467050086729259</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1443015826254985</v>
+        <v>0.2184616613848505</v>
       </c>
       <c r="M10">
-        <v>0.7338527517578015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.774275167249904</v>
+      </c>
+      <c r="N10">
+        <v>0.8908536675742695</v>
+      </c>
+      <c r="O10">
+        <v>1.779171684962748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.210369224041756</v>
+        <v>5.273922842154718</v>
       </c>
       <c r="C11">
-        <v>0.5145609824127462</v>
+        <v>0.8939113330467023</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05141915532252384</v>
+        <v>0.0437129048580891</v>
       </c>
       <c r="F11">
-        <v>3.097325819245981</v>
+        <v>2.448350905608407</v>
       </c>
       <c r="G11">
-        <v>0.9180014299376182</v>
+        <v>0.0007796453225052952</v>
       </c>
       <c r="H11">
-        <v>1.888853056353156</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1932032389717619</v>
+        <v>0.03972408211048828</v>
       </c>
       <c r="K11">
-        <v>0.8066460559199413</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1556150609902538</v>
+        <v>0.2306952698300648</v>
       </c>
       <c r="M11">
-        <v>0.7922010527683057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8304186238551452</v>
+      </c>
+      <c r="N11">
+        <v>0.8525091531701818</v>
+      </c>
+      <c r="O11">
+        <v>1.876230238727402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.301597306757458</v>
+        <v>5.415593773089086</v>
       </c>
       <c r="C12">
-        <v>0.5287590161058233</v>
+        <v>0.9185594814252909</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05276561011718428</v>
+        <v>0.04414668524599374</v>
       </c>
       <c r="F12">
-        <v>3.181612231008359</v>
+        <v>2.493665478785672</v>
       </c>
       <c r="G12">
-        <v>0.9414563765332815</v>
+        <v>0.0007774360206757433</v>
       </c>
       <c r="H12">
-        <v>1.933286366609735</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1943073000539925</v>
+        <v>0.03887122318870162</v>
       </c>
       <c r="K12">
-        <v>0.8296133657562521</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1599388461992746</v>
+        <v>0.2353675628526304</v>
       </c>
       <c r="M12">
-        <v>0.8145373919836558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8518907529268844</v>
+      </c>
+      <c r="N12">
+        <v>0.8383612069154793</v>
+      </c>
+      <c r="O12">
+        <v>1.913909477883095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.2818993303149</v>
+        <v>5.385013770900059</v>
       </c>
       <c r="C13">
-        <v>0.5256931231892565</v>
+        <v>0.9132391198666028</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05247513289099359</v>
+        <v>0.04405278538049107</v>
       </c>
       <c r="F13">
-        <v>3.16340519524536</v>
+        <v>2.483860704442861</v>
       </c>
       <c r="G13">
-        <v>0.9363850835649714</v>
+        <v>0.000777911396425579</v>
       </c>
       <c r="H13">
-        <v>1.923677281693372</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1940663833275664</v>
+        <v>0.03905426228224318</v>
       </c>
       <c r="K13">
-        <v>0.824654230273616</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1590057758681205</v>
+        <v>0.234359465643621</v>
       </c>
       <c r="M13">
-        <v>0.8097154895437058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8472564416424007</v>
+      </c>
+      <c r="N13">
+        <v>0.8413911823332327</v>
+      </c>
+      <c r="O13">
+        <v>1.905751548264604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.217852184083824</v>
+        <v>5.285547593732304</v>
       </c>
       <c r="C14">
-        <v>0.5157254652560539</v>
+        <v>0.8959338367449448</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05152970838192061</v>
+        <v>0.04374838003224735</v>
       </c>
       <c r="F14">
-        <v>3.104235838151624</v>
+        <v>2.452058645159894</v>
       </c>
       <c r="G14">
-        <v>0.9199222338288138</v>
+        <v>0.0007794633616220821</v>
       </c>
       <c r="H14">
-        <v>1.892490964718192</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1932926715245067</v>
+        <v>0.03965363065900451</v>
       </c>
       <c r="K14">
-        <v>0.8085299312730214</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1559699502861953</v>
+        <v>0.2310788416582028</v>
       </c>
       <c r="M14">
-        <v>0.7940336128086116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8321807307611806</v>
+      </c>
+      <c r="N14">
+        <v>0.8513375601357325</v>
+      </c>
+      <c r="O14">
+        <v>1.879310916446016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.178765799475457</v>
+        <v>5.224818847732934</v>
       </c>
       <c r="C15">
-        <v>0.5096431150631133</v>
+        <v>0.8853680374279804</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05095203126157344</v>
+        <v>0.04356328649806462</v>
       </c>
       <c r="F15">
-        <v>3.068149287412638</v>
+        <v>2.43271009856727</v>
       </c>
       <c r="G15">
-        <v>0.9098952634142137</v>
+        <v>0.0007804153053415123</v>
       </c>
       <c r="H15">
-        <v>1.873502146262624</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1928277675775441</v>
+        <v>0.04002261143490182</v>
       </c>
       <c r="K15">
-        <v>0.7986897416712395</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1541157700531066</v>
+        <v>0.2290746629053757</v>
       </c>
       <c r="M15">
-        <v>0.7844606037958783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8229748987304788</v>
+      </c>
+      <c r="N15">
+        <v>0.8574793716729801</v>
+      </c>
+      <c r="O15">
+        <v>1.86323922672652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.956855524622256</v>
+        <v>4.87966670646972</v>
       </c>
       <c r="C16">
-        <v>0.4751181037393053</v>
+        <v>0.8253104907145143</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04766237144890084</v>
+        <v>0.04252202658772841</v>
       </c>
       <c r="F16">
-        <v>2.863619333100104</v>
+        <v>2.323755566567172</v>
       </c>
       <c r="G16">
-        <v>0.8532606678850669</v>
+        <v>0.0007858924834217835</v>
       </c>
       <c r="H16">
-        <v>1.766334912254308</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1902946178001947</v>
+        <v>0.0421645375259847</v>
       </c>
       <c r="K16">
-        <v>0.7428228654603188</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.143567419433996</v>
+        <v>0.2176674872811901</v>
       </c>
       <c r="M16">
-        <v>0.7300711448618813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7706340961803875</v>
+      </c>
+      <c r="N16">
+        <v>0.8934100749337404</v>
+      </c>
+      <c r="O16">
+        <v>1.772951922621999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.82243581083344</v>
+        <v>4.670309864658293</v>
       </c>
       <c r="C17">
-        <v>0.4542082242167567</v>
+        <v>0.7888705620351004</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04566172640353017</v>
+        <v>0.0418990851714014</v>
       </c>
       <c r="F17">
-        <v>2.740035447873055</v>
+        <v>2.258542980983123</v>
       </c>
       <c r="G17">
-        <v>0.8192046631596099</v>
+        <v>0.0007892739741408514</v>
       </c>
       <c r="H17">
-        <v>1.701967489189357</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1888501381456749</v>
+        <v>0.04350209417887996</v>
       </c>
       <c r="K17">
-        <v>0.7089812712696855</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1371602400205774</v>
+        <v>0.2107357265196725</v>
       </c>
       <c r="M17">
-        <v>0.6970928892377657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7388708892555158</v>
+      </c>
+      <c r="N17">
+        <v>0.9160846442211579</v>
+      </c>
+      <c r="O17">
+        <v>1.719090873374952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.745698923602617</v>
+        <v>4.550704885648258</v>
       </c>
       <c r="C18">
-        <v>0.4422713505622085</v>
+        <v>0.7680464847123005</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04451700912051848</v>
+        <v>0.04154604202961698</v>
       </c>
       <c r="F18">
-        <v>2.66959631149345</v>
+        <v>2.221598513736282</v>
       </c>
       <c r="G18">
-        <v>0.7998505087951884</v>
+        <v>0.0007912274787156226</v>
       </c>
       <c r="H18">
-        <v>1.665414502534077</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1880567897908421</v>
+        <v>0.04427972837365957</v>
       </c>
       <c r="K18">
-        <v>0.6896612745650543</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1334965836893822</v>
+        <v>0.2067717845654755</v>
       </c>
       <c r="M18">
-        <v>0.6782554744674911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7207198896001472</v>
+      </c>
+      <c r="N18">
+        <v>0.9293500334454308</v>
+      </c>
+      <c r="O18">
+        <v>1.688638354780736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.719811620656628</v>
+        <v>4.510342245754828</v>
       </c>
       <c r="C19">
-        <v>0.4382443366940834</v>
+        <v>0.7610178482875085</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04413042029921854</v>
+        <v>0.04142735982093892</v>
       </c>
       <c r="F19">
-        <v>2.645852644448354</v>
+        <v>2.209183537580458</v>
       </c>
       <c r="G19">
-        <v>0.793336016201124</v>
+        <v>0.0007918904348087191</v>
       </c>
       <c r="H19">
-        <v>1.653115633905387</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1877943633992913</v>
+        <v>0.04454441749408788</v>
       </c>
       <c r="K19">
-        <v>0.6831434982725142</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1322596673757666</v>
+        <v>0.2054334980295209</v>
       </c>
       <c r="M19">
-        <v>0.6718988515505657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7145937942075378</v>
+      </c>
+      <c r="N19">
+        <v>0.933879068836184</v>
+      </c>
+      <c r="O19">
+        <v>1.678415035636732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.836684078962321</v>
+        <v>4.692510865068584</v>
       </c>
       <c r="C20">
-        <v>0.4564246061720212</v>
+        <v>0.7927353767320255</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04587406833519481</v>
+        <v>0.04196484213303764</v>
       </c>
       <c r="F20">
-        <v>2.753123497466163</v>
+        <v>2.265425847156848</v>
       </c>
       <c r="G20">
-        <v>0.8228053622189009</v>
+        <v>0.0007889131376937584</v>
       </c>
       <c r="H20">
-        <v>1.708770134377701</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1889999665649178</v>
+        <v>0.04335884171816007</v>
       </c>
       <c r="K20">
-        <v>0.7125684861114792</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1378400199534831</v>
+        <v>0.2114712130629641</v>
       </c>
       <c r="M20">
-        <v>0.7005896869771178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7422396935423521</v>
+      </c>
+      <c r="N20">
+        <v>0.9136475666940029</v>
+      </c>
+      <c r="O20">
+        <v>1.724769188390155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.236633971412743</v>
+        <v>5.314721734788179</v>
       </c>
       <c r="C21">
-        <v>0.5186483288140096</v>
+        <v>0.9010096117722526</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05180710346622419</v>
+        <v>0.04383750348210613</v>
       </c>
       <c r="F21">
-        <v>3.121582402622295</v>
+        <v>2.461372142393742</v>
       </c>
       <c r="G21">
-        <v>0.9247457753640447</v>
+        <v>0.0007790072408960805</v>
       </c>
       <c r="H21">
-        <v>1.901627218239838</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1935180325677557</v>
+        <v>0.03947719375988257</v>
       </c>
       <c r="K21">
-        <v>0.8132583553224322</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.156860518983315</v>
+        <v>0.232041328366094</v>
       </c>
       <c r="M21">
-        <v>0.7986328938717975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8366028431701196</v>
+      </c>
+      <c r="N21">
+        <v>0.8484057250454171</v>
+      </c>
+      <c r="O21">
+        <v>1.887051124000607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.504339938582348</v>
+        <v>5.730020440054261</v>
       </c>
       <c r="C22">
-        <v>0.5603245369335355</v>
+        <v>0.9732672184731825</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05574722629051365</v>
+        <v>0.0451208636339997</v>
       </c>
       <c r="F22">
-        <v>3.369250743713735</v>
+        <v>2.59521006967293</v>
       </c>
       <c r="G22">
-        <v>0.993869410724102</v>
+        <v>0.0007725941499050278</v>
       </c>
       <c r="H22">
-        <v>2.032659407178897</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.196866760132405</v>
+        <v>0.03702216077325815</v>
       </c>
       <c r="K22">
-        <v>0.8806571507226977</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1695257753627217</v>
+        <v>0.2457186663523458</v>
       </c>
       <c r="M22">
-        <v>0.8641362029484227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8995247691297195</v>
+      </c>
+      <c r="N22">
+        <v>0.807951859866975</v>
+      </c>
+      <c r="O22">
+        <v>1.998565438792028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.360820915608201</v>
+        <v>5.507502578277411</v>
       </c>
       <c r="C23">
-        <v>0.5379777994388064</v>
+        <v>0.9345501116189325</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05363811838627086</v>
+        <v>0.04442979732803565</v>
       </c>
       <c r="F23">
-        <v>3.236378803158914</v>
+        <v>2.523210764556296</v>
       </c>
       <c r="G23">
-        <v>0.9567262892236386</v>
+        <v>0.0007760121474245482</v>
       </c>
       <c r="H23">
-        <v>1.962226206344013</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1950399614626122</v>
+        <v>0.03832454808792596</v>
       </c>
       <c r="K23">
-        <v>0.8445235558280615</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1627424663660797</v>
+        <v>0.2383959685452339</v>
       </c>
       <c r="M23">
-        <v>0.8290316460945775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8658175881859407</v>
+      </c>
+      <c r="N23">
+        <v>0.8293327615503898</v>
+      </c>
+      <c r="O23">
+        <v>1.938509539950758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.830240758604077</v>
+        <v>4.682471449816887</v>
       </c>
       <c r="C24">
-        <v>0.4554223189008155</v>
+        <v>0.7909877054803189</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04577805157561698</v>
+        <v>0.04193509767607395</v>
       </c>
       <c r="F24">
-        <v>2.747204499482621</v>
+        <v>2.262312407222566</v>
       </c>
       <c r="G24">
-        <v>0.821176789447648</v>
+        <v>0.000789076242325514</v>
       </c>
       <c r="H24">
-        <v>1.705693256966981</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1889321142241833</v>
+        <v>0.04342357927941753</v>
       </c>
       <c r="K24">
-        <v>0.7109462859065729</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1375326298567394</v>
+        <v>0.2111386338070531</v>
       </c>
       <c r="M24">
-        <v>0.6990084067851967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7407163163018424</v>
+      </c>
+      <c r="N24">
+        <v>0.9147486567412386</v>
+      </c>
+      <c r="O24">
+        <v>1.722200432639752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.279512466058918</v>
+        <v>3.822932049897076</v>
       </c>
       <c r="C25">
-        <v>0.3697240850390813</v>
+        <v>0.6411745608365607</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03752483475611612</v>
+        <v>0.03943998288911432</v>
       </c>
       <c r="F25">
-        <v>2.243636017177067</v>
+        <v>2.002117442682405</v>
       </c>
       <c r="G25">
-        <v>0.6837298593778627</v>
+        <v>0.0008035021832061254</v>
       </c>
       <c r="H25">
-        <v>1.446580331574054</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1837512196323807</v>
+        <v>0.04923825476013954</v>
       </c>
       <c r="K25">
-        <v>0.5722683130698982</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1111462144662809</v>
+        <v>0.1826041837684471</v>
       </c>
       <c r="M25">
-        <v>0.5636448449686284</v>
+        <v>0.610210799162175</v>
+      </c>
+      <c r="N25">
+        <v>1.015345374229312</v>
+      </c>
+      <c r="O25">
+        <v>1.508682844290789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.209573980272978</v>
+        <v>2.686221341552596</v>
       </c>
       <c r="C2">
-        <v>0.533873734667111</v>
+        <v>0.4235086060413948</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03771613394917139</v>
+        <v>0.05701645961853252</v>
       </c>
       <c r="F2">
-        <v>1.82529830784793</v>
+        <v>1.409857192089078</v>
       </c>
       <c r="G2">
-        <v>0.000814483371986942</v>
+        <v>1.04661241325708</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6645925227595484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05375771352904257</v>
+        <v>0.04059654861217687</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1622026496904638</v>
+        <v>0.213332102666854</v>
       </c>
       <c r="M2">
-        <v>0.5170160029556214</v>
+        <v>0.4743312884065816</v>
       </c>
       <c r="N2">
-        <v>1.095824871643593</v>
+        <v>0.8616622587604672</v>
       </c>
       <c r="O2">
-        <v>1.36500792319886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.803223665041969</v>
+        <v>2.337627640025744</v>
       </c>
       <c r="C3">
-        <v>0.4624641439644677</v>
+        <v>0.3766418933812474</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03659600784385297</v>
+        <v>0.05704560577116036</v>
       </c>
       <c r="F3">
-        <v>1.71316305742647</v>
+        <v>1.327326080368394</v>
       </c>
       <c r="G3">
-        <v>0.0008221809083505575</v>
+        <v>0.9684014166923873</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6366696924307576</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05695627836333506</v>
+        <v>0.0416457932459906</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1486958534793317</v>
+        <v>0.1954016301109647</v>
       </c>
       <c r="M3">
-        <v>0.4552665633758224</v>
+        <v>0.4163418106386558</v>
       </c>
       <c r="N3">
-        <v>1.153994225551799</v>
+        <v>0.9154944777506069</v>
       </c>
       <c r="O3">
-        <v>1.274581011368042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.557493462027423</v>
+        <v>2.125604153950178</v>
       </c>
       <c r="C4">
-        <v>0.4191002511099384</v>
+        <v>0.3479721127494599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03592566676871112</v>
+        <v>0.057088262282456</v>
       </c>
       <c r="F4">
-        <v>1.647663901797713</v>
+        <v>1.279189192246903</v>
       </c>
       <c r="G4">
-        <v>0.0008270424634190261</v>
+        <v>0.9228014174431678</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6208858654551221</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05898359599182834</v>
+        <v>0.04231269323937958</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1405426304393558</v>
+        <v>0.1845616530677106</v>
       </c>
       <c r="M4">
-        <v>0.417931356928932</v>
+        <v>0.3811089751621708</v>
       </c>
       <c r="N4">
-        <v>1.191390978285881</v>
+        <v>0.9499418831709203</v>
       </c>
       <c r="O4">
-        <v>1.222044288823099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.458192614118957</v>
+        <v>2.039644250410731</v>
       </c>
       <c r="C5">
-        <v>0.4015282651305938</v>
+        <v>0.3363065245015235</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03565603975074927</v>
+        <v>0.05711166804295464</v>
       </c>
       <c r="F5">
-        <v>1.621754980978366</v>
+        <v>1.260171035075018</v>
       </c>
       <c r="G5">
-        <v>0.0008290588446232027</v>
+        <v>0.9047822228362037</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6147749244902343</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05982521017633591</v>
+        <v>0.04259011798846579</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1372529739830384</v>
+        <v>0.1801841484842157</v>
       </c>
       <c r="M5">
-        <v>0.4028469627388276</v>
+        <v>0.3668347876938114</v>
       </c>
       <c r="N5">
-        <v>1.207037992575575</v>
+        <v>0.9643197168095097</v>
       </c>
       <c r="O5">
-        <v>1.201326314857184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.441751175748152</v>
+        <v>2.025395509306293</v>
       </c>
       <c r="C6">
-        <v>0.3986158281925611</v>
+        <v>0.3343702672605531</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03561145940719257</v>
+        <v>0.05711591274390271</v>
       </c>
       <c r="F6">
-        <v>1.617498400772135</v>
+        <v>1.257048077979718</v>
       </c>
       <c r="G6">
-        <v>0.0008293958277602093</v>
+        <v>0.901822879342987</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6137790092030855</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05996588087035226</v>
+        <v>0.04263652486692848</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1367086472554035</v>
+        <v>0.1794595990680605</v>
       </c>
       <c r="M6">
-        <v>0.4003496272581586</v>
+        <v>0.3644693232660146</v>
       </c>
       <c r="N6">
-        <v>1.209660363119045</v>
+        <v>0.9667274046617798</v>
       </c>
       <c r="O6">
-        <v>1.197926196863989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.556151012128112</v>
+        <v>2.124443164470222</v>
       </c>
       <c r="C7">
-        <v>0.4188628955310207</v>
+        <v>0.3478147270722047</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03592201718884169</v>
+        <v>0.05708855380870181</v>
       </c>
       <c r="F7">
-        <v>1.647311393402717</v>
+        <v>1.278930336562993</v>
       </c>
       <c r="G7">
-        <v>0.0008270695126583102</v>
+        <v>0.9225561824400046</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6208021779756194</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05899488425946187</v>
+        <v>0.04231641182521706</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1404981349743508</v>
+        <v>0.184502458538276</v>
       </c>
       <c r="M7">
-        <v>0.417727416957014</v>
+        <v>0.3809161436018726</v>
       </c>
       <c r="N7">
-        <v>1.191600368346485</v>
+        <v>0.9501344232392146</v>
       </c>
       <c r="O7">
-        <v>1.22176215603335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.068611642833275</v>
+        <v>2.565567450262336</v>
       </c>
       <c r="C8">
-        <v>0.5091378555751476</v>
+        <v>0.4073210744776645</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0373257669960072</v>
+        <v>0.05702124132353337</v>
       </c>
       <c r="F8">
-        <v>1.785900488056342</v>
+        <v>1.380848876638865</v>
       </c>
       <c r="G8">
-        <v>0.0008171101959586037</v>
+        <v>1.019114069265044</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.654669126870786</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05484712096451316</v>
+        <v>0.04095359788887443</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1575149722527982</v>
+        <v>0.2071128167585243</v>
       </c>
       <c r="M8">
-        <v>0.4955947838486239</v>
+        <v>0.4542526857710456</v>
       </c>
       <c r="N8">
-        <v>1.115523454385148</v>
+        <v>0.8799278110797832</v>
       </c>
       <c r="O8">
-        <v>1.333171680132168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.109027644274533</v>
+        <v>3.449805698339503</v>
       </c>
       <c r="C9">
-        <v>0.6910904922242764</v>
+        <v>0.5253153433858131</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04025953946108629</v>
+        <v>0.05709604571602611</v>
       </c>
       <c r="F9">
-        <v>2.087254524530763</v>
+        <v>1.602794545085843</v>
       </c>
       <c r="G9">
-        <v>0.000798591425176601</v>
+        <v>1.229914988623051</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7329100110039519</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04724064911437997</v>
+        <v>0.03846325571315745</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1921130048960364</v>
+        <v>0.2529299688823698</v>
       </c>
       <c r="M9">
-        <v>0.6536649075968199</v>
+        <v>0.6015317413532202</v>
       </c>
       <c r="N9">
-        <v>0.9804097748526459</v>
+        <v>0.753813458451285</v>
       </c>
       <c r="O9">
-        <v>1.57828733257206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.903670304901766</v>
+        <v>4.116065927140482</v>
       </c>
       <c r="C10">
-        <v>0.8294877877676754</v>
+        <v>0.613503569534231</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04259386065473025</v>
+        <v>0.05729349680662343</v>
       </c>
       <c r="F10">
-        <v>2.33127563145753</v>
+        <v>1.782265498596203</v>
       </c>
       <c r="G10">
-        <v>0.0007855077426757572</v>
+        <v>1.401254989241778</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7991652306058938</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0420130632558755</v>
+        <v>0.03674884206539275</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2184616613848505</v>
+        <v>0.287697500736968</v>
       </c>
       <c r="M10">
-        <v>0.774275167249904</v>
+        <v>0.7126253208005409</v>
       </c>
       <c r="N10">
-        <v>0.8908536675742695</v>
+        <v>0.6689510492018966</v>
       </c>
       <c r="O10">
-        <v>1.779171684962748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.273922842154718</v>
+        <v>4.423983867384266</v>
       </c>
       <c r="C11">
-        <v>0.8939113330467023</v>
+        <v>0.6541239147700537</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0437129048580891</v>
+        <v>0.05741857250759796</v>
       </c>
       <c r="F11">
-        <v>2.448350905608407</v>
+        <v>1.868196021072748</v>
       </c>
       <c r="G11">
-        <v>0.0007796453225052952</v>
+        <v>1.483612938421999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8315965446583959</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03972408211048828</v>
+        <v>0.03599522837776092</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2306952698300648</v>
+        <v>0.3038041925448312</v>
       </c>
       <c r="M11">
-        <v>0.8304186238551452</v>
+        <v>0.7639823917489892</v>
       </c>
       <c r="N11">
-        <v>0.8525091531701818</v>
+        <v>0.6322212723970706</v>
       </c>
       <c r="O11">
-        <v>1.876230238727402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.415593773089086</v>
+        <v>4.541390353588156</v>
       </c>
       <c r="C12">
-        <v>0.9185594814252909</v>
+        <v>0.669594460106282</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04414668524599374</v>
+        <v>0.05747142510198788</v>
       </c>
       <c r="F12">
-        <v>2.493665478785672</v>
+        <v>1.901418601224975</v>
       </c>
       <c r="G12">
-        <v>0.0007774360206757433</v>
+        <v>1.515511878693388</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8442426454329279</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03887122318870162</v>
+        <v>0.03571377732004954</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2353675628526304</v>
+        <v>0.3099496938814639</v>
       </c>
       <c r="M12">
-        <v>0.8518907529268844</v>
+        <v>0.7835652986109736</v>
       </c>
       <c r="N12">
-        <v>0.8383612069154793</v>
+        <v>0.6185995077801874</v>
       </c>
       <c r="O12">
-        <v>1.913909477883095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.385013770900059</v>
+        <v>4.516067116469287</v>
       </c>
       <c r="C13">
-        <v>0.9132391198666028</v>
+        <v>0.6662583891040015</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04405278538049107</v>
+        <v>0.05745979090898778</v>
       </c>
       <c r="F13">
-        <v>2.483860704442861</v>
+        <v>1.894232051261895</v>
       </c>
       <c r="G13">
-        <v>0.000777911396425579</v>
+        <v>1.508608907437321</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.841502240911467</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03905426228224318</v>
+        <v>0.03577421556550497</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.234359465643621</v>
+        <v>0.3086240184909173</v>
       </c>
       <c r="M13">
-        <v>0.8472564416424007</v>
+        <v>0.779341469400002</v>
       </c>
       <c r="N13">
-        <v>0.8413911823332327</v>
+        <v>0.6215201380361828</v>
       </c>
       <c r="O13">
-        <v>1.905751548264604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.285547593732304</v>
+        <v>4.433626176512689</v>
       </c>
       <c r="C14">
-        <v>0.8959338367449448</v>
+        <v>0.6553948133364713</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04374838003224735</v>
+        <v>0.05742280809993172</v>
       </c>
       <c r="F14">
-        <v>2.452058645159894</v>
+        <v>1.870915183684104</v>
       </c>
       <c r="G14">
-        <v>0.0007794633616220821</v>
+        <v>1.486222550418745</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8326294142818824</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03965363065900451</v>
+        <v>0.0359719935967906</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2310788416582028</v>
+        <v>0.3043088329655319</v>
       </c>
       <c r="M14">
-        <v>0.8321807307611806</v>
+        <v>0.7655906774160997</v>
       </c>
       <c r="N14">
-        <v>0.8513375601357325</v>
+        <v>0.631094743691758</v>
       </c>
       <c r="O14">
-        <v>1.879310916446016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.224818847732934</v>
+        <v>4.383236948236345</v>
       </c>
       <c r="C15">
-        <v>0.8853680374279804</v>
+        <v>0.6487525943819321</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04356328649806462</v>
+        <v>0.0574008833535693</v>
       </c>
       <c r="F15">
-        <v>2.43271009856727</v>
+        <v>1.856723879435293</v>
       </c>
       <c r="G15">
-        <v>0.0007804153053415123</v>
+        <v>1.472605367994618</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8272432093447719</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04002261143490182</v>
+        <v>0.03609365451549529</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2290746629053757</v>
+        <v>0.3016718182984164</v>
       </c>
       <c r="M15">
-        <v>0.8229748987304788</v>
+        <v>0.7571860520346192</v>
       </c>
       <c r="N15">
-        <v>0.8574793716729801</v>
+        <v>0.6369973890345753</v>
       </c>
       <c r="O15">
-        <v>1.86323922672652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.87966670646972</v>
+        <v>4.096049149887165</v>
       </c>
       <c r="C16">
-        <v>0.8253104907145143</v>
+        <v>0.6108604001965432</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04252202658772841</v>
+        <v>0.05728606679686976</v>
       </c>
       <c r="F16">
-        <v>2.323755566567172</v>
+        <v>1.776741523750061</v>
       </c>
       <c r="G16">
-        <v>0.0007858924834217835</v>
+        <v>1.395967944915611</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7970948390617423</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0421645375259847</v>
+        <v>0.03679863323071686</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2176674872811901</v>
+        <v>0.2866511117355373</v>
       </c>
       <c r="M16">
-        <v>0.7706340961803875</v>
+        <v>0.7092869482984909</v>
       </c>
       <c r="N16">
-        <v>0.8934100749337404</v>
+        <v>0.6713906011593407</v>
       </c>
       <c r="O16">
-        <v>1.772951922621999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.670309864658293</v>
+        <v>3.921181290729578</v>
       </c>
       <c r="C17">
-        <v>0.7888705620351004</v>
+        <v>0.587754584261944</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0418990851714014</v>
+        <v>0.0572249409527652</v>
       </c>
       <c r="F17">
-        <v>2.258542980983123</v>
+        <v>1.728818276196279</v>
       </c>
       <c r="G17">
-        <v>0.0007892739741408514</v>
+        <v>1.350136480348908</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7792109172821711</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04350209417887996</v>
+        <v>0.03723794160735316</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2107357265196725</v>
+        <v>0.2775139010027772</v>
       </c>
       <c r="M17">
-        <v>0.7388708892555158</v>
+        <v>0.6801241502754394</v>
       </c>
       <c r="N17">
-        <v>0.9160846442211579</v>
+        <v>0.6929817419299731</v>
       </c>
       <c r="O17">
-        <v>1.719090873374952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.550704885648258</v>
+        <v>3.821049642738728</v>
       </c>
       <c r="C18">
-        <v>0.7680464847123005</v>
+        <v>0.5745110182575957</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04154604202961698</v>
+        <v>0.05719307297960174</v>
       </c>
       <c r="F18">
-        <v>2.221598513736282</v>
+        <v>1.70165343525143</v>
       </c>
       <c r="G18">
-        <v>0.0007912274787156226</v>
+        <v>1.324185920002776</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7691379196606647</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04427972837365957</v>
+        <v>0.0374930835039784</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2067717845654755</v>
+        <v>0.2722854996258519</v>
       </c>
       <c r="M18">
-        <v>0.7207198896001472</v>
+        <v>0.6634265461159572</v>
       </c>
       <c r="N18">
-        <v>0.9293500334454308</v>
+        <v>0.7055756993378388</v>
       </c>
       <c r="O18">
-        <v>1.688638354780736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.510342245754828</v>
+        <v>3.787220512234796</v>
       </c>
       <c r="C19">
-        <v>0.7610178482875085</v>
+        <v>0.5700344595698539</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04142735982093892</v>
+        <v>0.05718283622070075</v>
       </c>
       <c r="F19">
-        <v>2.209183537580458</v>
+        <v>1.692522564389563</v>
       </c>
       <c r="G19">
-        <v>0.0007918904348087191</v>
+        <v>1.315467782592293</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7657629931554482</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04454441749408788</v>
+        <v>0.03757988924498612</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2054334980295209</v>
+        <v>0.2705197750513832</v>
       </c>
       <c r="M19">
-        <v>0.7145937942075378</v>
+        <v>0.6577855914310291</v>
       </c>
       <c r="N19">
-        <v>0.933879068836184</v>
+        <v>0.7098694006747959</v>
       </c>
       <c r="O19">
-        <v>1.678415035636732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.692510865068584</v>
+        <v>3.939749174741507</v>
       </c>
       <c r="C20">
-        <v>0.7927353767320255</v>
+        <v>0.5902093355407487</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04196484213303764</v>
+        <v>0.05723110454266944</v>
       </c>
       <c r="F20">
-        <v>2.265425847156848</v>
+        <v>1.733877999103115</v>
       </c>
       <c r="G20">
-        <v>0.0007889131376937584</v>
+        <v>1.354972300462862</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7810923626724957</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04335884171816007</v>
+        <v>0.03719092056440942</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2114712130629641</v>
+        <v>0.2784837390666155</v>
       </c>
       <c r="M20">
-        <v>0.7422396935423521</v>
+        <v>0.6832205881060034</v>
       </c>
       <c r="N20">
-        <v>0.9136475666940029</v>
+        <v>0.690665063690826</v>
       </c>
       <c r="O20">
-        <v>1.724769188390155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.314721734788179</v>
+        <v>4.457818313170208</v>
       </c>
       <c r="C21">
-        <v>0.9010096117722526</v>
+        <v>0.6585831694754916</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04383750348210613</v>
+        <v>0.05743351823912946</v>
       </c>
       <c r="F21">
-        <v>2.461372142393742</v>
+        <v>1.87774483245461</v>
       </c>
       <c r="G21">
-        <v>0.0007790072408960805</v>
+        <v>1.492777997538099</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8352253698628829</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03947719375988257</v>
+        <v>0.03591379352190849</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.232041328366094</v>
+        <v>0.3055750151133765</v>
       </c>
       <c r="M21">
-        <v>0.8366028431701196</v>
+        <v>0.7696258066870314</v>
       </c>
       <c r="N21">
-        <v>0.8484057250454171</v>
+        <v>0.6282745132890799</v>
       </c>
       <c r="O21">
-        <v>1.887051124000607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.730020440054261</v>
+        <v>4.801155459844779</v>
       </c>
       <c r="C22">
-        <v>0.9732672184731825</v>
+        <v>0.7037940809368308</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0451208636339997</v>
+        <v>0.057598040718565</v>
       </c>
       <c r="F22">
-        <v>2.59521006967293</v>
+        <v>1.97578376821383</v>
       </c>
       <c r="G22">
-        <v>0.0007725941499050278</v>
+        <v>1.587032120627413</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8727514248316197</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03702216077325815</v>
+        <v>0.03510209222453398</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2457186663523458</v>
+        <v>0.3235526431952565</v>
       </c>
       <c r="M22">
-        <v>0.8995247691297195</v>
+        <v>0.8268932679232179</v>
       </c>
       <c r="N22">
-        <v>0.807951859866975</v>
+        <v>0.589180909791355</v>
       </c>
       <c r="O22">
-        <v>1.998565438792028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.507502578277411</v>
+        <v>4.61743629843852</v>
       </c>
       <c r="C23">
-        <v>0.9345501116189325</v>
+        <v>0.6796103536633211</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04442979732803565</v>
+        <v>0.05750712827784099</v>
       </c>
       <c r="F23">
-        <v>2.523210764556296</v>
+        <v>1.923067864501434</v>
       </c>
       <c r="G23">
-        <v>0.0007760121474245482</v>
+        <v>1.536316057484754</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8525139220978986</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03832454808792596</v>
+        <v>0.03553315364406195</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2383959685452339</v>
+        <v>0.3139311935617428</v>
       </c>
       <c r="M23">
-        <v>0.8658175881859407</v>
+        <v>0.7962495354005839</v>
       </c>
       <c r="N23">
-        <v>0.8293327615503898</v>
+        <v>0.6098857644114313</v>
       </c>
       <c r="O23">
-        <v>1.938509539950758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.682471449816887</v>
+        <v>3.931353389732294</v>
       </c>
       <c r="C24">
-        <v>0.7909877054803189</v>
+        <v>0.5890994182384475</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04193509767607395</v>
+        <v>0.05722830781653077</v>
       </c>
       <c r="F24">
-        <v>2.262312407222566</v>
+        <v>1.731589298262335</v>
       </c>
       <c r="G24">
-        <v>0.000789076242325514</v>
+        <v>1.35278479049154</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7802411137796241</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04342357927941753</v>
+        <v>0.03721217075983674</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2111386338070531</v>
+        <v>0.2780451986645858</v>
       </c>
       <c r="M24">
-        <v>0.7407163163018424</v>
+        <v>0.6818204765506906</v>
       </c>
       <c r="N24">
-        <v>0.9147486567412386</v>
+        <v>0.6917118716869872</v>
       </c>
       <c r="O24">
-        <v>1.722200432639752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.822932049897076</v>
+        <v>3.208059640390559</v>
       </c>
       <c r="C25">
-        <v>0.6411745608365607</v>
+        <v>0.4931866713286865</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03943998288911432</v>
+        <v>0.05705209978572912</v>
       </c>
       <c r="F25">
-        <v>2.002117442682405</v>
+        <v>1.540098758655887</v>
       </c>
       <c r="G25">
-        <v>0.0008035021832061254</v>
+        <v>1.170259246202107</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7103245586001208</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04923825476013954</v>
+        <v>0.03911708953001813</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1826041837684471</v>
+        <v>0.2403568201202688</v>
       </c>
       <c r="M25">
-        <v>0.610210799162175</v>
+        <v>0.561241741006711</v>
       </c>
       <c r="N25">
-        <v>1.015345374229312</v>
+        <v>0.7866200458396779</v>
       </c>
       <c r="O25">
-        <v>1.508682844290789</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.686221341552596</v>
+        <v>1.551609188260556</v>
       </c>
       <c r="C2">
-        <v>0.4235086060413948</v>
+        <v>0.2002258939387218</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05701645961853252</v>
+        <v>0.1693266460553522</v>
       </c>
       <c r="F2">
-        <v>1.409857192089078</v>
+        <v>2.342751699717581</v>
       </c>
       <c r="G2">
-        <v>1.04661241325708</v>
+        <v>1.317092232050996</v>
       </c>
       <c r="H2">
-        <v>0.6645925227595484</v>
+        <v>1.220246611047443</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04059654861217687</v>
+        <v>0.06949057467695852</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.213332102666854</v>
+        <v>0.3766328660746296</v>
       </c>
       <c r="M2">
-        <v>0.4743312884065816</v>
+        <v>0.3836746348334543</v>
       </c>
       <c r="N2">
-        <v>0.8616622587604672</v>
+        <v>1.794068942494967</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.337627640025744</v>
+        <v>1.461575394362455</v>
       </c>
       <c r="C3">
-        <v>0.3766418933812474</v>
+        <v>0.1852891020234892</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05704560577116036</v>
+        <v>0.1696996610878445</v>
       </c>
       <c r="F3">
-        <v>1.327326080368394</v>
+        <v>2.338045565844794</v>
       </c>
       <c r="G3">
-        <v>0.9684014166923873</v>
+        <v>1.307905292019186</v>
       </c>
       <c r="H3">
-        <v>0.6366696924307576</v>
+        <v>1.221959196064518</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0416457932459906</v>
+        <v>0.06979986181996445</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1954016301109647</v>
+        <v>0.3735828652350861</v>
       </c>
       <c r="M3">
-        <v>0.4163418106386558</v>
+        <v>0.369668767803546</v>
       </c>
       <c r="N3">
-        <v>0.9154944777506069</v>
+        <v>1.815525494702882</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.125604153950178</v>
+        <v>1.406979468205748</v>
       </c>
       <c r="C4">
-        <v>0.3479721127494599</v>
+        <v>0.176034563525505</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.057088262282456</v>
+        <v>0.1699477070854929</v>
       </c>
       <c r="F4">
-        <v>1.279189192246903</v>
+        <v>2.336379663702147</v>
       </c>
       <c r="G4">
-        <v>0.9228014174431678</v>
+        <v>1.303165173775909</v>
       </c>
       <c r="H4">
-        <v>0.6208858654551221</v>
+        <v>1.223647629460103</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04231269323937958</v>
+        <v>0.07000202509476239</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1845616530677106</v>
+        <v>0.3718354269731492</v>
       </c>
       <c r="M4">
-        <v>0.3811089751621708</v>
+        <v>0.3612399859500286</v>
       </c>
       <c r="N4">
-        <v>0.9499418831709203</v>
+        <v>1.829352119404404</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.039644250410731</v>
+        <v>1.384903980386525</v>
       </c>
       <c r="C5">
-        <v>0.3363065245015235</v>
+        <v>0.1722422475864249</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05711166804295464</v>
+        <v>0.1700535805241925</v>
       </c>
       <c r="F5">
-        <v>1.260171035075018</v>
+        <v>2.336008392945558</v>
       </c>
       <c r="G5">
-        <v>0.9047822228362037</v>
+        <v>1.301459438936419</v>
       </c>
       <c r="H5">
-        <v>0.6147749244902343</v>
+        <v>1.224495697345134</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04259011798846579</v>
+        <v>0.07008750032596289</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1801841484842157</v>
+        <v>0.3711549555423019</v>
       </c>
       <c r="M5">
-        <v>0.3668347876938114</v>
+        <v>0.3578483045246017</v>
       </c>
       <c r="N5">
-        <v>0.9643197168095097</v>
+        <v>1.835150484476123</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.025395509306293</v>
+        <v>1.381248813856189</v>
       </c>
       <c r="C6">
-        <v>0.3343702672605531</v>
+        <v>0.1716112649808821</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05711591274390271</v>
+        <v>0.1700714505386922</v>
       </c>
       <c r="F6">
-        <v>1.257048077979718</v>
+        <v>2.335965318851123</v>
       </c>
       <c r="G6">
-        <v>0.901822879342987</v>
+        <v>1.301189829800222</v>
       </c>
       <c r="H6">
-        <v>0.6137790092030855</v>
+        <v>1.224646179119304</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04263652486692848</v>
+        <v>0.07010188045005705</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1794595990680605</v>
+        <v>0.3710438773991029</v>
       </c>
       <c r="M6">
-        <v>0.3644693232660146</v>
+        <v>0.3572877268603776</v>
       </c>
       <c r="N6">
-        <v>0.9667274046617798</v>
+        <v>1.836123195034473</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.124443164470222</v>
+        <v>1.40668105014953</v>
       </c>
       <c r="C7">
-        <v>0.3478147270722047</v>
+        <v>0.1759835042143436</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05708855380870181</v>
+        <v>0.1699491155100676</v>
       </c>
       <c r="F7">
-        <v>1.278930336562993</v>
+        <v>2.33637341130968</v>
       </c>
       <c r="G7">
-        <v>0.9225561824400046</v>
+        <v>1.303141255751527</v>
       </c>
       <c r="H7">
-        <v>0.6208021779756194</v>
+        <v>1.223658419080309</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04231641182521706</v>
+        <v>0.07000316531221529</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.184502458538276</v>
+        <v>0.3718261216895584</v>
       </c>
       <c r="M7">
-        <v>0.3809161436018726</v>
+        <v>0.3611940697787759</v>
       </c>
       <c r="N7">
-        <v>0.9501344232392146</v>
+        <v>1.829429654685593</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.565567450262336</v>
+        <v>1.52042359153802</v>
       </c>
       <c r="C8">
-        <v>0.4073210744776645</v>
+        <v>0.1950929263774981</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05702124132353337</v>
+        <v>0.169451322391641</v>
       </c>
       <c r="F8">
-        <v>1.380848876638865</v>
+        <v>2.340874976139531</v>
       </c>
       <c r="G8">
-        <v>1.019114069265044</v>
+        <v>1.31373727438951</v>
       </c>
       <c r="H8">
-        <v>0.654669126870786</v>
+        <v>1.220704836759893</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04095359788887443</v>
+        <v>0.06959467789649665</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2071128167585243</v>
+        <v>0.375555296749404</v>
       </c>
       <c r="M8">
-        <v>0.4542526857710456</v>
+        <v>0.378810028992369</v>
       </c>
       <c r="N8">
-        <v>0.8799278110797832</v>
+        <v>1.801331735132801</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.449805698339503</v>
+        <v>1.748900358376488</v>
       </c>
       <c r="C9">
-        <v>0.5253153433858131</v>
+        <v>0.2319105352412976</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05709604571602611</v>
+        <v>0.1686255054868524</v>
       </c>
       <c r="F9">
-        <v>1.602794545085843</v>
+        <v>2.359420467312688</v>
       </c>
       <c r="G9">
-        <v>1.229914988623051</v>
+        <v>1.341692241379405</v>
       </c>
       <c r="H9">
-        <v>0.7329100110039519</v>
+        <v>1.21997390665021</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03846325571315745</v>
+        <v>0.06889050337120572</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2529299688823698</v>
+        <v>0.3838574999493147</v>
       </c>
       <c r="M9">
-        <v>0.6015317413532202</v>
+        <v>0.4147064508793719</v>
       </c>
       <c r="N9">
-        <v>0.753813458451285</v>
+        <v>1.751410528732236</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.116065927140482</v>
+        <v>1.92007930045213</v>
       </c>
       <c r="C10">
-        <v>0.613503569534231</v>
+        <v>0.2585697925951536</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05729349680662343</v>
+        <v>0.1681097603765931</v>
       </c>
       <c r="F10">
-        <v>1.782265498596203</v>
+        <v>2.378987394098957</v>
       </c>
       <c r="G10">
-        <v>1.401254989241778</v>
+        <v>1.366650950188983</v>
       </c>
       <c r="H10">
-        <v>0.7991652306058938</v>
+        <v>1.222534673083743</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03674884206539275</v>
+        <v>0.06843165060741541</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.287697500736968</v>
+        <v>0.3905549379012996</v>
       </c>
       <c r="M10">
-        <v>0.7126253208005409</v>
+        <v>0.4419010658977101</v>
       </c>
       <c r="N10">
-        <v>0.6689510492018966</v>
+        <v>1.717894360184625</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.423983867384266</v>
+        <v>1.998676387863497</v>
       </c>
       <c r="C11">
-        <v>0.6541239147700537</v>
+        <v>0.2706150876745426</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05741857250759796</v>
+        <v>0.1678947499932022</v>
       </c>
       <c r="F11">
-        <v>1.868196021072748</v>
+        <v>2.389183178575976</v>
       </c>
       <c r="G11">
-        <v>1.483612938421999</v>
+        <v>1.378975224721017</v>
       </c>
       <c r="H11">
-        <v>0.8315965446583959</v>
+        <v>1.22437514754219</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03599522837776092</v>
+        <v>0.06823549727453226</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3038041925448312</v>
+        <v>0.3937305363765802</v>
       </c>
       <c r="M11">
-        <v>0.7639823917489892</v>
+        <v>0.4544506977105769</v>
       </c>
       <c r="N11">
-        <v>0.6322212723970706</v>
+        <v>1.703334221497235</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.541390353588156</v>
+        <v>2.028543426254657</v>
       </c>
       <c r="C12">
-        <v>0.669594460106282</v>
+        <v>0.2751646352312207</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05747142510198788</v>
+        <v>0.1678161392287807</v>
       </c>
       <c r="F12">
-        <v>1.901418601224975</v>
+        <v>2.393230475569482</v>
       </c>
       <c r="G12">
-        <v>1.515511878693388</v>
+        <v>1.383782393011018</v>
       </c>
       <c r="H12">
-        <v>0.8442426454329279</v>
+        <v>1.225169437938746</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03571377732004954</v>
+        <v>0.06816301974344086</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3099496938814639</v>
+        <v>0.3949514817624618</v>
       </c>
       <c r="M12">
-        <v>0.7835652986109736</v>
+        <v>0.4592285156882028</v>
       </c>
       <c r="N12">
-        <v>0.6185995077801874</v>
+        <v>1.697919525712236</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516067116469287</v>
+        <v>2.022106406439491</v>
       </c>
       <c r="C13">
-        <v>0.6662583891040015</v>
+        <v>0.2741853300220214</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05745979090898778</v>
+        <v>0.1678329446921039</v>
       </c>
       <c r="F13">
-        <v>1.894232051261895</v>
+        <v>2.392350525459449</v>
       </c>
       <c r="G13">
-        <v>1.508608907437321</v>
+        <v>1.382740835439819</v>
       </c>
       <c r="H13">
-        <v>0.841502240911467</v>
+        <v>1.224994040783997</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03577421556550497</v>
+        <v>0.06817854907511212</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3086240184909173</v>
+        <v>0.3946877122204029</v>
       </c>
       <c r="M13">
-        <v>0.779341469400002</v>
+        <v>0.4581983933136016</v>
       </c>
       <c r="N13">
-        <v>0.6215201380361828</v>
+        <v>1.699081275076918</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.433626176512689</v>
+        <v>2.001131485082681</v>
       </c>
       <c r="C14">
-        <v>0.6553948133364713</v>
+        <v>0.2709896166777241</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05742280809993172</v>
+        <v>0.1678882263990884</v>
       </c>
       <c r="F14">
-        <v>1.870915183684104</v>
+        <v>2.38951241575198</v>
       </c>
       <c r="G14">
-        <v>1.486222550418745</v>
+        <v>1.379367898927853</v>
       </c>
       <c r="H14">
-        <v>0.8326294142818824</v>
+        <v>1.224438542262163</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0359719935967906</v>
+        <v>0.06822949844323567</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3043088329655319</v>
+        <v>0.3938306159086551</v>
       </c>
       <c r="M14">
-        <v>0.7655906774160997</v>
+        <v>0.4548432605522024</v>
       </c>
       <c r="N14">
-        <v>0.631094743691758</v>
+        <v>1.70288676775128</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.383236948236345</v>
+        <v>1.988297272714306</v>
       </c>
       <c r="C15">
-        <v>0.6487525943819321</v>
+        <v>0.2690306225234735</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0574008833535693</v>
+        <v>0.167922453558135</v>
       </c>
       <c r="F15">
-        <v>1.856723879435293</v>
+        <v>2.38779826908447</v>
       </c>
       <c r="G15">
-        <v>1.472605367994618</v>
+        <v>1.377320160826827</v>
       </c>
       <c r="H15">
-        <v>0.8272432093447719</v>
+        <v>1.224110966152921</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03609365451549529</v>
+        <v>0.06826094078439837</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3016718182984164</v>
+        <v>0.3933080143024057</v>
       </c>
       <c r="M15">
-        <v>0.7571860520346192</v>
+        <v>0.452791467205806</v>
       </c>
       <c r="N15">
-        <v>0.6369973890345753</v>
+        <v>1.705230628980881</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.096049149887165</v>
+        <v>1.914957380287717</v>
       </c>
       <c r="C16">
-        <v>0.6108604001965432</v>
+        <v>0.2577809571438081</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05728606679686976</v>
+        <v>0.1681242054375796</v>
       </c>
       <c r="F16">
-        <v>1.776741523750061</v>
+        <v>2.37834714508287</v>
       </c>
       <c r="G16">
-        <v>1.395967944915611</v>
+        <v>1.365865115994524</v>
       </c>
       <c r="H16">
-        <v>0.7970948390617423</v>
+        <v>1.222428004668103</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03679863323071686</v>
+        <v>0.0684447221927833</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2866511117355373</v>
+        <v>0.3903499885551298</v>
       </c>
       <c r="M16">
-        <v>0.7092869482984909</v>
+        <v>0.441084500535041</v>
       </c>
       <c r="N16">
-        <v>0.6713906011593407</v>
+        <v>1.718859730430873</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.921181290729578</v>
+        <v>1.870151553838639</v>
       </c>
       <c r="C17">
-        <v>0.587754584261944</v>
+        <v>0.2508586622064968</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0572249409527652</v>
+        <v>0.1682529876490797</v>
       </c>
       <c r="F17">
-        <v>1.728818276196279</v>
+        <v>2.372880928987257</v>
       </c>
       <c r="G17">
-        <v>1.350136480348908</v>
+        <v>1.35908685489764</v>
       </c>
       <c r="H17">
-        <v>0.7792109172821711</v>
+        <v>1.221568730740529</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03723794160735316</v>
+        <v>0.06856068293068063</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2775139010027772</v>
+        <v>0.3885682640310222</v>
       </c>
       <c r="M17">
-        <v>0.6801241502754394</v>
+        <v>0.4339483109322941</v>
       </c>
       <c r="N17">
-        <v>0.6929817419299731</v>
+        <v>1.727396714112963</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.821049642738728</v>
+        <v>1.844448879004517</v>
       </c>
       <c r="C18">
-        <v>0.5745110182575957</v>
+        <v>0.2468694062994246</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05719307297960174</v>
+        <v>0.1683289056511539</v>
       </c>
       <c r="F18">
-        <v>1.70165343525143</v>
+        <v>2.36985875634123</v>
       </c>
       <c r="G18">
-        <v>1.324185920002776</v>
+        <v>1.355279478834319</v>
       </c>
       <c r="H18">
-        <v>0.7691379196606647</v>
+        <v>1.221138074885772</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0374930835039784</v>
+        <v>0.06862856511474824</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2722854996258519</v>
+        <v>0.3875556030842375</v>
       </c>
       <c r="M18">
-        <v>0.6634265461159572</v>
+        <v>0.4298605889037148</v>
       </c>
       <c r="N18">
-        <v>0.7055756993378388</v>
+        <v>1.732371569483573</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.787220512234796</v>
+        <v>1.835758167061385</v>
       </c>
       <c r="C19">
-        <v>0.5700344595698539</v>
+        <v>0.2455173822918937</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05718283622070075</v>
+        <v>0.1683549275244101</v>
       </c>
       <c r="F19">
-        <v>1.692522564389563</v>
+        <v>2.368856422503512</v>
       </c>
       <c r="G19">
-        <v>1.315467782592293</v>
+        <v>1.354006026831144</v>
       </c>
       <c r="H19">
-        <v>0.7657629931554482</v>
+        <v>1.221003175479979</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03757988924498612</v>
+        <v>0.06865175255560452</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2705197750513832</v>
+        <v>0.3872148222077527</v>
       </c>
       <c r="M19">
-        <v>0.6577855914310291</v>
+        <v>0.4284794507627367</v>
       </c>
       <c r="N19">
-        <v>0.7098694006747959</v>
+        <v>1.734067060856198</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.939749174741507</v>
+        <v>1.874914129763852</v>
       </c>
       <c r="C20">
-        <v>0.5902093355407487</v>
+        <v>0.2515963523823643</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05723110454266944</v>
+        <v>0.1682390875956834</v>
       </c>
       <c r="F20">
-        <v>1.733877999103115</v>
+        <v>2.373450204534805</v>
       </c>
       <c r="G20">
-        <v>1.354972300462862</v>
+        <v>1.359798958148957</v>
       </c>
       <c r="H20">
-        <v>0.7810923626724957</v>
+        <v>1.22165362063987</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03719092056440942</v>
+        <v>0.06854821616242823</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2784837390666155</v>
+        <v>0.3887566760933368</v>
       </c>
       <c r="M20">
-        <v>0.6832205881060034</v>
+        <v>0.4347062301936262</v>
       </c>
       <c r="N20">
-        <v>0.690665063690826</v>
+        <v>1.726481249557532</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.457818313170208</v>
+        <v>2.007289508629867</v>
       </c>
       <c r="C21">
-        <v>0.6585831694754916</v>
+        <v>0.2719285933537776</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05743351823912946</v>
+        <v>0.1678719126661221</v>
       </c>
       <c r="F21">
-        <v>1.87774483245461</v>
+        <v>2.390340977603486</v>
       </c>
       <c r="G21">
-        <v>1.492777997538099</v>
+        <v>1.380354800771329</v>
       </c>
       <c r="H21">
-        <v>0.8352253698628829</v>
+        <v>1.224599062209364</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03591379352190849</v>
+        <v>0.06821448454711465</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3055750151133765</v>
+        <v>0.3940818670470492</v>
       </c>
       <c r="M21">
-        <v>0.7696258066870314</v>
+        <v>0.4558280522597542</v>
       </c>
       <c r="N21">
-        <v>0.6282745132890799</v>
+        <v>1.701766316302303</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.801155459844779</v>
+        <v>2.094410593620864</v>
       </c>
       <c r="C22">
-        <v>0.7037940809368308</v>
+        <v>0.2851484651847045</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.057598040718565</v>
+        <v>0.1676483110486</v>
       </c>
       <c r="F22">
-        <v>1.97578376821383</v>
+        <v>2.402466503999918</v>
       </c>
       <c r="G22">
-        <v>1.587032120627413</v>
+        <v>1.394606938759665</v>
       </c>
       <c r="H22">
-        <v>0.8727514248316197</v>
+        <v>1.227091559476406</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03510209222453398</v>
+        <v>0.06800686863788563</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3235526431952565</v>
+        <v>0.3976694694207907</v>
       </c>
       <c r="M22">
-        <v>0.8268932679232179</v>
+        <v>0.4697812114105773</v>
       </c>
       <c r="N22">
-        <v>0.589180909791355</v>
+        <v>1.686190309785629</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.61743629843852</v>
+        <v>2.047857134889398</v>
       </c>
       <c r="C23">
-        <v>0.6796103536633211</v>
+        <v>0.2780990092350919</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05750712827784099</v>
+        <v>0.1677661570312683</v>
       </c>
       <c r="F23">
-        <v>1.923067864501434</v>
+        <v>2.395895406988728</v>
       </c>
       <c r="G23">
-        <v>1.536316057484754</v>
+        <v>1.386925256561568</v>
       </c>
       <c r="H23">
-        <v>0.8525139220978986</v>
+        <v>1.225709276489681</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03553315364406195</v>
+        <v>0.06811671915865603</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3139311935617428</v>
+        <v>0.3957449218182205</v>
       </c>
       <c r="M23">
-        <v>0.7962495354005839</v>
+        <v>0.4623205782111413</v>
       </c>
       <c r="N23">
-        <v>0.6098857644114313</v>
+        <v>1.694450691691826</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.931353389732294</v>
+        <v>1.872760792247448</v>
       </c>
       <c r="C24">
-        <v>0.5890994182384475</v>
+        <v>0.2512628723694093</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05722830781653077</v>
+        <v>0.1682453659559009</v>
       </c>
       <c r="F24">
-        <v>1.731589298262335</v>
+        <v>2.373192459939176</v>
       </c>
       <c r="G24">
-        <v>1.35278479049154</v>
+        <v>1.359476737413019</v>
       </c>
       <c r="H24">
-        <v>0.7802411137796241</v>
+        <v>1.221615044580176</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03721217075983674</v>
+        <v>0.06855384860288716</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2780451986645858</v>
+        <v>0.3886714586224116</v>
       </c>
       <c r="M24">
-        <v>0.6818204765506906</v>
+        <v>0.4343635282590981</v>
       </c>
       <c r="N24">
-        <v>0.6917118716869872</v>
+        <v>1.726894922911135</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.208059640390559</v>
+        <v>1.686509441947749</v>
       </c>
       <c r="C25">
-        <v>0.4931866713286865</v>
+        <v>0.2220196664868297</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05705209978572912</v>
+        <v>0.168832884995203</v>
       </c>
       <c r="F25">
-        <v>1.540098758655887</v>
+        <v>2.353361281265265</v>
       </c>
       <c r="G25">
-        <v>1.170259246202107</v>
+        <v>1.333356743509938</v>
       </c>
       <c r="H25">
-        <v>0.7103245586001208</v>
+        <v>1.219628549228617</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03911708953001813</v>
+        <v>0.06907068841438857</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2403568201202688</v>
+        <v>0.3815061726852065</v>
       </c>
       <c r="M25">
-        <v>0.561241741006711</v>
+        <v>0.4048510807701149</v>
       </c>
       <c r="N25">
-        <v>0.7866200458396779</v>
+        <v>1.764360741962646</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.551609188260556</v>
+        <v>2.686221341552596</v>
       </c>
       <c r="C2">
-        <v>0.2002258939387218</v>
+        <v>0.4235086060415085</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1693266460553522</v>
+        <v>0.05701645961853652</v>
       </c>
       <c r="F2">
-        <v>2.342751699717581</v>
+        <v>1.409857192089035</v>
       </c>
       <c r="G2">
-        <v>1.317092232050996</v>
+        <v>1.046612413256966</v>
       </c>
       <c r="H2">
-        <v>1.220246611047443</v>
+        <v>0.66459252275952</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06949057467695852</v>
+        <v>0.04059654861217332</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3766328660746296</v>
+        <v>0.2133321026668114</v>
       </c>
       <c r="M2">
-        <v>0.3836746348334543</v>
+        <v>0.4743312884065958</v>
       </c>
       <c r="N2">
-        <v>1.794068942494967</v>
+        <v>0.8616622587603953</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.461575394362455</v>
+        <v>2.337627640025744</v>
       </c>
       <c r="C3">
-        <v>0.1852891020234892</v>
+        <v>0.3766418933810769</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1696996610878445</v>
+        <v>0.05704560577116125</v>
       </c>
       <c r="F3">
-        <v>2.338045565844794</v>
+        <v>1.32732608036838</v>
       </c>
       <c r="G3">
-        <v>1.307905292019186</v>
+        <v>0.9684014166924442</v>
       </c>
       <c r="H3">
-        <v>1.221959196064518</v>
+        <v>0.6366696924308712</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06979986181996445</v>
+        <v>0.04164579324588402</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3735828652350861</v>
+        <v>0.1954016301109931</v>
       </c>
       <c r="M3">
-        <v>0.369668767803546</v>
+        <v>0.4163418106386629</v>
       </c>
       <c r="N3">
-        <v>1.815525494702882</v>
+        <v>0.915494477750598</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.406979468205748</v>
+        <v>2.125604153950178</v>
       </c>
       <c r="C4">
-        <v>0.176034563525505</v>
+        <v>0.3479721127495878</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1699477070854929</v>
+        <v>0.05708826228245512</v>
       </c>
       <c r="F4">
-        <v>2.336379663702147</v>
+        <v>1.279189192246903</v>
       </c>
       <c r="G4">
-        <v>1.303165173775909</v>
+        <v>0.9228014174431962</v>
       </c>
       <c r="H4">
-        <v>1.223647629460103</v>
+        <v>0.6208858654551221</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07000202509476239</v>
+        <v>0.04231269323949327</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3718354269731492</v>
+        <v>0.184561653067739</v>
       </c>
       <c r="M4">
-        <v>0.3612399859500286</v>
+        <v>0.381108975162185</v>
       </c>
       <c r="N4">
-        <v>1.829352119404404</v>
+        <v>0.9499418831708626</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.384903980386525</v>
+        <v>2.039644250410674</v>
       </c>
       <c r="C5">
-        <v>0.1722422475864249</v>
+        <v>0.3363065245015378</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1700535805241925</v>
+        <v>0.05711166804298662</v>
       </c>
       <c r="F5">
-        <v>2.336008392945558</v>
+        <v>1.260171035075018</v>
       </c>
       <c r="G5">
-        <v>1.301459438936419</v>
+        <v>0.9047822228362037</v>
       </c>
       <c r="H5">
-        <v>1.224495697345134</v>
+        <v>0.614774924490348</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07008750032596289</v>
+        <v>0.04259011798855639</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3711549555423019</v>
+        <v>0.1801841484842157</v>
       </c>
       <c r="M5">
-        <v>0.3578483045246017</v>
+        <v>0.3668347876937972</v>
       </c>
       <c r="N5">
-        <v>1.835150484476123</v>
+        <v>0.9643197168094773</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.381248813856189</v>
+        <v>2.025395509306463</v>
       </c>
       <c r="C6">
-        <v>0.1716112649808821</v>
+        <v>0.3343702672607094</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1700714505386922</v>
+        <v>0.05711591274389161</v>
       </c>
       <c r="F6">
-        <v>2.335965318851123</v>
+        <v>1.257048077979732</v>
       </c>
       <c r="G6">
-        <v>1.301189829800222</v>
+        <v>0.9018228793429586</v>
       </c>
       <c r="H6">
-        <v>1.224646179119304</v>
+        <v>0.6137790092030855</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07010188045005705</v>
+        <v>0.04263652486700309</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3710438773991029</v>
+        <v>0.1794595990679895</v>
       </c>
       <c r="M6">
-        <v>0.3572877268603776</v>
+        <v>0.3644693232660146</v>
       </c>
       <c r="N6">
-        <v>1.836123195034473</v>
+        <v>0.9667274046617846</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.40668105014953</v>
+        <v>2.124443164470335</v>
       </c>
       <c r="C7">
-        <v>0.1759835042143436</v>
+        <v>0.3478147270726879</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1699491155100676</v>
+        <v>0.05708855380870137</v>
       </c>
       <c r="F7">
-        <v>2.33637341130968</v>
+        <v>1.278930336562979</v>
       </c>
       <c r="G7">
-        <v>1.303141255751527</v>
+        <v>0.9225561824400188</v>
       </c>
       <c r="H7">
-        <v>1.223658419080309</v>
+        <v>0.6208021779756194</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07000316531221529</v>
+        <v>0.04231641182528101</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3718261216895584</v>
+        <v>0.1845024585381836</v>
       </c>
       <c r="M7">
-        <v>0.3611940697787759</v>
+        <v>0.3809161436018798</v>
       </c>
       <c r="N7">
-        <v>1.829429654685593</v>
+        <v>0.9501344232392226</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.52042359153802</v>
+        <v>2.565567450262222</v>
       </c>
       <c r="C8">
-        <v>0.1950929263774981</v>
+        <v>0.407321074477494</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.169451322391641</v>
+        <v>0.05702124132353159</v>
       </c>
       <c r="F8">
-        <v>2.340874976139531</v>
+        <v>1.380848876638851</v>
       </c>
       <c r="G8">
-        <v>1.31373727438951</v>
+        <v>1.019114069265029</v>
       </c>
       <c r="H8">
-        <v>1.220704836759893</v>
+        <v>0.654669126870786</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06959467789649665</v>
+        <v>0.04095359788886199</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.375555296749404</v>
+        <v>0.2071128167586096</v>
       </c>
       <c r="M8">
-        <v>0.378810028992369</v>
+        <v>0.4542526857710385</v>
       </c>
       <c r="N8">
-        <v>1.801331735132801</v>
+        <v>0.8799278110797646</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.748900358376488</v>
+        <v>3.449805698339503</v>
       </c>
       <c r="C9">
-        <v>0.2319105352412976</v>
+        <v>0.5253153433859552</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1686255054868524</v>
+        <v>0.05709604571602478</v>
       </c>
       <c r="F9">
-        <v>2.359420467312688</v>
+        <v>1.602794545085843</v>
       </c>
       <c r="G9">
-        <v>1.341692241379405</v>
+        <v>1.229914988623079</v>
       </c>
       <c r="H9">
-        <v>1.21997390665021</v>
+        <v>0.7329100110040656</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06889050337120572</v>
+        <v>0.03846325571314857</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3838574999493147</v>
+        <v>0.2529299688824125</v>
       </c>
       <c r="M9">
-        <v>0.4147064508793719</v>
+        <v>0.6015317413532415</v>
       </c>
       <c r="N9">
-        <v>1.751410528732236</v>
+        <v>0.7538134584513374</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.92007930045213</v>
+        <v>4.116065927140426</v>
       </c>
       <c r="C10">
-        <v>0.2585697925951536</v>
+        <v>0.6135035695342879</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1681097603765931</v>
+        <v>0.05729349680664209</v>
       </c>
       <c r="F10">
-        <v>2.378987394098957</v>
+        <v>1.782265498596175</v>
       </c>
       <c r="G10">
-        <v>1.366650950188983</v>
+        <v>1.401254989241806</v>
       </c>
       <c r="H10">
-        <v>1.222534673083743</v>
+        <v>0.7991652306058938</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06843165060741541</v>
+        <v>0.03674884206544959</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3905549379012996</v>
+        <v>0.2876975007369822</v>
       </c>
       <c r="M10">
-        <v>0.4419010658977101</v>
+        <v>0.7126253208005267</v>
       </c>
       <c r="N10">
-        <v>1.717894360184625</v>
+        <v>0.6689510492018993</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.998676387863497</v>
+        <v>4.423983867384266</v>
       </c>
       <c r="C11">
-        <v>0.2706150876745426</v>
+        <v>0.6541239147700253</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1678947499932022</v>
+        <v>0.05741857250756688</v>
       </c>
       <c r="F11">
-        <v>2.389183178575976</v>
+        <v>1.868196021072748</v>
       </c>
       <c r="G11">
-        <v>1.378975224721017</v>
+        <v>1.48361293842197</v>
       </c>
       <c r="H11">
-        <v>1.22437514754219</v>
+        <v>0.8315965446583107</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06823549727453226</v>
+        <v>0.03599522837765079</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3937305363765802</v>
+        <v>0.3038041925448454</v>
       </c>
       <c r="M11">
-        <v>0.4544506977105769</v>
+        <v>0.7639823917489963</v>
       </c>
       <c r="N11">
-        <v>1.703334221497235</v>
+        <v>0.6322212723970626</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.028543426254657</v>
+        <v>4.541390353588099</v>
       </c>
       <c r="C12">
-        <v>0.2751646352312207</v>
+        <v>0.6695944601062251</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1678161392287807</v>
+        <v>0.05747142510198522</v>
       </c>
       <c r="F12">
-        <v>2.393230475569482</v>
+        <v>1.901418601224975</v>
       </c>
       <c r="G12">
-        <v>1.383782393011018</v>
+        <v>1.51551187869336</v>
       </c>
       <c r="H12">
-        <v>1.225169437938746</v>
+        <v>0.8442426454329279</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06816301974344086</v>
+        <v>0.03571377732009218</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3949514817624618</v>
+        <v>0.3099496938814355</v>
       </c>
       <c r="M12">
-        <v>0.4592285156882028</v>
+        <v>0.7835652986109451</v>
       </c>
       <c r="N12">
-        <v>1.697919525712236</v>
+        <v>0.6185995077801962</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.022106406439491</v>
+        <v>4.516067116469515</v>
       </c>
       <c r="C13">
-        <v>0.2741853300220214</v>
+        <v>0.6662583891039446</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1678329446921039</v>
+        <v>0.05745979090903575</v>
       </c>
       <c r="F13">
-        <v>2.392350525459449</v>
+        <v>1.894232051261923</v>
       </c>
       <c r="G13">
-        <v>1.382740835439819</v>
+        <v>1.508608907437349</v>
       </c>
       <c r="H13">
-        <v>1.224994040783997</v>
+        <v>0.8415022409114954</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06817854907511212</v>
+        <v>0.03577421556546589</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3946877122204029</v>
+        <v>0.3086240184909599</v>
       </c>
       <c r="M13">
-        <v>0.4581983933136016</v>
+        <v>0.7793414694000234</v>
       </c>
       <c r="N13">
-        <v>1.699081275076918</v>
+        <v>0.621520138036197</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.001131485082681</v>
+        <v>4.433626176512689</v>
       </c>
       <c r="C14">
-        <v>0.2709896166777241</v>
+        <v>0.6553948133362724</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1678882263990884</v>
+        <v>0.05742280809993172</v>
       </c>
       <c r="F14">
-        <v>2.38951241575198</v>
+        <v>1.87091518368409</v>
       </c>
       <c r="G14">
-        <v>1.379367898927853</v>
+        <v>1.486222550418802</v>
       </c>
       <c r="H14">
-        <v>1.224438542262163</v>
+        <v>0.8326294142818824</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06822949844323567</v>
+        <v>0.03597199359673553</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3938306159086551</v>
+        <v>0.3043088329655319</v>
       </c>
       <c r="M14">
-        <v>0.4548432605522024</v>
+        <v>0.7655906774160783</v>
       </c>
       <c r="N14">
-        <v>1.70288676775128</v>
+        <v>0.6310947436917695</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.988297272714306</v>
+        <v>4.383236948236402</v>
       </c>
       <c r="C15">
-        <v>0.2690306225234735</v>
+        <v>0.6487525943817332</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.167922453558135</v>
+        <v>0.05740088335359594</v>
       </c>
       <c r="F15">
-        <v>2.38779826908447</v>
+        <v>1.856723879435279</v>
       </c>
       <c r="G15">
-        <v>1.377320160826827</v>
+        <v>1.472605367994731</v>
       </c>
       <c r="H15">
-        <v>1.224110966152921</v>
+        <v>0.8272432093446298</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06826094078439837</v>
+        <v>0.03609365451553437</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3933080143024057</v>
+        <v>0.3016718182983595</v>
       </c>
       <c r="M15">
-        <v>0.452791467205806</v>
+        <v>0.7571860520345979</v>
       </c>
       <c r="N15">
-        <v>1.705230628980881</v>
+        <v>0.6369973890345477</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.914957380287717</v>
+        <v>4.096049149887165</v>
       </c>
       <c r="C16">
-        <v>0.2577809571438081</v>
+        <v>0.6108604001965716</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1681242054375796</v>
+        <v>0.05728606679685644</v>
       </c>
       <c r="F16">
-        <v>2.37834714508287</v>
+        <v>1.776741523750061</v>
       </c>
       <c r="G16">
-        <v>1.365865115994524</v>
+        <v>1.395967944915583</v>
       </c>
       <c r="H16">
-        <v>1.222428004668103</v>
+        <v>0.7970948390616002</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0684447221927833</v>
+        <v>0.03679863323061916</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3903499885551298</v>
+        <v>0.2866511117355941</v>
       </c>
       <c r="M16">
-        <v>0.441084500535041</v>
+        <v>0.7092869482984909</v>
       </c>
       <c r="N16">
-        <v>1.718859730430873</v>
+        <v>0.6713906011592874</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.870151553838639</v>
+        <v>3.921181290729692</v>
       </c>
       <c r="C17">
-        <v>0.2508586622064968</v>
+        <v>0.5877545842619156</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1682529876490797</v>
+        <v>0.05722494095276476</v>
       </c>
       <c r="F17">
-        <v>2.372880928987257</v>
+        <v>1.728818276196293</v>
       </c>
       <c r="G17">
-        <v>1.35908685489764</v>
+        <v>1.350136480348993</v>
       </c>
       <c r="H17">
-        <v>1.221568730740529</v>
+        <v>0.779210917282029</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06856068293068063</v>
+        <v>0.03723794160730876</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3885682640310222</v>
+        <v>0.277513901002763</v>
       </c>
       <c r="M17">
-        <v>0.4339483109322941</v>
+        <v>0.6801241502754394</v>
       </c>
       <c r="N17">
-        <v>1.727396714112963</v>
+        <v>0.6929817419299678</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.844448879004517</v>
+        <v>3.821049642738899</v>
       </c>
       <c r="C18">
-        <v>0.2468694062994246</v>
+        <v>0.5745110182575104</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1683289056511539</v>
+        <v>0.05719307297960574</v>
       </c>
       <c r="F18">
-        <v>2.36985875634123</v>
+        <v>1.701653435251401</v>
       </c>
       <c r="G18">
-        <v>1.355279478834319</v>
+        <v>1.324185920002861</v>
       </c>
       <c r="H18">
-        <v>1.221138074885772</v>
+        <v>0.7691379196606647</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06862856511474824</v>
+        <v>0.03749308350400327</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3875556030842375</v>
+        <v>0.2722854996258377</v>
       </c>
       <c r="M18">
-        <v>0.4298605889037148</v>
+        <v>0.6634265461159288</v>
       </c>
       <c r="N18">
-        <v>1.732371569483573</v>
+        <v>0.7055756993378415</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.835758167061385</v>
+        <v>3.78722051223474</v>
       </c>
       <c r="C19">
-        <v>0.2455173822918937</v>
+        <v>0.5700344595699676</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1683549275244101</v>
+        <v>0.05718283622070386</v>
       </c>
       <c r="F19">
-        <v>2.368856422503512</v>
+        <v>1.692522564389563</v>
       </c>
       <c r="G19">
-        <v>1.354006026831144</v>
+        <v>1.315467782592236</v>
       </c>
       <c r="H19">
-        <v>1.221003175479979</v>
+        <v>0.765762993155306</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06865175255560452</v>
+        <v>0.03757988924504652</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3872148222077527</v>
+        <v>0.2705197750514259</v>
       </c>
       <c r="M19">
-        <v>0.4284794507627367</v>
+        <v>0.6577855914310504</v>
       </c>
       <c r="N19">
-        <v>1.734067060856198</v>
+        <v>0.7098694006747888</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.874914129763852</v>
+        <v>3.939749174741564</v>
       </c>
       <c r="C20">
-        <v>0.2515963523823643</v>
+        <v>0.5902093355410045</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1682390875956834</v>
+        <v>0.05723110454268454</v>
       </c>
       <c r="F20">
-        <v>2.373450204534805</v>
+        <v>1.733877999103115</v>
       </c>
       <c r="G20">
-        <v>1.359798958148957</v>
+        <v>1.354972300462833</v>
       </c>
       <c r="H20">
-        <v>1.22165362063987</v>
+        <v>0.7810923626724957</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06854821616242823</v>
+        <v>0.03719092056437212</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3887566760933368</v>
+        <v>0.2784837390665729</v>
       </c>
       <c r="M20">
-        <v>0.4347062301936262</v>
+        <v>0.6832205881060105</v>
       </c>
       <c r="N20">
-        <v>1.726481249557532</v>
+        <v>0.6906650636909015</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.007289508629867</v>
+        <v>4.457818313170208</v>
       </c>
       <c r="C21">
-        <v>0.2719285933537776</v>
+        <v>0.6585831694756621</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1678719126661221</v>
+        <v>0.05743351823910459</v>
       </c>
       <c r="F21">
-        <v>2.390340977603486</v>
+        <v>1.87774483245461</v>
       </c>
       <c r="G21">
-        <v>1.380354800771329</v>
+        <v>1.492777997538099</v>
       </c>
       <c r="H21">
-        <v>1.224599062209364</v>
+        <v>0.8352253698629966</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06821448454711465</v>
+        <v>0.0359137935218623</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3940818670470492</v>
+        <v>0.3055750151133196</v>
       </c>
       <c r="M21">
-        <v>0.4558280522597542</v>
+        <v>0.7696258066870172</v>
       </c>
       <c r="N21">
-        <v>1.701766316302303</v>
+        <v>0.628274513289087</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.094410593620864</v>
+        <v>4.801155459844836</v>
       </c>
       <c r="C22">
-        <v>0.2851484651847045</v>
+        <v>0.7037940809368308</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1676483110486</v>
+        <v>0.05759804071857655</v>
       </c>
       <c r="F22">
-        <v>2.402466503999918</v>
+        <v>1.975783768213844</v>
       </c>
       <c r="G22">
-        <v>1.394606938759665</v>
+        <v>1.587032120627413</v>
       </c>
       <c r="H22">
-        <v>1.227091559476406</v>
+        <v>0.872751424831506</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06800686863788563</v>
+        <v>0.0351020922244647</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3976694694207907</v>
+        <v>0.3235526431953986</v>
       </c>
       <c r="M22">
-        <v>0.4697812114105773</v>
+        <v>0.8268932679232108</v>
       </c>
       <c r="N22">
-        <v>1.686190309785629</v>
+        <v>0.589180909791355</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.047857134889398</v>
+        <v>4.61743629843869</v>
       </c>
       <c r="C23">
-        <v>0.2780990092350919</v>
+        <v>0.679610353663179</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1677661570312683</v>
+        <v>0.05750712827783744</v>
       </c>
       <c r="F23">
-        <v>2.395895406988728</v>
+        <v>1.923067864501448</v>
       </c>
       <c r="G23">
-        <v>1.386925256561568</v>
+        <v>1.536316057484811</v>
       </c>
       <c r="H23">
-        <v>1.225709276489681</v>
+        <v>0.852513922097927</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06811671915865603</v>
+        <v>0.03553315364415965</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3957449218182205</v>
+        <v>0.3139311935617002</v>
       </c>
       <c r="M23">
-        <v>0.4623205782111413</v>
+        <v>0.7962495354005696</v>
       </c>
       <c r="N23">
-        <v>1.694450691691826</v>
+        <v>0.6098857644114384</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.872760792247448</v>
+        <v>3.931353389732351</v>
       </c>
       <c r="C24">
-        <v>0.2512628723694093</v>
+        <v>0.5890994182385043</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1682453659559009</v>
+        <v>0.05722830781656718</v>
       </c>
       <c r="F24">
-        <v>2.373192459939176</v>
+        <v>1.731589298262335</v>
       </c>
       <c r="G24">
-        <v>1.359476737413019</v>
+        <v>1.352784790491626</v>
       </c>
       <c r="H24">
-        <v>1.221615044580176</v>
+        <v>0.7802411137796526</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06855384860288716</v>
+        <v>0.03721217075983496</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3886714586224116</v>
+        <v>0.2780451986646852</v>
       </c>
       <c r="M24">
-        <v>0.4343635282590981</v>
+        <v>0.6818204765506835</v>
       </c>
       <c r="N24">
-        <v>1.726894922911135</v>
+        <v>0.691711871686989</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.686509441947749</v>
+        <v>3.208059640390616</v>
       </c>
       <c r="C25">
-        <v>0.2220196664868297</v>
+        <v>0.4931866713288002</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.168832884995203</v>
+        <v>0.05705209978570602</v>
       </c>
       <c r="F25">
-        <v>2.353361281265265</v>
+        <v>1.540098758655887</v>
       </c>
       <c r="G25">
-        <v>1.333356743509938</v>
+        <v>1.170259246202107</v>
       </c>
       <c r="H25">
-        <v>1.219628549228617</v>
+        <v>0.7103245586002345</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06907068841438857</v>
+        <v>0.03911708953002169</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3815061726852065</v>
+        <v>0.2403568201201409</v>
       </c>
       <c r="M25">
-        <v>0.4048510807701149</v>
+        <v>0.561241741006711</v>
       </c>
       <c r="N25">
-        <v>1.764360741962646</v>
+        <v>0.7866200458396309</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.686221341552596</v>
+        <v>1.837325183212045</v>
       </c>
       <c r="C2">
-        <v>0.4235086060415085</v>
+        <v>0.3751590267899019</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05701645961853652</v>
+        <v>0.1218659632014116</v>
       </c>
       <c r="F2">
-        <v>1.409857192089035</v>
+        <v>0.8956155875573018</v>
       </c>
       <c r="G2">
-        <v>1.046612413256966</v>
+        <v>0.296377564639748</v>
       </c>
       <c r="H2">
-        <v>0.66459252275952</v>
+        <v>0.001593238039611755</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004566549504669837</v>
       </c>
       <c r="J2">
-        <v>0.04059654861217332</v>
+        <v>0.2612885978801529</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2859475159268818</v>
       </c>
       <c r="L2">
-        <v>0.2133321026668114</v>
+        <v>0.07939055289759267</v>
       </c>
       <c r="M2">
-        <v>0.4743312884065958</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8616622587603953</v>
+        <v>0.3448700694567748</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4097803545920087</v>
+      </c>
+      <c r="P2">
+        <v>0.9087987247778386</v>
+      </c>
+      <c r="Q2">
+        <v>1.124372097254749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.337627640025744</v>
+        <v>1.601179237769372</v>
       </c>
       <c r="C3">
-        <v>0.3766418933810769</v>
+        <v>0.3530354636374113</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05704560577116125</v>
+        <v>0.1187366888655141</v>
       </c>
       <c r="F3">
-        <v>1.32732608036838</v>
+        <v>0.8503717322363755</v>
       </c>
       <c r="G3">
-        <v>0.9684014166924442</v>
+        <v>0.2801056193754476</v>
       </c>
       <c r="H3">
-        <v>0.6366696924308712</v>
+        <v>0.002680520298950273</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006232406032120608</v>
       </c>
       <c r="J3">
-        <v>0.04164579324588402</v>
+        <v>0.257414180751482</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2870198870955853</v>
       </c>
       <c r="L3">
-        <v>0.1954016301109931</v>
+        <v>0.07107172694199448</v>
       </c>
       <c r="M3">
-        <v>0.4163418106386629</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.915494477750598</v>
+        <v>0.3129220017048198</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3591535784661843</v>
+      </c>
+      <c r="P3">
+        <v>0.9119854918276289</v>
+      </c>
+      <c r="Q3">
+        <v>1.081505349263097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.125604153950178</v>
+        <v>1.455531832464203</v>
       </c>
       <c r="C4">
-        <v>0.3479721127495878</v>
+        <v>0.3394695376961039</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05708826228245512</v>
+        <v>0.116809971901084</v>
       </c>
       <c r="F4">
-        <v>1.279189192246903</v>
+        <v>0.8231680924328941</v>
       </c>
       <c r="G4">
-        <v>0.9228014174431962</v>
+        <v>0.2703986135293164</v>
       </c>
       <c r="H4">
-        <v>0.6208858654551221</v>
+        <v>0.003520379569245891</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008753933470764252</v>
       </c>
       <c r="J4">
-        <v>0.04231269323949327</v>
+        <v>0.255247278885868</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2879027420044729</v>
       </c>
       <c r="L4">
-        <v>0.184561653067739</v>
+        <v>0.06596323883800892</v>
       </c>
       <c r="M4">
-        <v>0.381108975162185</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9499418831708626</v>
+        <v>0.2934034626263156</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.32801799832081</v>
+      </c>
+      <c r="P4">
+        <v>0.9146079873528024</v>
+      </c>
+      <c r="Q4">
+        <v>1.05622371562761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.039644250410674</v>
+        <v>1.395195150741472</v>
       </c>
       <c r="C5">
-        <v>0.3363065245015378</v>
+        <v>0.3342308950588802</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05711166804298662</v>
+        <v>0.1160019653936519</v>
       </c>
       <c r="F5">
-        <v>1.260171035075018</v>
+        <v>0.8118086661666837</v>
       </c>
       <c r="G5">
-        <v>0.9047822228362037</v>
+        <v>0.2662237578213791</v>
       </c>
       <c r="H5">
-        <v>0.614774924490348</v>
+        <v>0.003906194626161819</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001083309465783611</v>
       </c>
       <c r="J5">
-        <v>0.04259011798855639</v>
+        <v>0.2542680083485322</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2880846425525512</v>
       </c>
       <c r="L5">
-        <v>0.1801841484842157</v>
+        <v>0.06394231196459543</v>
       </c>
       <c r="M5">
-        <v>0.3668347876937972</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9643197168094773</v>
+        <v>0.2856566031808825</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3152794437020958</v>
+      </c>
+      <c r="P5">
+        <v>0.9161291598800361</v>
+      </c>
+      <c r="Q5">
+        <v>1.045253004647236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.025395509306463</v>
+        <v>1.384163607227691</v>
       </c>
       <c r="C6">
-        <v>0.3343702672607094</v>
+        <v>0.333713695587079</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05711591274389161</v>
+        <v>0.1158416962221338</v>
       </c>
       <c r="F6">
-        <v>1.257048077979732</v>
+        <v>0.8094258956778049</v>
       </c>
       <c r="G6">
-        <v>0.9018228793429586</v>
+        <v>0.2651839801722957</v>
       </c>
       <c r="H6">
-        <v>0.6137790092030855</v>
+        <v>0.003975159083712487</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00121184047799261</v>
       </c>
       <c r="J6">
-        <v>0.04263652486700309</v>
+        <v>0.2539276405384214</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2878339711401203</v>
       </c>
       <c r="L6">
-        <v>0.1794595990679895</v>
+        <v>0.06368227538942151</v>
       </c>
       <c r="M6">
-        <v>0.3644693232660146</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9667274046617846</v>
+        <v>0.2845976107490031</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3131182473642866</v>
+      </c>
+      <c r="P6">
+        <v>0.9167472837672932</v>
+      </c>
+      <c r="Q6">
+        <v>1.042324057905361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.124443164470335</v>
+        <v>1.451971094457917</v>
       </c>
       <c r="C7">
-        <v>0.3478147270726879</v>
+        <v>0.3403662427303544</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05708855380870137</v>
+        <v>0.1167284488571418</v>
       </c>
       <c r="F7">
-        <v>1.278930336562979</v>
+        <v>0.8216360448603766</v>
       </c>
       <c r="G7">
-        <v>0.9225561824400188</v>
+        <v>0.2693841204840766</v>
       </c>
       <c r="H7">
-        <v>0.6208021779756194</v>
+        <v>0.003531518011661461</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00111378210285018</v>
       </c>
       <c r="J7">
-        <v>0.04231641182528101</v>
+        <v>0.2547403497978422</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2871298357476668</v>
       </c>
       <c r="L7">
-        <v>0.1845024585381836</v>
+        <v>0.06614315840071328</v>
       </c>
       <c r="M7">
-        <v>0.3809161436018798</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9501344232392226</v>
+        <v>0.2939173086484033</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3277225010449882</v>
+      </c>
+      <c r="P7">
+        <v>0.9156125798078136</v>
+      </c>
+      <c r="Q7">
+        <v>1.053009925326648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.565567450262222</v>
+        <v>1.752364157137549</v>
       </c>
       <c r="C8">
-        <v>0.407321074477494</v>
+        <v>0.3688272492554745</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05702124132353159</v>
+        <v>0.1206960229484295</v>
       </c>
       <c r="F8">
-        <v>1.380848876638851</v>
+        <v>0.8780701035758511</v>
       </c>
       <c r="G8">
-        <v>1.019114069265029</v>
+        <v>0.2894367434900715</v>
       </c>
       <c r="H8">
-        <v>0.654669126870786</v>
+        <v>0.001936932522186074</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007650826995995175</v>
       </c>
       <c r="J8">
-        <v>0.04095359788886199</v>
+        <v>0.2592566515480215</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.285249618798403</v>
       </c>
       <c r="L8">
-        <v>0.2071128167586096</v>
+        <v>0.07679928494343358</v>
       </c>
       <c r="M8">
-        <v>0.4542526857710385</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8799278110797646</v>
+        <v>0.334656424816572</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3921679326935816</v>
+      </c>
+      <c r="P8">
+        <v>0.9111167509826359</v>
+      </c>
+      <c r="Q8">
+        <v>1.105314875042822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.449805698339503</v>
+        <v>2.341316577685404</v>
       </c>
       <c r="C9">
-        <v>0.5253153433859552</v>
+        <v>0.4231207300469606</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05709604571602478</v>
+        <v>0.1285698547235814</v>
       </c>
       <c r="F9">
-        <v>1.602794545085843</v>
+        <v>0.9960626483563431</v>
       </c>
       <c r="G9">
-        <v>1.229914988623079</v>
+        <v>0.3329190061644454</v>
       </c>
       <c r="H9">
-        <v>0.7329100110040656</v>
+        <v>0.0002517047813679341</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.000992045873467795</v>
       </c>
       <c r="J9">
-        <v>0.03846325571314857</v>
+        <v>0.2707548504169921</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2848010596796193</v>
       </c>
       <c r="L9">
-        <v>0.2529299688824125</v>
+        <v>0.09734588578397307</v>
       </c>
       <c r="M9">
-        <v>0.6015317413532415</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7538134584513374</v>
+        <v>0.4143001507654844</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5184250837603841</v>
+      </c>
+      <c r="P9">
+        <v>0.9059338933441694</v>
+      </c>
+      <c r="Q9">
+        <v>1.222176673975667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.116065927140426</v>
+        <v>2.762030165891872</v>
       </c>
       <c r="C10">
-        <v>0.6135035695342879</v>
+        <v>0.466588326170509</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05729349680664209</v>
+        <v>0.1317506469434218</v>
       </c>
       <c r="F10">
-        <v>1.782265498596175</v>
+        <v>1.071670125130481</v>
       </c>
       <c r="G10">
-        <v>1.401254989241806</v>
+        <v>0.3620652445824248</v>
       </c>
       <c r="H10">
-        <v>0.7991652306058938</v>
+        <v>0.0001933789302150934</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002139306541034003</v>
       </c>
       <c r="J10">
-        <v>0.03674884206544959</v>
+        <v>0.2781016396791074</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2825466745630862</v>
       </c>
       <c r="L10">
-        <v>0.2876975007369822</v>
+        <v>0.1149038830712144</v>
       </c>
       <c r="M10">
-        <v>0.7126253208005267</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6689510492018993</v>
+        <v>0.4611451791616048</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6038975815537739</v>
+      </c>
+      <c r="P10">
+        <v>0.911421062364127</v>
+      </c>
+      <c r="Q10">
+        <v>1.299756435142143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.423983867384266</v>
+        <v>2.88078094905228</v>
       </c>
       <c r="C11">
-        <v>0.6541239147700253</v>
+        <v>0.513741774108297</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05741857250756688</v>
+        <v>0.1137778273005043</v>
       </c>
       <c r="F11">
-        <v>1.868196021072748</v>
+        <v>0.987093546813341</v>
       </c>
       <c r="G11">
-        <v>1.48361293842197</v>
+        <v>0.3391182268353816</v>
       </c>
       <c r="H11">
-        <v>0.8315965446583107</v>
+        <v>0.01875802536549642</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00301520401449018</v>
       </c>
       <c r="J11">
-        <v>0.03599522837765079</v>
+        <v>0.2632840169283668</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2571487022449546</v>
       </c>
       <c r="L11">
-        <v>0.3038041925448454</v>
+        <v>0.1453237677918011</v>
       </c>
       <c r="M11">
-        <v>0.7639823917489963</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6322212723970626</v>
+        <v>0.3795934696092473</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.581237066684821</v>
+      </c>
+      <c r="P11">
+        <v>0.964821033615479</v>
+      </c>
+      <c r="Q11">
+        <v>1.220242347127567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.541390353588099</v>
+        <v>2.895345304337127</v>
       </c>
       <c r="C12">
-        <v>0.6695944601062251</v>
+        <v>0.5445918942268122</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05747142510198522</v>
+        <v>0.1020006258113302</v>
       </c>
       <c r="F12">
-        <v>1.901418601224975</v>
+        <v>0.9040385552023622</v>
       </c>
       <c r="G12">
-        <v>1.51551187869336</v>
+        <v>0.3153080005304361</v>
       </c>
       <c r="H12">
-        <v>0.8442426454329279</v>
+        <v>0.05742001067717695</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003080367685182495</v>
       </c>
       <c r="J12">
-        <v>0.03571377732009218</v>
+        <v>0.249977431680378</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2381557169918054</v>
       </c>
       <c r="L12">
-        <v>0.3099496938814355</v>
+        <v>0.1697625729812842</v>
       </c>
       <c r="M12">
-        <v>0.7835652986109451</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6185995077801962</v>
+        <v>0.3077857570398379</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5446375488694812</v>
+      </c>
+      <c r="P12">
+        <v>1.011508239563412</v>
+      </c>
+      <c r="Q12">
+        <v>1.141957245433701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.516067116469515</v>
+        <v>2.826092436852718</v>
       </c>
       <c r="C13">
-        <v>0.6662583891039446</v>
+        <v>0.5658855672227219</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05745979090903575</v>
+        <v>0.09414648607203624</v>
       </c>
       <c r="F13">
-        <v>1.894232051261923</v>
+        <v>0.8153213514313791</v>
       </c>
       <c r="G13">
-        <v>1.508608907437349</v>
+        <v>0.28789661972678</v>
       </c>
       <c r="H13">
-        <v>0.8415022409114954</v>
+        <v>0.1131519720072163</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002849166310939566</v>
       </c>
       <c r="J13">
-        <v>0.03577421556546589</v>
+        <v>0.2362412965917358</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2217168930625633</v>
       </c>
       <c r="L13">
-        <v>0.3086240184909599</v>
+        <v>0.1910754107968415</v>
       </c>
       <c r="M13">
-        <v>0.7793414694000234</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.621520138036197</v>
+        <v>0.2406035678638503</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4952602306469913</v>
+      </c>
+      <c r="P13">
+        <v>1.056345596811795</v>
+      </c>
+      <c r="Q13">
+        <v>1.05505993683353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.433626176512689</v>
+        <v>2.739020565922374</v>
       </c>
       <c r="C14">
-        <v>0.6553948133362724</v>
+        <v>0.5768673002124842</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05742280809993172</v>
+        <v>0.09094510091399022</v>
       </c>
       <c r="F14">
-        <v>1.87091518368409</v>
+        <v>0.7511859074032188</v>
       </c>
       <c r="G14">
-        <v>1.486222550418802</v>
+        <v>0.2670435696183873</v>
       </c>
       <c r="H14">
-        <v>0.8326294142818824</v>
+        <v>0.1624927927905304</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002644511545926598</v>
       </c>
       <c r="J14">
-        <v>0.03597199359673553</v>
+        <v>0.2263901007892102</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2113832677031979</v>
       </c>
       <c r="L14">
-        <v>0.3043088329655319</v>
+        <v>0.204854979152671</v>
       </c>
       <c r="M14">
-        <v>0.7655906774160783</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6310947436917695</v>
+        <v>0.1972536568624221</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4552738028074259</v>
+      </c>
+      <c r="P14">
+        <v>1.087426217679507</v>
+      </c>
+      <c r="Q14">
+        <v>0.9901717886252612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.383236948236402</v>
+        <v>2.699104048513618</v>
       </c>
       <c r="C15">
-        <v>0.6487525943817332</v>
+        <v>0.577720588183837</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05740088335359594</v>
+        <v>0.09047648304365474</v>
       </c>
       <c r="F15">
-        <v>1.856723879435279</v>
+        <v>0.7337768054006659</v>
       </c>
       <c r="G15">
-        <v>1.472605367994731</v>
+        <v>0.2608860911811135</v>
       </c>
       <c r="H15">
-        <v>0.8272432093446298</v>
+        <v>0.1750025982738492</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002645715866999687</v>
       </c>
       <c r="J15">
-        <v>0.03609365451553437</v>
+        <v>0.2237510799471849</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2091100775415882</v>
       </c>
       <c r="L15">
-        <v>0.3016718182983595</v>
+        <v>0.2072542411536276</v>
       </c>
       <c r="M15">
-        <v>0.7571860520345979</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6369973890345477</v>
+        <v>0.1868880923217873</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4428112468036218</v>
+      </c>
+      <c r="P15">
+        <v>1.094464450395307</v>
+      </c>
+      <c r="Q15">
+        <v>0.9715616691847373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.096049149887165</v>
+        <v>2.531904070789949</v>
       </c>
       <c r="C16">
-        <v>0.6108604001965716</v>
+        <v>0.5543712275438111</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05728606679685644</v>
+        <v>0.09073437641889137</v>
       </c>
       <c r="F16">
-        <v>1.776741523750061</v>
+        <v>0.7197095603489103</v>
       </c>
       <c r="G16">
-        <v>1.395967944915583</v>
+        <v>0.2534733130396845</v>
       </c>
       <c r="H16">
-        <v>0.7970948390616002</v>
+        <v>0.1622909768913985</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002282051815000408</v>
       </c>
       <c r="J16">
-        <v>0.03679863323061916</v>
+        <v>0.2230429767205209</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2128961876498998</v>
       </c>
       <c r="L16">
-        <v>0.2866511117355941</v>
+        <v>0.19476535124425</v>
       </c>
       <c r="M16">
-        <v>0.7092869482984909</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6713906011592874</v>
+        <v>0.1823787189108401</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4173420189536543</v>
+      </c>
+      <c r="P16">
+        <v>1.080495812529151</v>
+      </c>
+      <c r="Q16">
+        <v>0.9541943423188854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.921181290729692</v>
+        <v>2.44984546265249</v>
       </c>
       <c r="C17">
-        <v>0.5877545842619156</v>
+        <v>0.530715734441344</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05722494095276476</v>
+        <v>0.09227606724627013</v>
       </c>
       <c r="F17">
-        <v>1.728818276196293</v>
+        <v>0.7425658914251656</v>
       </c>
       <c r="G17">
-        <v>1.350136480348993</v>
+        <v>0.2588086640419931</v>
       </c>
       <c r="H17">
-        <v>0.779210917282029</v>
+        <v>0.1245490256088999</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002146730604660085</v>
       </c>
       <c r="J17">
-        <v>0.03723794160730876</v>
+        <v>0.2277356652726539</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.221217199369331</v>
       </c>
       <c r="L17">
-        <v>0.277513901002763</v>
+        <v>0.1777835358067392</v>
       </c>
       <c r="M17">
-        <v>0.6801241502754394</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6929817419299678</v>
+        <v>0.2009933494338085</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4187825291930594</v>
+      </c>
+      <c r="P17">
+        <v>1.053595708970647</v>
+      </c>
+      <c r="Q17">
+        <v>0.9752288879625723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.821049642738899</v>
+        <v>2.433509573506058</v>
       </c>
       <c r="C18">
-        <v>0.5745110182575104</v>
+        <v>0.5037953942226352</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05719307297960574</v>
+        <v>0.0970809120409486</v>
       </c>
       <c r="F18">
-        <v>1.701653435251401</v>
+        <v>0.8021643019002269</v>
       </c>
       <c r="G18">
-        <v>1.324185920002861</v>
+        <v>0.2765975806685574</v>
       </c>
       <c r="H18">
-        <v>0.7691379196606647</v>
+        <v>0.07173371121027117</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001881337314262765</v>
       </c>
       <c r="J18">
-        <v>0.03749308350400327</v>
+        <v>0.2380003408203564</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2353142259791312</v>
       </c>
       <c r="L18">
-        <v>0.2722854996258377</v>
+        <v>0.1559620729358571</v>
       </c>
       <c r="M18">
-        <v>0.6634265461159288</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7055756993378415</v>
+        <v>0.2454663520334179</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4440557229007709</v>
+      </c>
+      <c r="P18">
+        <v>1.013100178939951</v>
+      </c>
+      <c r="Q18">
+        <v>1.034381832974248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.78722051223474</v>
+        <v>2.465579868411794</v>
       </c>
       <c r="C19">
-        <v>0.5700344595699676</v>
+        <v>0.4794976727995675</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05718283622070386</v>
+        <v>0.1070285400897202</v>
       </c>
       <c r="F19">
-        <v>1.692522564389563</v>
+        <v>0.8875901008076994</v>
       </c>
       <c r="G19">
-        <v>1.315467782592236</v>
+        <v>0.3020618243242197</v>
       </c>
       <c r="H19">
-        <v>0.765762993155306</v>
+        <v>0.02643617957556899</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002046221406938109</v>
       </c>
       <c r="J19">
-        <v>0.03757988924504652</v>
+        <v>0.2513723151057192</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2527013237375613</v>
       </c>
       <c r="L19">
-        <v>0.2705197750514259</v>
+        <v>0.1340872962121367</v>
       </c>
       <c r="M19">
-        <v>0.6577855914310504</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7098694006747888</v>
+        <v>0.3149244778249454</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4873847912757938</v>
+      </c>
+      <c r="P19">
+        <v>0.9698809285744403</v>
+      </c>
+      <c r="Q19">
+        <v>1.11635806718725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.939749174741564</v>
+        <v>2.64263164878588</v>
       </c>
       <c r="C20">
-        <v>0.5902093355410045</v>
+        <v>0.4584611605998674</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05723110454268454</v>
+        <v>0.1305977281473787</v>
       </c>
       <c r="F20">
-        <v>1.733877999103115</v>
+        <v>1.046742529819937</v>
       </c>
       <c r="G20">
-        <v>1.354972300462833</v>
+        <v>0.3511332592182441</v>
       </c>
       <c r="H20">
-        <v>0.7810923626724957</v>
+        <v>0.0001243653907021525</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002511778957549282</v>
       </c>
       <c r="J20">
-        <v>0.03719092056437212</v>
+        <v>0.2744843046057497</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2805797460346078</v>
       </c>
       <c r="L20">
-        <v>0.2784837390665729</v>
+        <v>0.1110551252271037</v>
       </c>
       <c r="M20">
-        <v>0.6832205881060105</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6906650636909015</v>
+        <v>0.4502251588104826</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5807731540410828</v>
+      </c>
+      <c r="P20">
+        <v>0.9134286751682126</v>
+      </c>
+      <c r="Q20">
+        <v>1.268901002983142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.457818313170208</v>
+        <v>2.978214475961977</v>
       </c>
       <c r="C21">
-        <v>0.6585831694756621</v>
+        <v>0.4870215138340512</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05743351823910459</v>
+        <v>0.137066425509115</v>
       </c>
       <c r="F21">
-        <v>1.87774483245461</v>
+        <v>1.128182844827805</v>
       </c>
       <c r="G21">
-        <v>1.492777997538099</v>
+        <v>0.3811012532534761</v>
       </c>
       <c r="H21">
-        <v>0.8352253698629966</v>
+        <v>0.0001666586324460262</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003581594009705924</v>
       </c>
       <c r="J21">
-        <v>0.0359137935218623</v>
+        <v>0.2840346286255198</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2841232422334308</v>
       </c>
       <c r="L21">
-        <v>0.3055750151133196</v>
+        <v>0.120871465072355</v>
       </c>
       <c r="M21">
-        <v>0.7696258066870172</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.628274513289087</v>
+        <v>0.5055835599624032</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6573952480557068</v>
+      </c>
+      <c r="P21">
+        <v>0.9103709713861861</v>
+      </c>
+      <c r="Q21">
+        <v>1.352735841774461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.801155459844836</v>
+        <v>3.196875123954953</v>
       </c>
       <c r="C22">
-        <v>0.7037940809368308</v>
+        <v>0.5058705537634296</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05759804071857655</v>
+        <v>0.1400763707675452</v>
       </c>
       <c r="F22">
-        <v>1.975783768213844</v>
+        <v>1.176934662341395</v>
       </c>
       <c r="G22">
-        <v>1.587032120627413</v>
+        <v>0.4002633597822864</v>
       </c>
       <c r="H22">
-        <v>0.872751424831506</v>
+        <v>0.0004944739541672405</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004172582794028656</v>
       </c>
       <c r="J22">
-        <v>0.0351020922244647</v>
+        <v>0.2901192497370744</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2862620188321543</v>
       </c>
       <c r="L22">
-        <v>0.3235526431953986</v>
+        <v>0.1282015137142665</v>
       </c>
       <c r="M22">
-        <v>0.8268932679232108</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.589180909791355</v>
+        <v>0.5346572688237927</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7040423901495814</v>
+      </c>
+      <c r="P22">
+        <v>0.9102267302618259</v>
+      </c>
+      <c r="Q22">
+        <v>1.406292389026078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.61743629843869</v>
+        <v>3.083570146263185</v>
       </c>
       <c r="C23">
-        <v>0.679610353663179</v>
+        <v>0.4945828216285832</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05750712827783744</v>
+        <v>0.138547674421897</v>
       </c>
       <c r="F23">
-        <v>1.923067864501448</v>
+        <v>1.152460924693983</v>
       </c>
       <c r="G23">
-        <v>1.536316057484811</v>
+        <v>0.3911263496909783</v>
       </c>
       <c r="H23">
-        <v>0.852513922097927</v>
+        <v>0.000300140001636251</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00355699864027148</v>
       </c>
       <c r="J23">
-        <v>0.03553315364415965</v>
+        <v>0.2874213647865105</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2859852604227378</v>
       </c>
       <c r="L23">
-        <v>0.3139311935617002</v>
+        <v>0.1240316641940993</v>
       </c>
       <c r="M23">
-        <v>0.7962495354005696</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6098857644114384</v>
+        <v>0.5183756828576094</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6792992447486483</v>
+      </c>
+      <c r="P23">
+        <v>0.9088778691002091</v>
+      </c>
+      <c r="Q23">
+        <v>1.381170896324022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.931353389732351</v>
+        <v>2.648314881619569</v>
       </c>
       <c r="C24">
-        <v>0.5890994182385043</v>
+        <v>0.4539407682451895</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05722830781656718</v>
+        <v>0.1326496646878805</v>
       </c>
       <c r="F24">
-        <v>1.731589298262335</v>
+        <v>1.058803867123743</v>
       </c>
       <c r="G24">
-        <v>1.352784790491626</v>
+        <v>0.355613116056702</v>
       </c>
       <c r="H24">
-        <v>0.7802411137796526</v>
+        <v>3.169963055826841E-06</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002051533553359519</v>
       </c>
       <c r="J24">
-        <v>0.03721217075983496</v>
+        <v>0.2768356812311765</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2841036024034942</v>
       </c>
       <c r="L24">
-        <v>0.2780451986646852</v>
+        <v>0.1086871167160908</v>
       </c>
       <c r="M24">
-        <v>0.6818204765506835</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.691711871686989</v>
+        <v>0.4582089916312526</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5853684654777283</v>
+      </c>
+      <c r="P24">
+        <v>0.9074312265259081</v>
+      </c>
+      <c r="Q24">
+        <v>1.283319138221827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.208059640390616</v>
+        <v>2.177443025112666</v>
       </c>
       <c r="C25">
-        <v>0.4931866713288002</v>
+        <v>0.4102084973197009</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05705209978570602</v>
+        <v>0.1263180361131795</v>
       </c>
       <c r="F25">
-        <v>1.540098758655887</v>
+        <v>0.9610931027913665</v>
       </c>
       <c r="G25">
-        <v>1.170259246202107</v>
+        <v>0.3191332870283716</v>
       </c>
       <c r="H25">
-        <v>0.7103245586002345</v>
+        <v>0.0005443943155305497</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001188116775839632</v>
       </c>
       <c r="J25">
-        <v>0.03911708953002169</v>
+        <v>0.2665585177213856</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2833304788778257</v>
       </c>
       <c r="L25">
-        <v>0.2403568201201409</v>
+        <v>0.0921645644204574</v>
       </c>
       <c r="M25">
-        <v>0.561241741006711</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7866200458396309</v>
+        <v>0.3937823148177699</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4840659326365611</v>
+      </c>
+      <c r="P25">
+        <v>0.9086719609100768</v>
+      </c>
+      <c r="Q25">
+        <v>1.184006518860087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.837325183212045</v>
+        <v>1.796534549537228</v>
       </c>
       <c r="C2">
-        <v>0.3751590267899019</v>
+        <v>0.3720788957493113</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1218659632014116</v>
+        <v>0.1194424679800736</v>
       </c>
       <c r="F2">
-        <v>0.8956155875573018</v>
+        <v>0.8694256690320543</v>
       </c>
       <c r="G2">
-        <v>0.296377564639748</v>
+        <v>0.2615508807615328</v>
       </c>
       <c r="H2">
-        <v>0.001593238039611755</v>
+        <v>0.001410990749650121</v>
       </c>
       <c r="I2">
-        <v>0.0004566549504669837</v>
+        <v>0.0005376115662167891</v>
       </c>
       <c r="J2">
-        <v>0.2612885978801529</v>
+        <v>0.2907950962773853</v>
       </c>
       <c r="K2">
-        <v>0.2859475159268818</v>
+        <v>0.266784654089733</v>
       </c>
       <c r="L2">
-        <v>0.07939055289759267</v>
+        <v>0.1439934185933041</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06528879966119661</v>
       </c>
       <c r="N2">
-        <v>0.3448700694567748</v>
+        <v>0.08198135811483809</v>
       </c>
       <c r="O2">
-        <v>0.4097803545920087</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9087987247778386</v>
+        <v>0.3594794338555403</v>
       </c>
       <c r="Q2">
-        <v>1.124372097254749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4079867630190037</v>
+      </c>
+      <c r="R2">
+        <v>0.9151198008230921</v>
+      </c>
+      <c r="S2">
+        <v>1.069098066686706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.601179237769372</v>
+        <v>1.570172197597657</v>
       </c>
       <c r="C3">
-        <v>0.3530354636374113</v>
+        <v>0.3456963548273251</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1187366888655141</v>
+        <v>0.1166878808532648</v>
       </c>
       <c r="F3">
-        <v>0.8503717322363755</v>
+        <v>0.8279115171186717</v>
       </c>
       <c r="G3">
-        <v>0.2801056193754476</v>
+        <v>0.2479033155562433</v>
       </c>
       <c r="H3">
-        <v>0.002680520298950273</v>
+        <v>0.002382251866606899</v>
       </c>
       <c r="I3">
-        <v>0.0006232406032120608</v>
+        <v>0.000579592656942296</v>
       </c>
       <c r="J3">
-        <v>0.257414180751482</v>
+        <v>0.2862851030093054</v>
       </c>
       <c r="K3">
-        <v>0.2870198870955853</v>
+        <v>0.269121142254285</v>
       </c>
       <c r="L3">
-        <v>0.07107172694199448</v>
+        <v>0.1485572234699184</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06384515740491103</v>
       </c>
       <c r="N3">
-        <v>0.3129220017048198</v>
+        <v>0.07279837557280189</v>
       </c>
       <c r="O3">
-        <v>0.3591535784661843</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9119854918276289</v>
+        <v>0.325901490673715</v>
       </c>
       <c r="Q3">
-        <v>1.081505349263097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3577659586255777</v>
+      </c>
+      <c r="R3">
+        <v>0.9124102509720231</v>
+      </c>
+      <c r="S3">
+        <v>1.033437714722041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.455531832464203</v>
+        <v>1.430316765458173</v>
       </c>
       <c r="C4">
-        <v>0.3394695376961039</v>
+        <v>0.3295967410419536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.116809971901084</v>
+        <v>0.1149931462330169</v>
       </c>
       <c r="F4">
-        <v>0.8231680924328941</v>
+        <v>0.8028929331865982</v>
       </c>
       <c r="G4">
-        <v>0.2703986135293164</v>
+        <v>0.2397908740401178</v>
       </c>
       <c r="H4">
-        <v>0.003520379569245891</v>
+        <v>0.003133633238427025</v>
       </c>
       <c r="I4">
-        <v>0.0008753933470764252</v>
+        <v>0.0007351117872596014</v>
       </c>
       <c r="J4">
-        <v>0.255247278885868</v>
+        <v>0.2835832438551478</v>
       </c>
       <c r="K4">
-        <v>0.2879027420044729</v>
+        <v>0.2707135870444226</v>
       </c>
       <c r="L4">
-        <v>0.06596323883800892</v>
+        <v>0.1514768618202069</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06346449507417162</v>
       </c>
       <c r="N4">
-        <v>0.2934034626263156</v>
+        <v>0.06717672388157681</v>
       </c>
       <c r="O4">
-        <v>0.32801799832081</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9146079873528024</v>
+        <v>0.3054342684172155</v>
       </c>
       <c r="Q4">
-        <v>1.05622371562761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.326861701042013</v>
+      </c>
+      <c r="R4">
+        <v>0.9114867597702272</v>
+      </c>
+      <c r="S4">
+        <v>1.012288464579015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.395195150741472</v>
+        <v>1.372286255142484</v>
       </c>
       <c r="C5">
-        <v>0.3342308950588802</v>
+        <v>0.3233668667962206</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1160019653936519</v>
+        <v>0.114280443106491</v>
       </c>
       <c r="F5">
-        <v>0.8118086661666837</v>
+        <v>0.7923989847400108</v>
       </c>
       <c r="G5">
-        <v>0.2662237578213791</v>
+        <v>0.2362687953149276</v>
       </c>
       <c r="H5">
-        <v>0.003906194626161819</v>
+        <v>0.003479109320651097</v>
       </c>
       <c r="I5">
-        <v>0.001083309465783611</v>
+        <v>0.0009114081394914209</v>
       </c>
       <c r="J5">
-        <v>0.2542680083485322</v>
+        <v>0.2823455061826579</v>
       </c>
       <c r="K5">
-        <v>0.2880846425525512</v>
+        <v>0.2711767075002562</v>
       </c>
       <c r="L5">
-        <v>0.06394231196459543</v>
+        <v>0.1525759678463849</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0633860042269605</v>
       </c>
       <c r="N5">
-        <v>0.2856566031808825</v>
+        <v>0.06495348250649613</v>
       </c>
       <c r="O5">
-        <v>0.3152794437020958</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9161291598800361</v>
+        <v>0.2973188686540453</v>
       </c>
       <c r="Q5">
-        <v>1.045253004647236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3142128302915381</v>
+      </c>
+      <c r="R5">
+        <v>0.9116019529209751</v>
+      </c>
+      <c r="S5">
+        <v>1.002941576468785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.384163607227691</v>
+        <v>1.361632882756737</v>
       </c>
       <c r="C6">
-        <v>0.333713695587079</v>
+        <v>0.3227121604384706</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1158416962221338</v>
+        <v>0.1141363388569676</v>
       </c>
       <c r="F6">
-        <v>0.8094258956778049</v>
+        <v>0.7901594372811687</v>
       </c>
       <c r="G6">
-        <v>0.2651839801722957</v>
+        <v>0.2353464799442122</v>
       </c>
       <c r="H6">
-        <v>0.003975159083712487</v>
+        <v>0.003540956142773</v>
       </c>
       <c r="I6">
-        <v>0.00121184047799261</v>
+        <v>0.001051278724003346</v>
       </c>
       <c r="J6">
-        <v>0.2539276405384214</v>
+        <v>0.2819538670001407</v>
       </c>
       <c r="K6">
-        <v>0.2878339711401203</v>
+        <v>0.2709822426057933</v>
       </c>
       <c r="L6">
-        <v>0.06368227538942151</v>
+        <v>0.1526140700170586</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06331917609833493</v>
       </c>
       <c r="N6">
-        <v>0.2845976107490031</v>
+        <v>0.0646631711557859</v>
       </c>
       <c r="O6">
-        <v>0.3131182473642866</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9167472837672932</v>
+        <v>0.2962055902631278</v>
       </c>
       <c r="Q6">
-        <v>1.042324057905361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3120658652490036</v>
+      </c>
+      <c r="R6">
+        <v>0.9120126678070974</v>
+      </c>
+      <c r="S6">
+        <v>1.000292245245802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.451971094457917</v>
+        <v>1.42578947810091</v>
       </c>
       <c r="C7">
-        <v>0.3403662427303544</v>
+        <v>0.3301150726259436</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1167284488571418</v>
+        <v>0.1149814631918264</v>
       </c>
       <c r="F7">
-        <v>0.8216360448603766</v>
+        <v>0.8008009424044076</v>
       </c>
       <c r="G7">
-        <v>0.2693841204840766</v>
+        <v>0.2412555918242347</v>
       </c>
       <c r="H7">
-        <v>0.003531518011661461</v>
+        <v>0.003146711776486066</v>
       </c>
       <c r="I7">
-        <v>0.00111378210285018</v>
+        <v>0.001017848860944248</v>
       </c>
       <c r="J7">
-        <v>0.2547403497978422</v>
+        <v>0.2794230477452473</v>
       </c>
       <c r="K7">
-        <v>0.2871298357476668</v>
+        <v>0.2697070051060066</v>
       </c>
       <c r="L7">
-        <v>0.06614315840071328</v>
+        <v>0.1509646172654371</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06322108163227824</v>
       </c>
       <c r="N7">
-        <v>0.2939173086484033</v>
+        <v>0.06745567603006464</v>
       </c>
       <c r="O7">
-        <v>0.3277225010449882</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9156125798078136</v>
+        <v>0.3060651972280795</v>
       </c>
       <c r="Q7">
-        <v>1.053009925326648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3264655921803339</v>
+      </c>
+      <c r="R7">
+        <v>0.9129517797470825</v>
+      </c>
+      <c r="S7">
+        <v>1.007043797365839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.752364157137549</v>
+        <v>1.711662181070238</v>
       </c>
       <c r="C8">
-        <v>0.3688272492554745</v>
+        <v>0.362895469964613</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1206960229484295</v>
+        <v>0.1186311383118372</v>
       </c>
       <c r="F8">
-        <v>0.8780701035758511</v>
+        <v>0.8512907567158621</v>
       </c>
       <c r="G8">
-        <v>0.2894367434900715</v>
+        <v>0.263751488995581</v>
       </c>
       <c r="H8">
-        <v>0.001936932522186074</v>
+        <v>0.001724592804848823</v>
       </c>
       <c r="I8">
-        <v>0.0007650826995995175</v>
+        <v>0.0008629145721883447</v>
       </c>
       <c r="J8">
-        <v>0.2592566515480215</v>
+        <v>0.2767293847940664</v>
       </c>
       <c r="K8">
-        <v>0.285249618798403</v>
+        <v>0.265709948457225</v>
       </c>
       <c r="L8">
-        <v>0.07679928494343358</v>
+        <v>0.1446727604484117</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06415278470583985</v>
       </c>
       <c r="N8">
-        <v>0.334656424816572</v>
+        <v>0.07941642973977991</v>
       </c>
       <c r="O8">
-        <v>0.3921679326935816</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9111167509826359</v>
+        <v>0.3490711821725796</v>
       </c>
       <c r="Q8">
-        <v>1.105314875042822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3901783335982998</v>
+      </c>
+      <c r="R8">
+        <v>0.9169250854367164</v>
+      </c>
+      <c r="S8">
+        <v>1.045722583650402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.341316577685404</v>
+        <v>2.273966432548889</v>
       </c>
       <c r="C9">
-        <v>0.4231207300469606</v>
+        <v>0.427748970900339</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1285698547235814</v>
+        <v>0.1256458198884403</v>
       </c>
       <c r="F9">
-        <v>0.9960626483563431</v>
+        <v>0.9588370657194218</v>
       </c>
       <c r="G9">
-        <v>0.3329190061644454</v>
+        <v>0.3028719212251545</v>
       </c>
       <c r="H9">
-        <v>0.0002517047813679341</v>
+        <v>0.000220912003723539</v>
       </c>
       <c r="I9">
-        <v>0.000992045873467795</v>
+        <v>0.001220784703948929</v>
       </c>
       <c r="J9">
-        <v>0.2707548504169921</v>
+        <v>0.2857245276996352</v>
       </c>
       <c r="K9">
-        <v>0.2848010596796193</v>
+        <v>0.2614666098400065</v>
       </c>
       <c r="L9">
-        <v>0.09734588578397307</v>
+        <v>0.134382162478877</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07064273414659006</v>
       </c>
       <c r="N9">
-        <v>0.4143001507654844</v>
+        <v>0.102305280020353</v>
       </c>
       <c r="O9">
-        <v>0.5184250837603841</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9059338933441694</v>
+        <v>0.4331570869718462</v>
       </c>
       <c r="Q9">
-        <v>1.222176673975667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5152107728201187</v>
+      </c>
+      <c r="R9">
+        <v>0.9272960875014178</v>
+      </c>
+      <c r="S9">
+        <v>1.140934161260162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.762030165891872</v>
+        <v>2.668929913704119</v>
       </c>
       <c r="C10">
-        <v>0.466588326170509</v>
+        <v>0.4766324464985985</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1317506469434218</v>
+        <v>0.1286678199614339</v>
       </c>
       <c r="F10">
-        <v>1.071670125130481</v>
+        <v>1.023642354623462</v>
       </c>
       <c r="G10">
-        <v>0.3620652445824248</v>
+        <v>0.3440019673973467</v>
       </c>
       <c r="H10">
-        <v>0.0001933789302150934</v>
+        <v>0.0001927648938839788</v>
       </c>
       <c r="I10">
-        <v>0.002139306541034003</v>
+        <v>0.002353378773428894</v>
       </c>
       <c r="J10">
-        <v>0.2781016396791074</v>
+        <v>0.2712931781169701</v>
       </c>
       <c r="K10">
-        <v>0.2825466745630862</v>
+        <v>0.255087962663147</v>
       </c>
       <c r="L10">
-        <v>0.1149038830712144</v>
+        <v>0.1259323527680589</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07622614328629496</v>
       </c>
       <c r="N10">
-        <v>0.4611451791616048</v>
+        <v>0.1223151706367744</v>
       </c>
       <c r="O10">
-        <v>0.6038975815537739</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.911421062364127</v>
+        <v>0.4836564166007946</v>
       </c>
       <c r="Q10">
-        <v>1.299756435142143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5991243187779034</v>
+      </c>
+      <c r="R10">
+        <v>0.9475042482987419</v>
+      </c>
+      <c r="S10">
+        <v>1.190475385454306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.88078094905228</v>
+        <v>2.774184106609994</v>
       </c>
       <c r="C11">
-        <v>0.513741774108297</v>
+        <v>0.5201800363234383</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1137778273005043</v>
+        <v>0.1114617449058191</v>
       </c>
       <c r="F11">
-        <v>0.987093546813341</v>
+        <v>0.9356100006075962</v>
       </c>
       <c r="G11">
-        <v>0.3391182268353816</v>
+        <v>0.3550477801810246</v>
       </c>
       <c r="H11">
-        <v>0.01875802536549642</v>
+        <v>0.01875516517213427</v>
       </c>
       <c r="I11">
-        <v>0.00301520401449018</v>
+        <v>0.003276599556691018</v>
       </c>
       <c r="J11">
-        <v>0.2632840169283668</v>
+        <v>0.2230170408261145</v>
       </c>
       <c r="K11">
-        <v>0.2571487022449546</v>
+        <v>0.2297510007489834</v>
       </c>
       <c r="L11">
-        <v>0.1453237677918011</v>
+        <v>0.1146642185298496</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06960410868873979</v>
       </c>
       <c r="N11">
-        <v>0.3795934696092473</v>
+        <v>0.1555439875762588</v>
       </c>
       <c r="O11">
-        <v>0.581237066684821</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.964821033615479</v>
+        <v>0.4003656485846534</v>
       </c>
       <c r="Q11">
-        <v>1.220242347127567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5753243921361886</v>
+      </c>
+      <c r="R11">
+        <v>1.014090624044101</v>
+      </c>
+      <c r="S11">
+        <v>1.09230533399284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.895345304337127</v>
+        <v>2.786715790526614</v>
       </c>
       <c r="C12">
-        <v>0.5445918942268122</v>
+        <v>0.5477609117548354</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1020006258113302</v>
+        <v>0.09985052846928522</v>
       </c>
       <c r="F12">
-        <v>0.9040385552023622</v>
+        <v>0.8542384222544115</v>
       </c>
       <c r="G12">
-        <v>0.3153080005304361</v>
+        <v>0.3471904111876114</v>
       </c>
       <c r="H12">
-        <v>0.05742001067717695</v>
+        <v>0.05741919831009312</v>
       </c>
       <c r="I12">
-        <v>0.003080367685182495</v>
+        <v>0.003322600689277699</v>
       </c>
       <c r="J12">
-        <v>0.249977431680378</v>
+        <v>0.2001766556648974</v>
       </c>
       <c r="K12">
-        <v>0.2381557169918054</v>
+        <v>0.2126440091250998</v>
       </c>
       <c r="L12">
-        <v>0.1697625729812842</v>
+        <v>0.1081953009231142</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06364757382937292</v>
       </c>
       <c r="N12">
-        <v>0.3077857570398379</v>
+        <v>0.1814968969440329</v>
       </c>
       <c r="O12">
-        <v>0.5446375488694812</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.011508239563412</v>
+        <v>0.3258770330232039</v>
       </c>
       <c r="Q12">
-        <v>1.141957245433701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5385232921666656</v>
+      </c>
+      <c r="R12">
+        <v>1.066925184206511</v>
+      </c>
+      <c r="S12">
+        <v>1.012433140921914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.826092436852718</v>
+        <v>2.726930664514157</v>
       </c>
       <c r="C13">
-        <v>0.5658855672227219</v>
+        <v>0.5676292954453288</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09414648607203624</v>
+        <v>0.09186934274106262</v>
       </c>
       <c r="F13">
-        <v>0.8153213514313791</v>
+        <v>0.7720574912309388</v>
       </c>
       <c r="G13">
-        <v>0.28789661972678</v>
+        <v>0.3164092620265535</v>
       </c>
       <c r="H13">
-        <v>0.1131519720072163</v>
+        <v>0.1131553667518688</v>
       </c>
       <c r="I13">
-        <v>0.002849166310939566</v>
+        <v>0.003106876956044502</v>
       </c>
       <c r="J13">
-        <v>0.2362412965917358</v>
+        <v>0.1951349875143862</v>
       </c>
       <c r="K13">
-        <v>0.2217168930625633</v>
+        <v>0.1998770299375661</v>
       </c>
       <c r="L13">
-        <v>0.1910754107968415</v>
+        <v>0.1042094608215347</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0577790137301033</v>
       </c>
       <c r="N13">
-        <v>0.2406035678638503</v>
+        <v>0.202847019710866</v>
       </c>
       <c r="O13">
-        <v>0.4952602306469913</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.056345596811795</v>
+        <v>0.2552117680919963</v>
       </c>
       <c r="Q13">
-        <v>1.05505993683353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.489845012301231</v>
+      </c>
+      <c r="R13">
+        <v>1.110577856162422</v>
+      </c>
+      <c r="S13">
+        <v>0.9406868151176297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.739020565922374</v>
+        <v>2.651461000648567</v>
       </c>
       <c r="C14">
-        <v>0.5768673002124842</v>
+        <v>0.5785408476576492</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09094510091399022</v>
+        <v>0.08859311875407794</v>
       </c>
       <c r="F14">
-        <v>0.7511859074032188</v>
+        <v>0.7142587809396943</v>
       </c>
       <c r="G14">
-        <v>0.2670435696183873</v>
+        <v>0.2856435748914095</v>
       </c>
       <c r="H14">
-        <v>0.1624927927905304</v>
+        <v>0.1624967129143329</v>
       </c>
       <c r="I14">
-        <v>0.002644511545926598</v>
+        <v>0.002940286355043398</v>
       </c>
       <c r="J14">
-        <v>0.2263901007892102</v>
+        <v>0.198214856465917</v>
       </c>
       <c r="K14">
-        <v>0.2113832677031979</v>
+        <v>0.1926834673515589</v>
       </c>
       <c r="L14">
-        <v>0.204854979152671</v>
+        <v>0.102323132187248</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05377177724548687</v>
       </c>
       <c r="N14">
-        <v>0.1972536568624221</v>
+        <v>0.2158794697307087</v>
       </c>
       <c r="O14">
-        <v>0.4552738028074259</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.087426217679507</v>
+        <v>0.209267084868145</v>
       </c>
       <c r="Q14">
-        <v>0.9901717886252612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4506947985513321</v>
+      </c>
+      <c r="R14">
+        <v>1.137210564452715</v>
+      </c>
+      <c r="S14">
+        <v>0.8928718771434632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.699104048513618</v>
+        <v>2.616531740842049</v>
       </c>
       <c r="C15">
-        <v>0.577720588183837</v>
+        <v>0.5798141624748894</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09047648304365474</v>
+        <v>0.08813227530108181</v>
       </c>
       <c r="F15">
-        <v>0.7337768054006659</v>
+        <v>0.69917872802354</v>
       </c>
       <c r="G15">
-        <v>0.2608860911811135</v>
+        <v>0.2740124757962619</v>
       </c>
       <c r="H15">
-        <v>0.1750025982738492</v>
+        <v>0.1750055858298083</v>
       </c>
       <c r="I15">
-        <v>0.002645715866999687</v>
+        <v>0.002978563498625242</v>
       </c>
       <c r="J15">
-        <v>0.2237510799471849</v>
+        <v>0.2018266144383034</v>
       </c>
       <c r="K15">
-        <v>0.2091100775415882</v>
+        <v>0.1914500242027586</v>
       </c>
       <c r="L15">
-        <v>0.2072542411536276</v>
+        <v>0.102174266199043</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05273419117898825</v>
       </c>
       <c r="N15">
-        <v>0.1868880923217873</v>
+        <v>0.2177771955844037</v>
       </c>
       <c r="O15">
-        <v>0.4428112468036218</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.094464450395307</v>
+        <v>0.1981756323822665</v>
       </c>
       <c r="Q15">
-        <v>0.9715616691847373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4385852509897674</v>
+      </c>
+      <c r="R15">
+        <v>1.141669413587323</v>
+      </c>
+      <c r="S15">
+        <v>0.8812410548067078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.531904070789949</v>
+        <v>2.467732545492936</v>
       </c>
       <c r="C16">
-        <v>0.5543712275438111</v>
+        <v>0.5594886939677224</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09073437641889137</v>
+        <v>0.08853707856022303</v>
       </c>
       <c r="F16">
-        <v>0.7197095603489103</v>
+        <v>0.6920270054523101</v>
       </c>
       <c r="G16">
-        <v>0.2534733130396845</v>
+        <v>0.2418094699360296</v>
       </c>
       <c r="H16">
-        <v>0.1622909768913985</v>
+        <v>0.1622791135984585</v>
       </c>
       <c r="I16">
-        <v>0.002282051815000408</v>
+        <v>0.002679903147066121</v>
       </c>
       <c r="J16">
-        <v>0.2230429767205209</v>
+        <v>0.2290992945636745</v>
       </c>
       <c r="K16">
-        <v>0.2128961876498998</v>
+        <v>0.1975710690654058</v>
       </c>
       <c r="L16">
-        <v>0.19476535124425</v>
+        <v>0.1056925659076722</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05259056401804152</v>
       </c>
       <c r="N16">
-        <v>0.1823787189108401</v>
+        <v>0.202683511000096</v>
       </c>
       <c r="O16">
-        <v>0.4173420189536543</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.080495812529151</v>
+        <v>0.1925855698659831</v>
       </c>
       <c r="Q16">
-        <v>0.9541943423188854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4144072458099259</v>
+      </c>
+      <c r="R16">
+        <v>1.115076151656382</v>
+      </c>
+      <c r="S16">
+        <v>0.8877863991599781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.44984546265249</v>
+        <v>2.39197153191634</v>
       </c>
       <c r="C17">
-        <v>0.530715734441344</v>
+        <v>0.5371508728461549</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09227606724627013</v>
+        <v>0.09007897581607494</v>
       </c>
       <c r="F17">
-        <v>0.7425658914251656</v>
+        <v>0.7164669605409841</v>
       </c>
       <c r="G17">
-        <v>0.2588086640419931</v>
+        <v>0.2363742202243984</v>
       </c>
       <c r="H17">
-        <v>0.1245490256088999</v>
+        <v>0.1245222862630158</v>
       </c>
       <c r="I17">
-        <v>0.002146730604660085</v>
+        <v>0.002570645827285389</v>
       </c>
       <c r="J17">
-        <v>0.2277356652726539</v>
+        <v>0.2465125077415351</v>
       </c>
       <c r="K17">
-        <v>0.221217199369331</v>
+        <v>0.2059719864964613</v>
       </c>
       <c r="L17">
-        <v>0.1777835358067392</v>
+        <v>0.1096211482880953</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05439256063039721</v>
       </c>
       <c r="N17">
-        <v>0.2009933494338085</v>
+        <v>0.1844948704377103</v>
       </c>
       <c r="O17">
-        <v>0.4187825291930594</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.053595708970647</v>
+        <v>0.2116624214573406</v>
       </c>
       <c r="Q17">
-        <v>0.9752288879625723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4162919325613785</v>
+      </c>
+      <c r="R17">
+        <v>1.08245203252703</v>
+      </c>
+      <c r="S17">
+        <v>0.9161863685206413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.433509573506058</v>
+        <v>2.374781030194868</v>
       </c>
       <c r="C18">
-        <v>0.5037953942226352</v>
+        <v>0.5112451506649336</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0970809120409486</v>
+        <v>0.09469248524627716</v>
       </c>
       <c r="F18">
-        <v>0.8021643019002269</v>
+        <v>0.7742953319147574</v>
       </c>
       <c r="G18">
-        <v>0.2765975806685574</v>
+        <v>0.248092067223304</v>
       </c>
       <c r="H18">
-        <v>0.07173371121027117</v>
+        <v>0.07170195218507303</v>
       </c>
       <c r="I18">
-        <v>0.001881337314262765</v>
+        <v>0.002263892188669736</v>
       </c>
       <c r="J18">
-        <v>0.2380003408203564</v>
+        <v>0.261716527907133</v>
       </c>
       <c r="K18">
-        <v>0.2353142259791312</v>
+        <v>0.2185720565110749</v>
       </c>
       <c r="L18">
-        <v>0.1559620729358571</v>
+        <v>0.1148674755826331</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05839786821786142</v>
       </c>
       <c r="N18">
-        <v>0.2454663520334179</v>
+        <v>0.1621308838291853</v>
       </c>
       <c r="O18">
-        <v>0.4440557229007709</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.013100178939951</v>
+        <v>0.2578697466037454</v>
       </c>
       <c r="Q18">
-        <v>1.034381832974248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4415560191215917</v>
+      </c>
+      <c r="R18">
+        <v>1.039684759656552</v>
+      </c>
+      <c r="S18">
+        <v>0.9733974624121942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.465579868411794</v>
+        <v>2.401328620147353</v>
       </c>
       <c r="C19">
-        <v>0.4794976727995675</v>
+        <v>0.4881419658609332</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1070285400897202</v>
+        <v>0.1042932445788889</v>
       </c>
       <c r="F19">
-        <v>0.8875901008076994</v>
+        <v>0.8556132263323803</v>
       </c>
       <c r="G19">
-        <v>0.3020618243242197</v>
+        <v>0.2695758568754343</v>
       </c>
       <c r="H19">
-        <v>0.02643617957556899</v>
+        <v>0.02641180081180039</v>
       </c>
       <c r="I19">
-        <v>0.002046221406938109</v>
+        <v>0.002452487451614083</v>
       </c>
       <c r="J19">
-        <v>0.2513723151057192</v>
+        <v>0.275510309245476</v>
       </c>
       <c r="K19">
-        <v>0.2527013237375613</v>
+        <v>0.2333976486241696</v>
       </c>
       <c r="L19">
-        <v>0.1340872962121367</v>
+        <v>0.1206615502079416</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06378295259968247</v>
       </c>
       <c r="N19">
-        <v>0.3149244778249454</v>
+        <v>0.1400610758196734</v>
       </c>
       <c r="O19">
-        <v>0.4873847912757938</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9698809285744403</v>
+        <v>0.3301400163077375</v>
       </c>
       <c r="Q19">
-        <v>1.11635806718725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4845794311725911</v>
+      </c>
+      <c r="R19">
+        <v>0.9962849946592485</v>
+      </c>
+      <c r="S19">
+        <v>1.047540757519826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.64263164878588</v>
+        <v>2.560176419622508</v>
       </c>
       <c r="C20">
-        <v>0.4584611605998674</v>
+        <v>0.4690149643828789</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1305977281473787</v>
+        <v>0.1273113501432679</v>
       </c>
       <c r="F20">
-        <v>1.046742529819937</v>
+        <v>1.003734080566815</v>
       </c>
       <c r="G20">
-        <v>0.3511332592182441</v>
+        <v>0.320856468324763</v>
       </c>
       <c r="H20">
-        <v>0.0001243653907021525</v>
+        <v>0.0001232259602157448</v>
       </c>
       <c r="I20">
-        <v>0.002511778957549282</v>
+        <v>0.002907047921159922</v>
       </c>
       <c r="J20">
-        <v>0.2744843046057497</v>
+        <v>0.2854369219209474</v>
       </c>
       <c r="K20">
-        <v>0.2805797460346078</v>
+        <v>0.2553421027720262</v>
       </c>
       <c r="L20">
-        <v>0.1110551252271037</v>
+        <v>0.1275843395896512</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07408852420826051</v>
       </c>
       <c r="N20">
-        <v>0.4502251588104826</v>
+        <v>0.1174956597578429</v>
       </c>
       <c r="O20">
-        <v>0.5807731540410828</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9134286751682126</v>
+        <v>0.4714233932941454</v>
       </c>
       <c r="Q20">
-        <v>1.268901002983142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5767945871956215</v>
+      </c>
+      <c r="R20">
+        <v>0.9442352719715359</v>
+      </c>
+      <c r="S20">
+        <v>1.174972921598282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.978214475961977</v>
+        <v>2.854373656201005</v>
       </c>
       <c r="C21">
-        <v>0.4870215138340512</v>
+        <v>0.4932652985659445</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.137066425509115</v>
+        <v>0.1349985812997971</v>
       </c>
       <c r="F21">
-        <v>1.128182844827805</v>
+        <v>1.06452650491633</v>
       </c>
       <c r="G21">
-        <v>0.3811012532534761</v>
+        <v>0.4103298951575454</v>
       </c>
       <c r="H21">
-        <v>0.0001666586324460262</v>
+        <v>0.0001418220519033841</v>
       </c>
       <c r="I21">
-        <v>0.003581594009705924</v>
+        <v>0.003839911675088459</v>
       </c>
       <c r="J21">
-        <v>0.2840346286255198</v>
+        <v>0.2225821732821345</v>
       </c>
       <c r="K21">
-        <v>0.2841232422334308</v>
+        <v>0.2500560318719565</v>
       </c>
       <c r="L21">
-        <v>0.120871465072355</v>
+        <v>0.1212583379925185</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07868104452735025</v>
       </c>
       <c r="N21">
-        <v>0.5055835599624032</v>
+        <v>0.1310637065793827</v>
       </c>
       <c r="O21">
-        <v>0.6573952480557068</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9103709713861861</v>
+        <v>0.5325806605960253</v>
       </c>
       <c r="Q21">
-        <v>1.352735841774461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6500528816121545</v>
+      </c>
+      <c r="R21">
+        <v>0.9618642485312563</v>
+      </c>
+      <c r="S21">
+        <v>1.194940585126858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.196875123954953</v>
+        <v>3.044203064053363</v>
       </c>
       <c r="C22">
-        <v>0.5058705537634296</v>
+        <v>0.5085221466862322</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1400763707675452</v>
+        <v>0.1390398500617422</v>
       </c>
       <c r="F22">
-        <v>1.176934662341395</v>
+        <v>1.09894663474229</v>
       </c>
       <c r="G22">
-        <v>0.4002633597822864</v>
+        <v>0.476976494126049</v>
       </c>
       <c r="H22">
-        <v>0.0004944739541672405</v>
+        <v>0.0004182453687744392</v>
       </c>
       <c r="I22">
-        <v>0.004172582794028656</v>
+        <v>0.004230180448086429</v>
       </c>
       <c r="J22">
-        <v>0.2901192497370744</v>
+        <v>0.1873473206938456</v>
       </c>
       <c r="K22">
-        <v>0.2862620188321543</v>
+        <v>0.2460785808845714</v>
       </c>
       <c r="L22">
-        <v>0.1282015137142665</v>
+        <v>0.1171157376830383</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08172803815695673</v>
       </c>
       <c r="N22">
-        <v>0.5346572688237927</v>
+        <v>0.1410799004439909</v>
       </c>
       <c r="O22">
-        <v>0.7040423901495814</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9102267302618259</v>
+        <v>0.5654469652155001</v>
       </c>
       <c r="Q22">
-        <v>1.406292389026078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6942952262027546</v>
+      </c>
+      <c r="R22">
+        <v>0.9763608128062202</v>
+      </c>
+      <c r="S22">
+        <v>1.203474196125939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.083570146263185</v>
+        <v>2.94906654243681</v>
       </c>
       <c r="C23">
-        <v>0.4945828216285832</v>
+        <v>0.500248807600002</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.138547674421897</v>
+        <v>0.1367441615516469</v>
       </c>
       <c r="F23">
-        <v>1.152460924693983</v>
+        <v>1.083650686795664</v>
       </c>
       <c r="G23">
-        <v>0.3911263496909783</v>
+        <v>0.4345520303451025</v>
       </c>
       <c r="H23">
-        <v>0.000300140001636251</v>
+        <v>0.0002559291465416003</v>
       </c>
       <c r="I23">
-        <v>0.00355699864027148</v>
+        <v>0.003668123567810433</v>
       </c>
       <c r="J23">
-        <v>0.2874213647865105</v>
+        <v>0.2116020750124719</v>
       </c>
       <c r="K23">
-        <v>0.2859852604227378</v>
+        <v>0.2496452372797364</v>
       </c>
       <c r="L23">
-        <v>0.1240316641940993</v>
+        <v>0.1197827551542012</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08070237446467132</v>
       </c>
       <c r="N23">
-        <v>0.5183756828576094</v>
+        <v>0.1351756451011425</v>
       </c>
       <c r="O23">
-        <v>0.6792992447486483</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9088778691002091</v>
+        <v>0.5467955095797379</v>
       </c>
       <c r="Q23">
-        <v>1.381170896324022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6711276858602773</v>
+      </c>
+      <c r="R23">
+        <v>0.9656278423651088</v>
+      </c>
+      <c r="S23">
+        <v>1.207683289119359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.648314881619569</v>
+        <v>2.565507983315001</v>
       </c>
       <c r="C24">
-        <v>0.4539407682451895</v>
+        <v>0.4643922654098844</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1326496646878805</v>
+        <v>0.1293103121071599</v>
       </c>
       <c r="F24">
-        <v>1.058803867123743</v>
+        <v>1.015381259387766</v>
       </c>
       <c r="G24">
-        <v>0.355613116056702</v>
+        <v>0.3245263087180916</v>
       </c>
       <c r="H24">
-        <v>3.169963055826841E-06</v>
+        <v>2.376268050774399E-06</v>
       </c>
       <c r="I24">
-        <v>0.002051533553359519</v>
+        <v>0.002346293804742494</v>
       </c>
       <c r="J24">
-        <v>0.2768356812311765</v>
+        <v>0.2882361982210071</v>
       </c>
       <c r="K24">
-        <v>0.2841036024034942</v>
+        <v>0.2584877546865698</v>
       </c>
       <c r="L24">
-        <v>0.1086871167160908</v>
+        <v>0.1288129258279547</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0752244409625682</v>
       </c>
       <c r="N24">
-        <v>0.4582089916312526</v>
+        <v>0.1150265604323195</v>
       </c>
       <c r="O24">
-        <v>0.5853684654777283</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9074312265259081</v>
+        <v>0.4796926509258697</v>
       </c>
       <c r="Q24">
-        <v>1.283319138221827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5813736919924537</v>
+      </c>
+      <c r="R24">
+        <v>0.9377485710976146</v>
+      </c>
+      <c r="S24">
+        <v>1.188629179928256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.177443025112666</v>
+        <v>2.118973131811401</v>
       </c>
       <c r="C25">
-        <v>0.4102084973197009</v>
+        <v>0.4127198195023283</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1263180361131795</v>
+        <v>0.1235272891290222</v>
       </c>
       <c r="F25">
-        <v>0.9610931027913665</v>
+        <v>0.9276371199252935</v>
       </c>
       <c r="G25">
-        <v>0.3191332870283716</v>
+        <v>0.2867672282991833</v>
       </c>
       <c r="H25">
-        <v>0.0005443943155305497</v>
+        <v>0.0004798459994320714</v>
       </c>
       <c r="I25">
-        <v>0.001188116775839632</v>
+        <v>0.001487573282779486</v>
       </c>
       <c r="J25">
-        <v>0.2665585177213856</v>
+        <v>0.2873462872115766</v>
       </c>
       <c r="K25">
-        <v>0.2833304788778257</v>
+        <v>0.2615467095402302</v>
       </c>
       <c r="L25">
-        <v>0.0921645644204574</v>
+        <v>0.1366890166793855</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0681297772246019</v>
       </c>
       <c r="N25">
-        <v>0.3937823148177699</v>
+        <v>0.09635841731088135</v>
       </c>
       <c r="O25">
-        <v>0.4840659326365611</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9086719609100768</v>
+        <v>0.4112773576963775</v>
       </c>
       <c r="Q25">
-        <v>1.184006518860087</v>
+        <v>0.4813474967934752</v>
+      </c>
+      <c r="R25">
+        <v>0.9253033757948472</v>
+      </c>
+      <c r="S25">
+        <v>1.112039135121393</v>
       </c>
     </row>
   </sheetData>
